--- a/collection.xlsx
+++ b/collection.xlsx
@@ -854,9 +854,6 @@
     <t>BeyBlade: Super Tournament Battle</t>
   </si>
   <si>
-    <t>1080° Avalanche</t>
-  </si>
-  <si>
     <t>XIII</t>
   </si>
   <si>
@@ -1665,6 +1662,9 @@
   </si>
   <si>
     <t>http://i238.photobucket.com/albums/ff172/benjamin_fun/Games/20170606_214139_zpsjolyfga8.jpg</t>
+  </si>
+  <si>
+    <t>1080 Avalanche</t>
   </si>
 </sst>
 </file>
@@ -2013,8 +2013,8 @@
   <dimension ref="A1:P1144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A235" sqref="A235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,22 +2056,22 @@
         <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M1" t="s">
         <v>532</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>533</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>534</v>
       </c>
-      <c r="O1" t="s">
-        <v>535</v>
-      </c>
       <c r="P1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2103,7 +2103,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2135,16 +2135,16 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
+        <v>544</v>
+      </c>
+      <c r="L3" t="s">
         <v>545</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>546</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>547</v>
-      </c>
-      <c r="N3" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -2253,19 +2253,19 @@
         <v>10</v>
       </c>
       <c r="K8" t="s">
+        <v>526</v>
+      </c>
+      <c r="L8" t="s">
         <v>527</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" t="s">
         <v>529</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>530</v>
-      </c>
-      <c r="O8" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -2288,7 +2288,7 @@
         <v>37305</v>
       </c>
       <c r="G9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -2311,7 +2311,7 @@
         <v>37324</v>
       </c>
       <c r="G10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2401,16 +2401,16 @@
         <v>10</v>
       </c>
       <c r="K13" t="s">
+        <v>540</v>
+      </c>
+      <c r="L13" t="s">
         <v>541</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>542</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>543</v>
-      </c>
-      <c r="N13" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -3881,7 +3881,7 @@
         <v>37538</v>
       </c>
       <c r="G66" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -7521,7 +7521,7 @@
         <v>37928</v>
       </c>
       <c r="G221" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -7717,7 +7717,7 @@
         <v>37943</v>
       </c>
       <c r="G229" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -7837,7 +7837,7 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>278</v>
+        <v>548</v>
       </c>
       <c r="B235" t="s">
         <v>9</v>
@@ -7860,7 +7860,7 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B236" t="s">
         <v>9</v>
@@ -7883,7 +7883,7 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B237" t="s">
         <v>9</v>
@@ -7906,7 +7906,7 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
@@ -7929,7 +7929,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B239" t="s">
         <v>9</v>
@@ -7952,7 +7952,7 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B240" t="s">
         <v>9</v>
@@ -7975,7 +7975,7 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B241" t="s">
         <v>9</v>
@@ -7998,7 +7998,7 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B242" t="s">
         <v>9</v>
@@ -8021,7 +8021,7 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B243" t="s">
         <v>9</v>
@@ -8039,12 +8039,12 @@
         <v>37959</v>
       </c>
       <c r="G243" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B244" t="s">
         <v>9</v>
@@ -8073,7 +8073,7 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B245" t="s">
         <v>9</v>
@@ -8096,7 +8096,7 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B246" t="s">
         <v>9</v>
@@ -8119,7 +8119,7 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B247" t="s">
         <v>9</v>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B248" t="s">
         <v>9</v>
@@ -8177,7 +8177,7 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B249" t="s">
         <v>9</v>
@@ -8200,7 +8200,7 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B250" t="s">
         <v>9</v>
@@ -8223,7 +8223,7 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B251" t="s">
         <v>9</v>
@@ -8246,7 +8246,7 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B252" t="s">
         <v>9</v>
@@ -8269,7 +8269,7 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B253" t="s">
         <v>9</v>
@@ -8292,7 +8292,7 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B254" t="s">
         <v>9</v>
@@ -8315,7 +8315,7 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B255" t="s">
         <v>9</v>
@@ -8338,7 +8338,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B256" t="s">
         <v>9</v>
@@ -8361,7 +8361,7 @@
     </row>
     <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B257" t="s">
         <v>9</v>
@@ -8384,7 +8384,7 @@
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B258" t="s">
         <v>9</v>
@@ -8407,7 +8407,7 @@
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B259" t="s">
         <v>9</v>
@@ -8430,7 +8430,7 @@
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B260" t="s">
         <v>9</v>
@@ -8459,7 +8459,7 @@
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B261" t="s">
         <v>9</v>
@@ -8482,7 +8482,7 @@
     </row>
     <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B262" t="s">
         <v>9</v>
@@ -8505,7 +8505,7 @@
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B263" t="s">
         <v>9</v>
@@ -8528,7 +8528,7 @@
     </row>
     <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B264" t="s">
         <v>9</v>
@@ -8551,7 +8551,7 @@
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B265" t="s">
         <v>9</v>
@@ -8574,7 +8574,7 @@
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B266" t="s">
         <v>9</v>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B267" t="s">
         <v>9</v>
@@ -8620,7 +8620,7 @@
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B268" t="s">
         <v>9</v>
@@ -8643,7 +8643,7 @@
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B269" t="s">
         <v>9</v>
@@ -8664,12 +8664,12 @@
         <v>52</v>
       </c>
       <c r="P269" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B270" t="s">
         <v>9</v>
@@ -8692,7 +8692,7 @@
     </row>
     <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B271" t="s">
         <v>9</v>
@@ -8715,7 +8715,7 @@
     </row>
     <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B272" t="s">
         <v>9</v>
@@ -8738,7 +8738,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B273" t="s">
         <v>9</v>
@@ -8761,7 +8761,7 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B274" t="s">
         <v>9</v>
@@ -8784,7 +8784,7 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B275" t="s">
         <v>9</v>
@@ -8807,7 +8807,7 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B276" t="s">
         <v>9</v>
@@ -8830,7 +8830,7 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B277" t="s">
         <v>9</v>
@@ -8853,7 +8853,7 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B278" t="s">
         <v>9</v>
@@ -8876,7 +8876,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B279" t="s">
         <v>9</v>
@@ -8899,7 +8899,7 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B280" t="s">
         <v>9</v>
@@ -8928,7 +8928,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B281" t="s">
         <v>9</v>
@@ -8951,7 +8951,7 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B282" t="s">
         <v>9</v>
@@ -8974,7 +8974,7 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B283" t="s">
         <v>9</v>
@@ -9003,7 +9003,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B284" t="s">
         <v>9</v>
@@ -9026,7 +9026,7 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B285" t="s">
         <v>9</v>
@@ -9049,7 +9049,7 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B286" t="s">
         <v>9</v>
@@ -9072,7 +9072,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B287" t="s">
         <v>9</v>
@@ -9090,12 +9090,12 @@
         <v>38096</v>
       </c>
       <c r="G287" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B288" t="s">
         <v>9</v>
@@ -9118,7 +9118,7 @@
     </row>
     <row r="289" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B289" t="s">
         <v>9</v>
@@ -9141,7 +9141,7 @@
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B290" t="s">
         <v>9</v>
@@ -9168,12 +9168,12 @@
         <v>12</v>
       </c>
       <c r="P290" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="291" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B291" t="s">
         <v>9</v>
@@ -9202,7 +9202,7 @@
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B292" t="s">
         <v>9</v>
@@ -9231,7 +9231,7 @@
     </row>
     <row r="293" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B293" t="s">
         <v>9</v>
@@ -9254,7 +9254,7 @@
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B294" t="s">
         <v>9</v>
@@ -9277,7 +9277,7 @@
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B295" t="s">
         <v>9</v>
@@ -9300,7 +9300,7 @@
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B296" t="s">
         <v>9</v>
@@ -9323,7 +9323,7 @@
     </row>
     <row r="297" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B297" t="s">
         <v>9</v>
@@ -9346,7 +9346,7 @@
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B298" t="s">
         <v>9</v>
@@ -9369,7 +9369,7 @@
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B299" t="s">
         <v>9</v>
@@ -9392,7 +9392,7 @@
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B300" t="s">
         <v>9</v>
@@ -9415,7 +9415,7 @@
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B301" t="s">
         <v>9</v>
@@ -9438,7 +9438,7 @@
     </row>
     <row r="302" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B302" t="s">
         <v>9</v>
@@ -9461,7 +9461,7 @@
     </row>
     <row r="303" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B303" t="s">
         <v>9</v>
@@ -9490,7 +9490,7 @@
     </row>
     <row r="304" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B304" t="s">
         <v>9</v>
@@ -9508,12 +9508,12 @@
         <v>38220</v>
       </c>
       <c r="G304" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B305" t="s">
         <v>9</v>
@@ -9542,7 +9542,7 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B306" t="s">
         <v>9</v>
@@ -9565,7 +9565,7 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B307" t="s">
         <v>9</v>
@@ -9588,7 +9588,7 @@
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B308" t="s">
         <v>9</v>
@@ -9611,7 +9611,7 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B309" t="s">
         <v>9</v>
@@ -9634,7 +9634,7 @@
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B310" t="s">
         <v>9</v>
@@ -9657,7 +9657,7 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B311" t="s">
         <v>9</v>
@@ -9680,7 +9680,7 @@
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B312" t="s">
         <v>9</v>
@@ -9703,7 +9703,7 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B313" t="s">
         <v>9</v>
@@ -9726,7 +9726,7 @@
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B314" t="s">
         <v>9</v>
@@ -9749,7 +9749,7 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B315" t="s">
         <v>9</v>
@@ -9772,7 +9772,7 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B316" t="s">
         <v>9</v>
@@ -9795,7 +9795,7 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B317" t="s">
         <v>9</v>
@@ -9818,7 +9818,7 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B318" t="s">
         <v>9</v>
@@ -9847,7 +9847,7 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B319" t="s">
         <v>9</v>
@@ -9870,7 +9870,7 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B320" t="s">
         <v>9</v>
@@ -9893,7 +9893,7 @@
     </row>
     <row r="321" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B321" t="s">
         <v>9</v>
@@ -9920,12 +9920,12 @@
         <v>12</v>
       </c>
       <c r="P321" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B322" t="s">
         <v>9</v>
@@ -9954,7 +9954,7 @@
     </row>
     <row r="323" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B323" t="s">
         <v>9</v>
@@ -9977,7 +9977,7 @@
     </row>
     <row r="324" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B324" t="s">
         <v>9</v>
@@ -10000,7 +10000,7 @@
     </row>
     <row r="325" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B325" t="s">
         <v>9</v>
@@ -10023,7 +10023,7 @@
     </row>
     <row r="326" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B326" t="s">
         <v>9</v>
@@ -10046,7 +10046,7 @@
     </row>
     <row r="327" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B327" t="s">
         <v>9</v>
@@ -10064,12 +10064,12 @@
         <v>38293</v>
       </c>
       <c r="G327" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="328" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B328" t="s">
         <v>9</v>
@@ -10087,12 +10087,12 @@
         <v>38295</v>
       </c>
       <c r="G328" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="329" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B329" t="s">
         <v>9</v>
@@ -10115,7 +10115,7 @@
     </row>
     <row r="330" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B330" t="s">
         <v>9</v>
@@ -10138,7 +10138,7 @@
     </row>
     <row r="331" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B331" t="s">
         <v>9</v>
@@ -10161,7 +10161,7 @@
     </row>
     <row r="332" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B332" t="s">
         <v>9</v>
@@ -10184,7 +10184,7 @@
     </row>
     <row r="333" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B333" t="s">
         <v>9</v>
@@ -10213,7 +10213,7 @@
     </row>
     <row r="334" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B334" t="s">
         <v>9</v>
@@ -10236,7 +10236,7 @@
     </row>
     <row r="335" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B335" t="s">
         <v>9</v>
@@ -10259,7 +10259,7 @@
     </row>
     <row r="336" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B336" t="s">
         <v>9</v>
@@ -10282,7 +10282,7 @@
     </row>
     <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B337" t="s">
         <v>9</v>
@@ -10305,7 +10305,7 @@
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B338" t="s">
         <v>9</v>
@@ -10328,7 +10328,7 @@
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B339" t="s">
         <v>9</v>
@@ -10346,7 +10346,7 @@
         <v>38314</v>
       </c>
       <c r="G339" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H339" t="s">
         <v>10</v>
@@ -10357,7 +10357,7 @@
     </row>
     <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B340" t="s">
         <v>9</v>
@@ -10380,7 +10380,7 @@
     </row>
     <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B341" t="s">
         <v>9</v>
@@ -10403,7 +10403,7 @@
     </row>
     <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B342" t="s">
         <v>9</v>
@@ -10426,7 +10426,7 @@
     </row>
     <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B343" t="s">
         <v>9</v>
@@ -10449,7 +10449,7 @@
     </row>
     <row r="344" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B344" t="s">
         <v>9</v>
@@ -10472,7 +10472,7 @@
     </row>
     <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B345" t="s">
         <v>9</v>
@@ -10495,7 +10495,7 @@
     </row>
     <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B346" t="s">
         <v>9</v>
@@ -10518,7 +10518,7 @@
     </row>
     <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B347" t="s">
         <v>9</v>
@@ -10541,7 +10541,7 @@
     </row>
     <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B348" t="s">
         <v>9</v>
@@ -10562,12 +10562,12 @@
         <v>52</v>
       </c>
       <c r="P348" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B349" t="s">
         <v>9</v>
@@ -10590,7 +10590,7 @@
     </row>
     <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B350" t="s">
         <v>9</v>
@@ -10613,7 +10613,7 @@
     </row>
     <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B351" t="s">
         <v>9</v>
@@ -10636,7 +10636,7 @@
     </row>
     <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B352" t="s">
         <v>9</v>
@@ -10657,12 +10657,12 @@
         <v>52</v>
       </c>
       <c r="P352" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="353" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B353" t="s">
         <v>9</v>
@@ -10685,7 +10685,7 @@
     </row>
     <row r="354" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B354" t="s">
         <v>9</v>
@@ -10708,7 +10708,7 @@
     </row>
     <row r="355" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B355" t="s">
         <v>9</v>
@@ -10731,7 +10731,7 @@
     </row>
     <row r="356" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B356" t="s">
         <v>9</v>
@@ -10754,7 +10754,7 @@
     </row>
     <row r="357" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B357" t="s">
         <v>9</v>
@@ -10777,7 +10777,7 @@
     </row>
     <row r="358" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B358" t="s">
         <v>9</v>
@@ -10800,7 +10800,7 @@
     </row>
     <row r="359" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B359" t="s">
         <v>9</v>
@@ -10823,7 +10823,7 @@
     </row>
     <row r="360" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B360" t="s">
         <v>9</v>
@@ -10846,7 +10846,7 @@
     </row>
     <row r="361" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B361" t="s">
         <v>9</v>
@@ -10869,7 +10869,7 @@
     </row>
     <row r="362" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B362" t="s">
         <v>9</v>
@@ -10892,7 +10892,7 @@
     </row>
     <row r="363" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B363" t="s">
         <v>9</v>
@@ -10915,7 +10915,7 @@
     </row>
     <row r="364" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B364" t="s">
         <v>9</v>
@@ -10938,7 +10938,7 @@
     </row>
     <row r="365" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B365" t="s">
         <v>9</v>
@@ -10961,7 +10961,7 @@
     </row>
     <row r="366" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B366" t="s">
         <v>9</v>
@@ -10984,7 +10984,7 @@
     </row>
     <row r="367" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B367" t="s">
         <v>9</v>
@@ -11007,7 +11007,7 @@
     </row>
     <row r="368" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B368" t="s">
         <v>9</v>
@@ -11034,12 +11034,12 @@
         <v>12</v>
       </c>
       <c r="P368" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B369" t="s">
         <v>9</v>
@@ -11068,7 +11068,7 @@
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B370" t="s">
         <v>9</v>
@@ -11091,7 +11091,7 @@
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B371" t="s">
         <v>9</v>
@@ -11114,7 +11114,7 @@
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B372" t="s">
         <v>9</v>
@@ -11137,7 +11137,7 @@
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B373" t="s">
         <v>9</v>
@@ -11160,7 +11160,7 @@
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B374" t="s">
         <v>9</v>
@@ -11183,7 +11183,7 @@
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B375" t="s">
         <v>9</v>
@@ -11206,7 +11206,7 @@
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B376" t="s">
         <v>9</v>
@@ -11229,7 +11229,7 @@
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B377" t="s">
         <v>9</v>
@@ -11252,7 +11252,7 @@
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B378" t="s">
         <v>9</v>
@@ -11275,7 +11275,7 @@
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B379" t="s">
         <v>9</v>
@@ -11298,7 +11298,7 @@
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B380" t="s">
         <v>9</v>
@@ -11321,7 +11321,7 @@
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B381" t="s">
         <v>9</v>
@@ -11344,7 +11344,7 @@
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B382" t="s">
         <v>9</v>
@@ -11367,7 +11367,7 @@
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B383" t="s">
         <v>9</v>
@@ -11390,7 +11390,7 @@
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B384" t="s">
         <v>9</v>
@@ -11413,7 +11413,7 @@
     </row>
     <row r="385" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B385" t="s">
         <v>9</v>
@@ -11440,12 +11440,12 @@
         <v>12</v>
       </c>
       <c r="P385" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="386" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B386" t="s">
         <v>9</v>
@@ -11474,7 +11474,7 @@
     </row>
     <row r="387" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B387" t="s">
         <v>9</v>
@@ -11497,7 +11497,7 @@
     </row>
     <row r="388" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B388" t="s">
         <v>9</v>
@@ -11520,7 +11520,7 @@
     </row>
     <row r="389" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B389" t="s">
         <v>9</v>
@@ -11541,12 +11541,12 @@
         <v>52</v>
       </c>
       <c r="P389" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="390" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B390" t="s">
         <v>9</v>
@@ -11569,7 +11569,7 @@
     </row>
     <row r="391" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B391" t="s">
         <v>9</v>
@@ -11592,7 +11592,7 @@
     </row>
     <row r="392" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B392" t="s">
         <v>9</v>
@@ -11615,7 +11615,7 @@
     </row>
     <row r="393" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B393" t="s">
         <v>9</v>
@@ -11638,7 +11638,7 @@
     </row>
     <row r="394" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B394" t="s">
         <v>9</v>
@@ -11661,7 +11661,7 @@
     </row>
     <row r="395" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B395" t="s">
         <v>9</v>
@@ -11684,7 +11684,7 @@
     </row>
     <row r="396" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B396" t="s">
         <v>9</v>
@@ -11707,7 +11707,7 @@
     </row>
     <row r="397" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B397" t="s">
         <v>9</v>
@@ -11730,7 +11730,7 @@
     </row>
     <row r="398" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B398" t="s">
         <v>9</v>
@@ -11753,7 +11753,7 @@
     </row>
     <row r="399" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B399" t="s">
         <v>9</v>
@@ -11776,7 +11776,7 @@
     </row>
     <row r="400" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B400" t="s">
         <v>9</v>
@@ -11799,7 +11799,7 @@
     </row>
     <row r="401" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B401" t="s">
         <v>9</v>
@@ -11822,7 +11822,7 @@
     </row>
     <row r="402" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B402" t="s">
         <v>9</v>
@@ -11845,7 +11845,7 @@
     </row>
     <row r="403" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B403" t="s">
         <v>9</v>
@@ -11868,7 +11868,7 @@
     </row>
     <row r="404" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B404" t="s">
         <v>9</v>
@@ -11891,7 +11891,7 @@
     </row>
     <row r="405" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B405" t="s">
         <v>9</v>
@@ -11914,7 +11914,7 @@
     </row>
     <row r="406" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B406" t="s">
         <v>9</v>
@@ -11937,7 +11937,7 @@
     </row>
     <row r="407" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B407" t="s">
         <v>9</v>
@@ -11960,7 +11960,7 @@
     </row>
     <row r="408" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B408" t="s">
         <v>9</v>
@@ -11983,7 +11983,7 @@
     </row>
     <row r="409" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B409" t="s">
         <v>9</v>
@@ -12006,7 +12006,7 @@
     </row>
     <row r="410" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B410" t="s">
         <v>9</v>
@@ -12029,7 +12029,7 @@
     </row>
     <row r="411" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B411" t="s">
         <v>9</v>
@@ -12052,7 +12052,7 @@
     </row>
     <row r="412" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B412" t="s">
         <v>9</v>
@@ -12075,7 +12075,7 @@
     </row>
     <row r="413" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B413" t="s">
         <v>9</v>
@@ -12098,7 +12098,7 @@
     </row>
     <row r="414" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B414" t="s">
         <v>9</v>
@@ -12125,12 +12125,12 @@
         <v>12</v>
       </c>
       <c r="P414" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="415" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B415" t="s">
         <v>9</v>
@@ -12159,7 +12159,7 @@
     </row>
     <row r="416" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B416" t="s">
         <v>9</v>
@@ -12182,7 +12182,7 @@
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B417" t="s">
         <v>9</v>
@@ -12200,12 +12200,12 @@
         <v>38659</v>
       </c>
       <c r="G417" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B418" t="s">
         <v>9</v>
@@ -12228,7 +12228,7 @@
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B419" t="s">
         <v>9</v>
@@ -12257,7 +12257,7 @@
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B420" t="s">
         <v>9</v>
@@ -12280,7 +12280,7 @@
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B421" t="s">
         <v>9</v>
@@ -12298,7 +12298,7 @@
         <v>38664</v>
       </c>
       <c r="G421" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H421" t="s">
         <v>10</v>
@@ -12309,7 +12309,7 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B422" t="s">
         <v>9</v>
@@ -12338,7 +12338,7 @@
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B423" t="s">
         <v>9</v>
@@ -12361,7 +12361,7 @@
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B424" t="s">
         <v>9</v>
@@ -12384,7 +12384,7 @@
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B425" t="s">
         <v>9</v>
@@ -12407,7 +12407,7 @@
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B426" t="s">
         <v>9</v>
@@ -12433,7 +12433,7 @@
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B427" t="s">
         <v>9</v>
@@ -12456,7 +12456,7 @@
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B428" t="s">
         <v>9</v>
@@ -12479,7 +12479,7 @@
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B429" t="s">
         <v>9</v>
@@ -12502,7 +12502,7 @@
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B430" t="s">
         <v>9</v>
@@ -12525,7 +12525,7 @@
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B431" t="s">
         <v>9</v>
@@ -12548,7 +12548,7 @@
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B432" t="s">
         <v>9</v>
@@ -12571,7 +12571,7 @@
     </row>
     <row r="433" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B433" t="s">
         <v>9</v>
@@ -12594,7 +12594,7 @@
     </row>
     <row r="434" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B434" t="s">
         <v>9</v>
@@ -12617,7 +12617,7 @@
     </row>
     <row r="435" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B435" t="s">
         <v>9</v>
@@ -12640,7 +12640,7 @@
     </row>
     <row r="436" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B436" t="s">
         <v>9</v>
@@ -12663,7 +12663,7 @@
     </row>
     <row r="437" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B437" t="s">
         <v>9</v>
@@ -12686,7 +12686,7 @@
     </row>
     <row r="438" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B438" t="s">
         <v>9</v>
@@ -12704,12 +12704,12 @@
         <v>38685</v>
       </c>
       <c r="G438" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="439" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B439" t="s">
         <v>9</v>
@@ -12738,7 +12738,7 @@
     </row>
     <row r="440" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B440" t="s">
         <v>9</v>
@@ -12761,7 +12761,7 @@
     </row>
     <row r="441" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B441" t="s">
         <v>9</v>
@@ -12790,7 +12790,7 @@
     </row>
     <row r="442" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B442" t="s">
         <v>9</v>
@@ -12813,7 +12813,7 @@
     </row>
     <row r="443" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B443" t="s">
         <v>9</v>
@@ -12836,7 +12836,7 @@
     </row>
     <row r="444" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B444" t="s">
         <v>9</v>
@@ -12863,12 +12863,12 @@
         <v>12</v>
       </c>
       <c r="P444" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="445" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B445" t="s">
         <v>9</v>
@@ -12897,7 +12897,7 @@
     </row>
     <row r="446" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B446" t="s">
         <v>9</v>
@@ -12920,7 +12920,7 @@
     </row>
     <row r="447" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B447" t="s">
         <v>9</v>
@@ -12943,7 +12943,7 @@
     </row>
     <row r="448" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B448" t="s">
         <v>9</v>
@@ -12961,12 +12961,12 @@
         <v>38783</v>
       </c>
       <c r="G448" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="449" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B449" t="s">
         <v>9</v>
@@ -12989,7 +12989,7 @@
     </row>
     <row r="450" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B450" t="s">
         <v>9</v>
@@ -13012,7 +13012,7 @@
     </row>
     <row r="451" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B451" t="s">
         <v>9</v>
@@ -13035,7 +13035,7 @@
     </row>
     <row r="452" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B452" t="s">
         <v>9</v>
@@ -13065,12 +13065,12 @@
         <v>10</v>
       </c>
       <c r="P452" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="453" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B453" t="s">
         <v>9</v>
@@ -13099,7 +13099,7 @@
     </row>
     <row r="454" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B454" t="s">
         <v>9</v>
@@ -13122,7 +13122,7 @@
     </row>
     <row r="455" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B455" t="s">
         <v>9</v>
@@ -13145,7 +13145,7 @@
     </row>
     <row r="456" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B456" t="s">
         <v>9</v>
@@ -13168,7 +13168,7 @@
     </row>
     <row r="457" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B457" t="s">
         <v>9</v>
@@ -13191,7 +13191,7 @@
     </row>
     <row r="458" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B458" t="s">
         <v>9</v>
@@ -13214,7 +13214,7 @@
     </row>
     <row r="459" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B459" t="s">
         <v>9</v>
@@ -13237,7 +13237,7 @@
     </row>
     <row r="460" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B460" t="s">
         <v>9</v>
@@ -13260,7 +13260,7 @@
     </row>
     <row r="461" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B461" t="s">
         <v>9</v>
@@ -13289,7 +13289,7 @@
     </row>
     <row r="462" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B462" t="s">
         <v>9</v>
@@ -13321,7 +13321,7 @@
     </row>
     <row r="463" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B463" t="s">
         <v>9</v>
@@ -13350,7 +13350,7 @@
     </row>
     <row r="464" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B464" t="s">
         <v>9</v>
@@ -13373,7 +13373,7 @@
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B465" t="s">
         <v>9</v>
@@ -13396,7 +13396,7 @@
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B466" t="s">
         <v>9</v>
@@ -13419,7 +13419,7 @@
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B467" t="s">
         <v>9</v>
@@ -13442,7 +13442,7 @@
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B468" t="s">
         <v>9</v>
@@ -13460,12 +13460,12 @@
         <v>38922</v>
       </c>
       <c r="G468" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B469" t="s">
         <v>9</v>
@@ -13488,7 +13488,7 @@
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B470" t="s">
         <v>9</v>
@@ -13511,7 +13511,7 @@
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B471" t="s">
         <v>9</v>
@@ -13540,7 +13540,7 @@
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B472" t="s">
         <v>9</v>
@@ -13558,12 +13558,12 @@
         <v>38985</v>
       </c>
       <c r="G472" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B473" t="s">
         <v>9</v>
@@ -13586,7 +13586,7 @@
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B474" t="s">
         <v>9</v>
@@ -13609,7 +13609,7 @@
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B475" t="s">
         <v>9</v>
@@ -13632,7 +13632,7 @@
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B476" t="s">
         <v>9</v>
@@ -13655,7 +13655,7 @@
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B477" t="s">
         <v>9</v>
@@ -13673,12 +13673,12 @@
         <v>39014</v>
       </c>
       <c r="G477" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B478" t="s">
         <v>9</v>
@@ -13701,7 +13701,7 @@
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B479" t="s">
         <v>9</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B480" t="s">
         <v>9</v>
@@ -13747,7 +13747,7 @@
     </row>
     <row r="481" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B481" t="s">
         <v>9</v>
@@ -13770,7 +13770,7 @@
     </row>
     <row r="482" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B482" t="s">
         <v>9</v>
@@ -13793,7 +13793,7 @@
     </row>
     <row r="483" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B483" t="s">
         <v>9</v>
@@ -13811,12 +13811,12 @@
         <v>39035</v>
       </c>
       <c r="G483" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="484" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B484" t="s">
         <v>9</v>
@@ -13834,12 +13834,12 @@
         <v>39035</v>
       </c>
       <c r="G484" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="485" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B485" t="s">
         <v>9</v>
@@ -13862,7 +13862,7 @@
     </row>
     <row r="486" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B486" t="s">
         <v>9</v>
@@ -13885,7 +13885,7 @@
     </row>
     <row r="487" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B487" t="s">
         <v>9</v>
@@ -13908,7 +13908,7 @@
     </row>
     <row r="488" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B488" t="s">
         <v>9</v>
@@ -13931,7 +13931,7 @@
     </row>
     <row r="489" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B489" t="s">
         <v>9</v>
@@ -13954,7 +13954,7 @@
     </row>
     <row r="490" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B490" t="s">
         <v>9</v>
@@ -13983,7 +13983,7 @@
     </row>
     <row r="491" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B491" t="s">
         <v>9</v>
@@ -14006,7 +14006,7 @@
     </row>
     <row r="492" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B492" t="s">
         <v>9</v>
@@ -14024,12 +14024,12 @@
         <v>39170</v>
       </c>
       <c r="G492" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="493" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B493" t="s">
         <v>9</v>
@@ -14047,12 +14047,12 @@
         <v>39234</v>
       </c>
       <c r="G493" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="494" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B494" t="s">
         <v>9</v>
@@ -14081,7 +14081,7 @@
     </row>
     <row r="495" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B495" t="s">
         <v>28</v>
@@ -14108,7 +14108,7 @@
         <v>10</v>
       </c>
       <c r="P495" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="496" spans="1:16" x14ac:dyDescent="0.25">
@@ -16181,7 +16181,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">

--- a/collection.xlsx
+++ b/collection.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="670">
   <si>
     <t>Platform</t>
   </si>
@@ -1872,6 +1872,162 @@
   </si>
   <si>
     <t>Limited Edition</t>
+  </si>
+  <si>
+    <t>GBA SP Pink</t>
+  </si>
+  <si>
+    <t>Pink Limited Edition</t>
+  </si>
+  <si>
+    <t>Goldeneye 007</t>
+  </si>
+  <si>
+    <t>Bigbox met controller</t>
+  </si>
+  <si>
+    <t>Shadow Man 2econd Coming</t>
+  </si>
+  <si>
+    <t>Learn With Pokémon Typing Adventure</t>
+  </si>
+  <si>
+    <t>Bigbox met toetsenbord</t>
+  </si>
+  <si>
+    <t>Viva Piñata Pocket Paradise</t>
+  </si>
+  <si>
+    <t>Zool: Ninja of the "Nth" Dimension</t>
+  </si>
+  <si>
+    <t>Quackshot Starring Donald Duck</t>
+  </si>
+  <si>
+    <t>Castle of Illusion Starring Mickey Mouse</t>
+  </si>
+  <si>
+    <t>Yoda</t>
+  </si>
+  <si>
+    <t>Fleshy</t>
+  </si>
+  <si>
+    <t>Freak Series 1 controller for PS2</t>
+  </si>
+  <si>
+    <t>https://imgur.com/0zHO3Cv</t>
+  </si>
+  <si>
+    <t>Qurupeco &amp; Dan</t>
+  </si>
+  <si>
+    <t>Wolf Link</t>
+  </si>
+  <si>
+    <t>Callie &amp; Marie</t>
+  </si>
+  <si>
+    <t>Splatoon series</t>
+  </si>
+  <si>
+    <t>Monster Hunter Stories series</t>
+  </si>
+  <si>
+    <t>Berioros &amp; Ayuria</t>
+  </si>
+  <si>
+    <t>Mega Yarn Yoshi</t>
+  </si>
+  <si>
+    <t>One-Eyed Liolaeus &amp; Rider (Boy)</t>
+  </si>
+  <si>
+    <t>World of Illusion Starring Mickey Mouse &amp; Donald Duck</t>
+  </si>
+  <si>
+    <t>Resident Evil 4 Chainsaw Controller Gamecube</t>
+  </si>
+  <si>
+    <t>Resident Evil 4 Chainsaw Controller PS2</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0zHO3Cv.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ZSk8MHc.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/OAVBv0L.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xwNdHG1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/MLCY7CW.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/46kRfHg.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/kKhUWyy.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/6Ui7E0B.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/MHaNiyy.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/6pV5dOy.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/OcJto7B.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/vYBGNkt.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rnZlmsw.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/zsd1uRR.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/YedSynJ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/T0CajoQ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/OxtAMpq.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/pMlvBQd.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/s05FEoY.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/5oEEWyn.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Jt1iakO.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ojNTqPE.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/8E6IwBJ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/maRJqBo.jpg</t>
+  </si>
+  <si>
+    <t>Limited Edition 9,232 of 50,000</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/bfl4xxT.jpg</t>
   </si>
 </sst>
 </file>
@@ -1881,10 +2037,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-413]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1916,10 +2080,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1927,8 +2092,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2234,8 +2401,8 @@
   <dimension ref="A1:N1134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A552" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A579" sqref="A579"/>
+      <pane ySplit="1" topLeftCell="A567" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J582" sqref="J582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2312,8 +2479,8 @@
       <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
-        <v>491</v>
+      <c r="J2" s="7" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2387,6 +2554,9 @@
       <c r="D5" s="1">
         <v>42083</v>
       </c>
+      <c r="J5" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -12513,7 +12683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A561" s="5" t="s">
         <v>594</v>
       </c>
@@ -12530,7 +12700,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
         <v>595</v>
       </c>
@@ -12547,7 +12717,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
         <v>596</v>
       </c>
@@ -12564,7 +12734,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A564" s="4" t="s">
         <v>597</v>
       </c>
@@ -12581,7 +12751,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A565" s="4" t="s">
         <v>598</v>
       </c>
@@ -12598,7 +12768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A566" s="4" t="s">
         <v>599</v>
       </c>
@@ -12618,7 +12788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A567" s="5" t="s">
         <v>600</v>
       </c>
@@ -12635,7 +12805,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A568" s="6" t="s">
         <v>601</v>
       </c>
@@ -12652,7 +12822,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A569" s="6" t="s">
         <v>602</v>
       </c>
@@ -12672,7 +12842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A570" s="6" t="s">
         <v>20</v>
       </c>
@@ -12689,7 +12859,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A571" s="6" t="s">
         <v>613</v>
       </c>
@@ -12711,8 +12881,11 @@
       <c r="H571" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J571" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A572" s="6" t="s">
         <v>613</v>
       </c>
@@ -12734,8 +12907,11 @@
       <c r="H572" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J572" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A573" s="6" t="s">
         <v>604</v>
       </c>
@@ -12757,8 +12933,11 @@
       <c r="H573" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J573" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A574" s="6" t="s">
         <v>605</v>
       </c>
@@ -12775,7 +12954,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A575" s="6" t="s">
         <v>4</v>
       </c>
@@ -12792,7 +12971,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A576" s="6" t="s">
         <v>606</v>
       </c>
@@ -12811,8 +12990,11 @@
       <c r="G576" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J576" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="6" t="s">
         <v>607</v>
       </c>
@@ -12834,8 +13016,11 @@
       <c r="H577" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J577" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="6" t="s">
         <v>615</v>
       </c>
@@ -12855,94 +13040,459 @@
         <v>617</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D579" s="1"/>
-    </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D580" s="1"/>
-    </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D581" s="1"/>
-    </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D582" s="1"/>
-    </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D583" s="1"/>
-    </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D584" s="1"/>
-    </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D585" s="1"/>
-    </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D586" s="1"/>
-    </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D587" s="1"/>
-    </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D588" s="1"/>
-    </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D589" s="1"/>
-    </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D590" s="1"/>
-    </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A579" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="B579" t="s">
+        <v>19</v>
+      </c>
+      <c r="C579" t="s">
+        <v>610</v>
+      </c>
+      <c r="D579" s="1">
+        <v>31656</v>
+      </c>
+      <c r="E579" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A580" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B580" t="s">
+        <v>19</v>
+      </c>
+      <c r="C580" t="s">
+        <v>609</v>
+      </c>
+      <c r="D580" s="1">
+        <v>32626</v>
+      </c>
+      <c r="E580" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A581" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="B581" t="s">
+        <v>13</v>
+      </c>
+      <c r="C581" t="s">
+        <v>609</v>
+      </c>
+      <c r="D581" s="1">
+        <v>37708</v>
+      </c>
+      <c r="E581" t="s">
+        <v>49</v>
+      </c>
+      <c r="F581" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A582" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B582" t="s">
+        <v>42</v>
+      </c>
+      <c r="C582" t="s">
+        <v>611</v>
+      </c>
+      <c r="D582" s="1">
+        <v>37192</v>
+      </c>
+      <c r="E582" t="s">
+        <v>49</v>
+      </c>
+      <c r="J582" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A583" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="B583" t="s">
+        <v>22</v>
+      </c>
+      <c r="C583" t="s">
+        <v>609</v>
+      </c>
+      <c r="D583" s="1">
+        <v>40487</v>
+      </c>
+      <c r="E583" t="s">
+        <v>49</v>
+      </c>
+      <c r="F583" t="s">
+        <v>621</v>
+      </c>
+      <c r="J583" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A584" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="B584" t="s">
+        <v>25</v>
+      </c>
+      <c r="C584" t="s">
+        <v>609</v>
+      </c>
+      <c r="D584" s="1">
+        <v>37323</v>
+      </c>
+      <c r="E584" t="s">
+        <v>49</v>
+      </c>
+      <c r="J584" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A585" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="B585" t="s">
+        <v>34</v>
+      </c>
+      <c r="C585" t="s">
+        <v>18</v>
+      </c>
+      <c r="D585" s="1">
+        <v>41173</v>
+      </c>
+      <c r="E585" t="s">
+        <v>49</v>
+      </c>
+      <c r="F585" t="s">
+        <v>624</v>
+      </c>
+      <c r="J585" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A586" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="B586" t="s">
+        <v>34</v>
+      </c>
+      <c r="C586" t="s">
+        <v>609</v>
+      </c>
+      <c r="D586" s="1">
+        <v>39696</v>
+      </c>
+      <c r="E586" t="s">
+        <v>49</v>
+      </c>
+      <c r="J586" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A587" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="B587" t="s">
+        <v>31</v>
+      </c>
+      <c r="C587" t="s">
+        <v>609</v>
+      </c>
+      <c r="D587" s="1">
+        <v>33786</v>
+      </c>
+      <c r="E587" t="s">
+        <v>49</v>
+      </c>
+      <c r="J587" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A588" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="B588" t="s">
+        <v>31</v>
+      </c>
+      <c r="C588" t="s">
+        <v>609</v>
+      </c>
+      <c r="D588" s="1">
+        <v>33573</v>
+      </c>
+      <c r="E588" t="s">
+        <v>49</v>
+      </c>
+      <c r="J588" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A589" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="B589" t="s">
+        <v>31</v>
+      </c>
+      <c r="C589" t="s">
+        <v>609</v>
+      </c>
+      <c r="D589" s="1">
+        <v>33197</v>
+      </c>
+      <c r="E589" t="s">
+        <v>49</v>
+      </c>
+      <c r="J589" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A590" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="B590" t="s">
+        <v>14</v>
+      </c>
+      <c r="C590" t="s">
+        <v>611</v>
+      </c>
+      <c r="D590" s="1">
+        <v>42239</v>
+      </c>
+      <c r="J590" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A591" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="B591" t="s">
+        <v>38</v>
+      </c>
+      <c r="C591" t="s">
+        <v>18</v>
+      </c>
       <c r="D591" s="1"/>
-    </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D592" s="1"/>
-    </row>
-    <row r="593" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D593" s="1"/>
-    </row>
-    <row r="594" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F591" t="s">
+        <v>631</v>
+      </c>
+      <c r="J591" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A592" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="B592" t="s">
+        <v>38</v>
+      </c>
+      <c r="C592" t="s">
+        <v>611</v>
+      </c>
+      <c r="D592" s="1">
+        <v>38292</v>
+      </c>
+      <c r="F592" t="s">
+        <v>668</v>
+      </c>
+      <c r="J592" t="s">
+        <v>666</v>
+      </c>
+      <c r="K592" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A593" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B593" t="s">
+        <v>11</v>
+      </c>
+      <c r="C593" t="s">
+        <v>611</v>
+      </c>
+      <c r="D593" s="1">
+        <v>42944</v>
+      </c>
+      <c r="J593" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A594" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="B594" t="s">
+        <v>11</v>
+      </c>
+      <c r="C594" t="s">
+        <v>611</v>
+      </c>
       <c r="D594" s="1"/>
-    </row>
-    <row r="595" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D595" s="1"/>
-    </row>
-    <row r="596" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D596" s="1"/>
-    </row>
-    <row r="597" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F594" t="s">
+        <v>637</v>
+      </c>
+      <c r="J594" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A595" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="B595" t="s">
+        <v>11</v>
+      </c>
+      <c r="C595" t="s">
+        <v>611</v>
+      </c>
+      <c r="D595" s="1">
+        <v>42433</v>
+      </c>
+      <c r="J595" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A596" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="B596" t="s">
+        <v>11</v>
+      </c>
+      <c r="C596" t="s">
+        <v>18</v>
+      </c>
+      <c r="D596" s="1">
+        <v>42559</v>
+      </c>
+      <c r="F596" t="s">
+        <v>636</v>
+      </c>
+      <c r="J596" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A597" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B597" t="s">
+        <v>11</v>
+      </c>
+      <c r="C597" t="s">
+        <v>18</v>
+      </c>
       <c r="D597" s="1"/>
-    </row>
-    <row r="598" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D598" s="1"/>
-    </row>
-    <row r="599" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F597" t="s">
+        <v>637</v>
+      </c>
+      <c r="J597" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A598" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B598" t="s">
+        <v>11</v>
+      </c>
+      <c r="C598" t="s">
+        <v>609</v>
+      </c>
+      <c r="D598" s="1">
+        <v>42335</v>
+      </c>
+      <c r="J598" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A599" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B599" t="s">
+        <v>11</v>
+      </c>
+      <c r="C599" t="s">
+        <v>18</v>
+      </c>
       <c r="D599" s="1"/>
-    </row>
-    <row r="600" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D600" s="1"/>
-    </row>
-    <row r="601" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D601" s="1"/>
-    </row>
-    <row r="602" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F599" t="s">
+        <v>637</v>
+      </c>
+      <c r="J599" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A600" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B600" t="s">
+        <v>31</v>
+      </c>
+      <c r="C600" t="s">
+        <v>609</v>
+      </c>
+      <c r="D600" s="1">
+        <v>33955</v>
+      </c>
+      <c r="E600" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A601" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B601" t="s">
+        <v>38</v>
+      </c>
+      <c r="C601" t="s">
+        <v>18</v>
+      </c>
+      <c r="D601" s="1">
+        <v>38626</v>
+      </c>
+    </row>
+    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D602" s="1"/>
     </row>
-    <row r="603" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D603" s="1"/>
     </row>
-    <row r="604" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D604" s="1"/>
     </row>
-    <row r="605" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D605" s="1"/>
     </row>
-    <row r="606" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D606" s="1"/>
     </row>
-    <row r="607" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D607" s="1"/>
     </row>
-    <row r="608" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D608" s="1"/>
     </row>
     <row r="609" spans="4:4" x14ac:dyDescent="0.25">

--- a/collection.xlsx
+++ b/collection.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3811" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4027" uniqueCount="1210">
   <si>
     <t>Platform</t>
   </si>
@@ -3363,6 +3363,291 @@
   </si>
   <si>
     <t>https://i.imgur.com/AAI6sOU.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/3Trke2E.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/dkfjOYR.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/qzZfbN8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/By1cK2Y.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/w9kliHA.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/4gDib6j.jpg</t>
+  </si>
+  <si>
+    <t>Munchkin</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/X4uJW5a.jpg</t>
+  </si>
+  <si>
+    <t>For Philips Videopac G7000</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/XysLKYt.jpg</t>
+  </si>
+  <si>
+    <t>Rogue Trip</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/d7OyKk2.jpg</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/q0I8BpG.jpg</t>
+  </si>
+  <si>
+    <t>Carmageddon</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/4ug1ocv.jpg</t>
+  </si>
+  <si>
+    <t>Toy Story 2: Buzz Lightyear to the Rescue</t>
+  </si>
+  <si>
+    <t>Platinum Edition</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/3Kk1Nsp.jpg</t>
+  </si>
+  <si>
+    <t>Test Drive 4</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/XApJszj.jpg</t>
+  </si>
+  <si>
+    <t>Ex-Rental</t>
+  </si>
+  <si>
+    <t>Ronin Blade</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/mrTEz1U.jpg</t>
+  </si>
+  <si>
+    <t>Medievil &amp; C-12 Final Resistance</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Yr0UqTR.jpg</t>
+  </si>
+  <si>
+    <t>Destruction Derby</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/wMnOCdH.jpg</t>
+  </si>
+  <si>
+    <t>W2C FIA World Rally Championship Arcade</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/PD3r3mB.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/z7QCOrw.jpg</t>
+  </si>
+  <si>
+    <t>Dukes of Hazzard 2: Daisy Dukes It Out</t>
+  </si>
+  <si>
+    <t>Tomb Raider Chronicles</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/JzwgdAZ.jpg</t>
+  </si>
+  <si>
+    <t>Tomb Raider 2</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/zMIuVGA.jpg</t>
+  </si>
+  <si>
+    <t>Wii Classic Controller White</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/8nMKPgq.jpg</t>
+  </si>
+  <si>
+    <t>Keyboard Controllers Set</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Dk00MwW.jpg</t>
+  </si>
+  <si>
+    <t>For Atari 2600</t>
+  </si>
+  <si>
+    <t>Lioleia &amp; Cheval</t>
+  </si>
+  <si>
+    <t>Monster Hunter Stories Series</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/hkIRFmW.jpg</t>
+  </si>
+  <si>
+    <t>Link Twilight Princess</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Tx3JKXK.jpg</t>
+  </si>
+  <si>
+    <t>Bokoblin</t>
+  </si>
+  <si>
+    <t>Zelda Breath of the Wild Series</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/nNuF2A5.jpg</t>
+  </si>
+  <si>
+    <t>Zelda Series</t>
+  </si>
+  <si>
+    <t>Zelda</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/vSgqgHm.jpg</t>
+  </si>
+  <si>
+    <t>Link Skyward Sword</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/TBmjrCC.jpg</t>
+  </si>
+  <si>
+    <t>Guardian</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Gv5SaYn.jpg</t>
+  </si>
+  <si>
+    <t>Link Majora's Mask</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/SEu7Xzw.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/XDHhG9c.jpg</t>
+  </si>
+  <si>
+    <t>Urbosa, Revali, Mipha and Daruk</t>
+  </si>
+  <si>
+    <t>Wii Gun</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/6aWp8lm.jpg</t>
+  </si>
+  <si>
+    <t>2 Wii Wheels</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/zqR0oiR.jpg</t>
+  </si>
+  <si>
+    <t>Wii Wheel</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/fWl2fjX.jpg</t>
+  </si>
+  <si>
+    <t>Memory Card Gamecube</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/QyRnDqQ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/XcMnyTz.jpg</t>
+  </si>
+  <si>
+    <t>Memory Card Gamecube Piranha 16MB</t>
+  </si>
+  <si>
+    <t>Memory Card Gamecube Thrustmaster 59 Blocks</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/5KpijKW.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/XA11ooJ.jpg</t>
+  </si>
+  <si>
+    <t>Guild Wars</t>
+  </si>
+  <si>
+    <t>Special Edition</t>
+  </si>
+  <si>
+    <t>Guild Wars: Factions</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/bzs1o62.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/vVPB67x.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/PLQQFEe.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/nuDcLLo.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/BbU1m8T.jpg</t>
+  </si>
+  <si>
+    <t>Guild Wars: Nightfall</t>
+  </si>
+  <si>
+    <t>Guild Wars: Eye of the North</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Z3bfdJZ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/6SMy2UD.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/pX2MeG4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Ht5ElTd.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/6rM1CE2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/7m3xMsT.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/oYfcBjE.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/imT6ibn.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/eAj4FMz.jpg</t>
+  </si>
+  <si>
+    <t>Star Wars Battlefront</t>
+  </si>
+  <si>
+    <t>First game I bought with my own money</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/boKtrxF.jpg</t>
   </si>
 </sst>
 </file>
@@ -3733,11 +4018,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N784"/>
+  <dimension ref="A1:N822"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J164" sqref="J164"/>
+      <pane ySplit="1" topLeftCell="A790" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J822" sqref="J822"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4886,7 +5171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>88</v>
       </c>
@@ -4909,7 +5194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>89</v>
       </c>
@@ -4932,7 +5217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>90</v>
       </c>
@@ -4955,7 +5240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>521</v>
       </c>
@@ -4978,7 +5263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>91</v>
       </c>
@@ -5001,7 +5286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>92</v>
       </c>
@@ -5024,7 +5309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>93</v>
       </c>
@@ -5044,7 +5329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>94</v>
       </c>
@@ -5064,7 +5349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -5080,8 +5365,17 @@
       <c r="E57" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" t="s">
+        <v>9</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>96</v>
       </c>
@@ -5098,7 +5392,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>97</v>
       </c>
@@ -5115,7 +5409,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>98</v>
       </c>
@@ -5132,7 +5426,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>99</v>
       </c>
@@ -5149,7 +5443,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>100</v>
       </c>
@@ -5166,7 +5460,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>101</v>
       </c>
@@ -5189,7 +5483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>520</v>
       </c>
@@ -13311,6 +13605,9 @@
       <c r="E514" t="s">
         <v>49</v>
       </c>
+      <c r="J514" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
@@ -13328,6 +13625,9 @@
       <c r="E515" t="s">
         <v>49</v>
       </c>
+      <c r="J515" t="s">
+        <v>1117</v>
+      </c>
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
@@ -13345,6 +13645,9 @@
       <c r="E516" t="s">
         <v>49</v>
       </c>
+      <c r="J516" t="s">
+        <v>1115</v>
+      </c>
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
@@ -13362,6 +13665,9 @@
       <c r="E517" t="s">
         <v>49</v>
       </c>
+      <c r="J517" t="s">
+        <v>1119</v>
+      </c>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
@@ -13379,6 +13685,9 @@
       <c r="E518" t="s">
         <v>49</v>
       </c>
+      <c r="J518" t="s">
+        <v>1120</v>
+      </c>
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
@@ -13456,6 +13765,9 @@
       <c r="G522" t="s">
         <v>7</v>
       </c>
+      <c r="J522" t="s">
+        <v>1118</v>
+      </c>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
@@ -18019,7 +18331,7 @@
         <v>935</v>
       </c>
       <c r="B739" t="s">
-        <v>496</v>
+        <v>39</v>
       </c>
       <c r="C739" t="s">
         <v>603</v>
@@ -18899,6 +19211,727 @@
       </c>
       <c r="J784" t="s">
         <v>1112</v>
+      </c>
+    </row>
+    <row r="785" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A785" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B785" t="s">
+        <v>496</v>
+      </c>
+      <c r="C785" t="s">
+        <v>603</v>
+      </c>
+      <c r="E785" t="s">
+        <v>49</v>
+      </c>
+      <c r="F785" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G785" t="s">
+        <v>7</v>
+      </c>
+      <c r="J785" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="786" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A786" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B786" t="s">
+        <v>24</v>
+      </c>
+      <c r="C786" t="s">
+        <v>603</v>
+      </c>
+      <c r="E786" t="s">
+        <v>49</v>
+      </c>
+      <c r="J786" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="787" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A787" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B787" t="s">
+        <v>24</v>
+      </c>
+      <c r="C787" t="s">
+        <v>603</v>
+      </c>
+      <c r="E787" t="s">
+        <v>49</v>
+      </c>
+      <c r="J787" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="788" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A788" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B788" t="s">
+        <v>24</v>
+      </c>
+      <c r="C788" t="s">
+        <v>603</v>
+      </c>
+      <c r="E788" t="s">
+        <v>49</v>
+      </c>
+      <c r="J788" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="789" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A789" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B789" t="s">
+        <v>24</v>
+      </c>
+      <c r="C789" t="s">
+        <v>603</v>
+      </c>
+      <c r="E789" t="s">
+        <v>49</v>
+      </c>
+      <c r="F789" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J789" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="790" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A790" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B790" t="s">
+        <v>24</v>
+      </c>
+      <c r="C790" t="s">
+        <v>603</v>
+      </c>
+      <c r="E790" t="s">
+        <v>49</v>
+      </c>
+      <c r="F790" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J790" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="791" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A791" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B791" t="s">
+        <v>24</v>
+      </c>
+      <c r="C791" t="s">
+        <v>603</v>
+      </c>
+      <c r="E791" t="s">
+        <v>49</v>
+      </c>
+      <c r="J791" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="792" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A792" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B792" t="s">
+        <v>24</v>
+      </c>
+      <c r="C792" t="s">
+        <v>603</v>
+      </c>
+      <c r="E792" t="s">
+        <v>49</v>
+      </c>
+      <c r="J792" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="793" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A793" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B793" t="s">
+        <v>24</v>
+      </c>
+      <c r="C793" t="s">
+        <v>603</v>
+      </c>
+      <c r="E793" t="s">
+        <v>49</v>
+      </c>
+      <c r="F793" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J793" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="794" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A794" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B794" t="s">
+        <v>24</v>
+      </c>
+      <c r="C794" t="s">
+        <v>603</v>
+      </c>
+      <c r="E794" t="s">
+        <v>49</v>
+      </c>
+      <c r="J794" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="795" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A795" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B795" t="s">
+        <v>24</v>
+      </c>
+      <c r="C795" t="s">
+        <v>603</v>
+      </c>
+      <c r="E795" t="s">
+        <v>49</v>
+      </c>
+      <c r="J795" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="796" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A796" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B796" t="s">
+        <v>24</v>
+      </c>
+      <c r="C796" t="s">
+        <v>603</v>
+      </c>
+      <c r="E796" t="s">
+        <v>49</v>
+      </c>
+      <c r="J796" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="797" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A797" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B797" t="s">
+        <v>24</v>
+      </c>
+      <c r="C797" t="s">
+        <v>603</v>
+      </c>
+      <c r="E797" t="s">
+        <v>49</v>
+      </c>
+      <c r="F797" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J797" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="798" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A798" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B798" t="s">
+        <v>38</v>
+      </c>
+      <c r="C798" t="s">
+        <v>605</v>
+      </c>
+      <c r="J798" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="799" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A799" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B799" t="s">
+        <v>38</v>
+      </c>
+      <c r="C799" t="s">
+        <v>603</v>
+      </c>
+      <c r="F799" t="s">
+        <v>1155</v>
+      </c>
+      <c r="J799" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="800" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A800" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B800" t="s">
+        <v>11</v>
+      </c>
+      <c r="C800" t="s">
+        <v>18</v>
+      </c>
+      <c r="F800" t="s">
+        <v>1157</v>
+      </c>
+      <c r="J800" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="801" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A801" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B801" t="s">
+        <v>11</v>
+      </c>
+      <c r="C801" t="s">
+        <v>18</v>
+      </c>
+      <c r="F801" t="s">
+        <v>1164</v>
+      </c>
+      <c r="J801" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="802" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A802" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B802" t="s">
+        <v>11</v>
+      </c>
+      <c r="C802" t="s">
+        <v>18</v>
+      </c>
+      <c r="F802" t="s">
+        <v>1162</v>
+      </c>
+      <c r="J802" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="803" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A803" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B803" t="s">
+        <v>11</v>
+      </c>
+      <c r="C803" t="s">
+        <v>18</v>
+      </c>
+      <c r="F803" t="s">
+        <v>1162</v>
+      </c>
+      <c r="J803" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="804" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A804" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B804" t="s">
+        <v>11</v>
+      </c>
+      <c r="C804" t="s">
+        <v>18</v>
+      </c>
+      <c r="F804" t="s">
+        <v>1164</v>
+      </c>
+      <c r="J804" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="805" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A805" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B805" t="s">
+        <v>11</v>
+      </c>
+      <c r="C805" t="s">
+        <v>18</v>
+      </c>
+      <c r="F805" t="s">
+        <v>1162</v>
+      </c>
+      <c r="J805" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="806" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A806" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B806" t="s">
+        <v>11</v>
+      </c>
+      <c r="C806" t="s">
+        <v>18</v>
+      </c>
+      <c r="F806" t="s">
+        <v>1164</v>
+      </c>
+      <c r="J806" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="807" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A807" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B807" t="s">
+        <v>11</v>
+      </c>
+      <c r="C807" t="s">
+        <v>18</v>
+      </c>
+      <c r="F807" t="s">
+        <v>1162</v>
+      </c>
+      <c r="J807" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="808" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A808" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B808" t="s">
+        <v>39</v>
+      </c>
+      <c r="C808" t="s">
+        <v>605</v>
+      </c>
+      <c r="J808" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="809" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A809" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B809" t="s">
+        <v>39</v>
+      </c>
+      <c r="C809" t="s">
+        <v>605</v>
+      </c>
+      <c r="J809" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="810" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A810" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B810" t="s">
+        <v>39</v>
+      </c>
+      <c r="C810" t="s">
+        <v>605</v>
+      </c>
+      <c r="J810" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="811" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A811" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B811" t="s">
+        <v>39</v>
+      </c>
+      <c r="C811" t="s">
+        <v>605</v>
+      </c>
+      <c r="J811" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="812" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A812" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B812" t="s">
+        <v>39</v>
+      </c>
+      <c r="C812" t="s">
+        <v>605</v>
+      </c>
+      <c r="J812" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="813" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A813" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B813" t="s">
+        <v>39</v>
+      </c>
+      <c r="C813" t="s">
+        <v>605</v>
+      </c>
+      <c r="J813" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="814" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A814" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B814" t="s">
+        <v>39</v>
+      </c>
+      <c r="C814" t="s">
+        <v>605</v>
+      </c>
+      <c r="J814" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="815" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A815" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B815" t="s">
+        <v>665</v>
+      </c>
+      <c r="C815" t="s">
+        <v>603</v>
+      </c>
+      <c r="D815" s="1">
+        <v>38470</v>
+      </c>
+      <c r="F815" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G815" t="s">
+        <v>7</v>
+      </c>
+      <c r="H815" t="s">
+        <v>7</v>
+      </c>
+      <c r="J815" t="s">
+        <v>1191</v>
+      </c>
+      <c r="K815" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="816" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A816" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B816" t="s">
+        <v>665</v>
+      </c>
+      <c r="C816" t="s">
+        <v>603</v>
+      </c>
+      <c r="D816" s="1">
+        <v>38835</v>
+      </c>
+      <c r="F816" t="s">
+        <v>663</v>
+      </c>
+      <c r="G816" t="s">
+        <v>7</v>
+      </c>
+      <c r="H816" t="s">
+        <v>7</v>
+      </c>
+      <c r="J816" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K816" t="s">
+        <v>1194</v>
+      </c>
+      <c r="L816" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="817" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A817" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B817" t="s">
+        <v>665</v>
+      </c>
+      <c r="C817" t="s">
+        <v>603</v>
+      </c>
+      <c r="D817" s="1">
+        <v>39017</v>
+      </c>
+      <c r="F817" t="s">
+        <v>663</v>
+      </c>
+      <c r="G817" t="s">
+        <v>7</v>
+      </c>
+      <c r="H817" t="s">
+        <v>7</v>
+      </c>
+      <c r="J817" t="s">
+        <v>1199</v>
+      </c>
+      <c r="K817" t="s">
+        <v>1200</v>
+      </c>
+      <c r="L817" t="s">
+        <v>1201</v>
+      </c>
+      <c r="M817" t="s">
+        <v>1202</v>
+      </c>
+      <c r="N817" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="818" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A818" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B818" t="s">
+        <v>665</v>
+      </c>
+      <c r="C818" t="s">
+        <v>603</v>
+      </c>
+      <c r="D818" s="1">
+        <v>39325</v>
+      </c>
+      <c r="G818" t="s">
+        <v>7</v>
+      </c>
+      <c r="H818" t="s">
+        <v>7</v>
+      </c>
+      <c r="J818" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="819" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A819" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B819" t="s">
+        <v>665</v>
+      </c>
+      <c r="C819" t="s">
+        <v>603</v>
+      </c>
+      <c r="D819" s="1">
+        <v>38470</v>
+      </c>
+      <c r="G819" t="s">
+        <v>7</v>
+      </c>
+      <c r="H819" t="s">
+        <v>7</v>
+      </c>
+      <c r="J819" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="820" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A820" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B820" t="s">
+        <v>665</v>
+      </c>
+      <c r="C820" t="s">
+        <v>603</v>
+      </c>
+      <c r="D820" s="1">
+        <v>38835</v>
+      </c>
+      <c r="G820" t="s">
+        <v>7</v>
+      </c>
+      <c r="H820" t="s">
+        <v>7</v>
+      </c>
+      <c r="J820" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="821" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A821" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B821" t="s">
+        <v>665</v>
+      </c>
+      <c r="C821" t="s">
+        <v>603</v>
+      </c>
+      <c r="D821" s="1">
+        <v>39017</v>
+      </c>
+      <c r="G821" t="s">
+        <v>7</v>
+      </c>
+      <c r="H821" t="s">
+        <v>7</v>
+      </c>
+      <c r="J821" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="822" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A822" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B822" t="s">
+        <v>665</v>
+      </c>
+      <c r="C822" t="s">
+        <v>603</v>
+      </c>
+      <c r="D822" s="1">
+        <v>38251</v>
+      </c>
+      <c r="F822" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G822" t="s">
+        <v>7</v>
+      </c>
+      <c r="H822" t="s">
+        <v>7</v>
+      </c>
+      <c r="J822" t="s">
+        <v>1209</v>
       </c>
     </row>
   </sheetData>

--- a/collection.xlsx
+++ b/collection.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4772" uniqueCount="1499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5326" uniqueCount="1691">
   <si>
     <t>Platform</t>
   </si>
@@ -4515,6 +4515,582 @@
   </si>
   <si>
     <t>Lord of the Rings The Two Towers</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/aG5zxXX.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/IwhKBNT.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/q6MidXx.jpg</t>
+  </si>
+  <si>
+    <t>The Elder Scrolls 3: Morrowind</t>
+  </si>
+  <si>
+    <t>Serious Sam 2</t>
+  </si>
+  <si>
+    <t>Broken Sword The Sleeping Dragon</t>
+  </si>
+  <si>
+    <t>Oddworld Strangers Wrath</t>
+  </si>
+  <si>
+    <t>Conker Live &amp; Reloaded</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/zoWKlH7.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/aIeaxSV.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/8Xfx6L5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/i5Wv6gB.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/kLqqRBD.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/gyc2JFC.jpg</t>
+  </si>
+  <si>
+    <t>Tribal</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/GFbqB9r.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/NnCLBcj.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/VWCUC3k.jpg</t>
+  </si>
+  <si>
+    <t>Resident Evil The Umbrella Chronicles</t>
+  </si>
+  <si>
+    <t>Dokapon Kingdom</t>
+  </si>
+  <si>
+    <t>25th anniversary edition</t>
+  </si>
+  <si>
+    <t>Zelda Skyward Sword</t>
+  </si>
+  <si>
+    <t>Trauma Center New Blood</t>
+  </si>
+  <si>
+    <t>Het Studio 100 Speeleiland</t>
+  </si>
+  <si>
+    <t>Samurai Shodown Anthology</t>
+  </si>
+  <si>
+    <t>Major Minor's Majestic March</t>
+  </si>
+  <si>
+    <t>Kid Paddle Lost in the Game</t>
+  </si>
+  <si>
+    <t>Chaos A La Maison</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/g428CPw.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9KXHKMi.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/YTUcIkM.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/UbViEHN.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/EQHLkI5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/IOorswg.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/UAPTFPV.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ulscsxc.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/mfOHa6T.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/oygOOte.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/oW5QAAC.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/opdNDMj.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/uZ78Kf0.jpg</t>
+  </si>
+  <si>
+    <t>Ninety-Nine Nights</t>
+  </si>
+  <si>
+    <t>Ninja Gaiden 2</t>
+  </si>
+  <si>
+    <t>Lost Odyssey</t>
+  </si>
+  <si>
+    <t>Shadowrun</t>
+  </si>
+  <si>
+    <t>Duke Nukem Forever</t>
+  </si>
+  <si>
+    <t>Dark Messiah of Might and Magic Elements</t>
+  </si>
+  <si>
+    <t>Enslaved Odyssey to the West</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>World of Tanks</t>
+  </si>
+  <si>
+    <t>Beautiful Katamari</t>
+  </si>
+  <si>
+    <t>Kameo Elements of Power</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/NKeEYfq.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/We4tt2F.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xfQHC0p.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/SVAq4JH.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/IvsBZDF.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/VQ3R0gA.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Vdp1pdn.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/jdyg74s.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/av1JQcv.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/YNtYVX7.jpg</t>
+  </si>
+  <si>
+    <t>LOTR: The Battle for Middle-Earth 2</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/3npqdkK.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/hHeohcz.jpg</t>
+  </si>
+  <si>
+    <t>Ni No Kuni 2 Revenant Kingdom</t>
+  </si>
+  <si>
+    <t>King's Edition</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/g7bxRog.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/FsJH49I.jpg</t>
+  </si>
+  <si>
+    <t>Pokemon Ultra Moon</t>
+  </si>
+  <si>
+    <t>Pokemon Ultra Sun</t>
+  </si>
+  <si>
+    <t>Fan Edition</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/D47EwBJ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/CnbVNeR.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/H0A8wqw.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Ec151V0.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/aZXmLxn.jpg</t>
+  </si>
+  <si>
+    <t>Modern Colours Mario</t>
+  </si>
+  <si>
+    <t>Dragon Age Origins</t>
+  </si>
+  <si>
+    <t>Bioshock 2</t>
+  </si>
+  <si>
+    <t>Rapture Edition</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank Trilogy</t>
+  </si>
+  <si>
+    <t>Dead Rising 2</t>
+  </si>
+  <si>
+    <t>Metal Gear Rising Revengeance</t>
+  </si>
+  <si>
+    <t>Dragon Ball Z Budokai HD Collection</t>
+  </si>
+  <si>
+    <t>Dragon Age 2</t>
+  </si>
+  <si>
+    <t>NeverDead</t>
+  </si>
+  <si>
+    <t>Lollipop Chainsaw</t>
+  </si>
+  <si>
+    <t>Motorstorm</t>
+  </si>
+  <si>
+    <t>Minecraft</t>
+  </si>
+  <si>
+    <t>Dragon Ball Z Burst Limit</t>
+  </si>
+  <si>
+    <t>Singularity</t>
+  </si>
+  <si>
+    <t>Call of Duty Ghosts</t>
+  </si>
+  <si>
+    <t>Untold Legends Dark Kingdom</t>
+  </si>
+  <si>
+    <t>Medal of Honor</t>
+  </si>
+  <si>
+    <t>Everybody's Golf World Tour</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>Final Fantasy XIII</t>
+  </si>
+  <si>
+    <t>Silent Hill HD Collection</t>
+  </si>
+  <si>
+    <t>Sports Champions</t>
+  </si>
+  <si>
+    <t>Resistance Fall Of Man</t>
+  </si>
+  <si>
+    <t>Skate 3</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption</t>
+  </si>
+  <si>
+    <t>Operation Flashpoint Dragon Rising</t>
+  </si>
+  <si>
+    <t>F1 Championship Edition</t>
+  </si>
+  <si>
+    <t>Playstation Move Starter Disc</t>
+  </si>
+  <si>
+    <t>Midway Arcade Origins</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Wipeout HD Fury</t>
+  </si>
+  <si>
+    <t>Vampire Rain Altered Species</t>
+  </si>
+  <si>
+    <t>Siren Blood Curse</t>
+  </si>
+  <si>
+    <t>The House of the Dead Overkill</t>
+  </si>
+  <si>
+    <t>Lord of the Rings Conquest</t>
+  </si>
+  <si>
+    <t>Fairytale Fights</t>
+  </si>
+  <si>
+    <t>Beyond Two Souls</t>
+  </si>
+  <si>
+    <t>The Last Of Us</t>
+  </si>
+  <si>
+    <t>Dishonored</t>
+  </si>
+  <si>
+    <t>GOTY</t>
+  </si>
+  <si>
+    <t>Resident Evil 5</t>
+  </si>
+  <si>
+    <t>Steelbook</t>
+  </si>
+  <si>
+    <t>Valkyria Chronicles</t>
+  </si>
+  <si>
+    <t>Castlevania Lords of Shadow</t>
+  </si>
+  <si>
+    <t>Castlevania Lords of Shadow 2</t>
+  </si>
+  <si>
+    <t>Brutal Legend</t>
+  </si>
+  <si>
+    <t>Tekken Hybrid</t>
+  </si>
+  <si>
+    <t>Devil May Cry HD Collection</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts HD 1.5 Remix</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts HD 2.5 Remix</t>
+  </si>
+  <si>
+    <t>Zone of the Enders HD Collection</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto 5</t>
+  </si>
+  <si>
+    <t>God Of War Collection</t>
+  </si>
+  <si>
+    <t>The Club</t>
+  </si>
+  <si>
+    <t>Tales of Xillia 2</t>
+  </si>
+  <si>
+    <t>Day One Edition</t>
+  </si>
+  <si>
+    <t>Tales of Symphonia Chronicles</t>
+  </si>
+  <si>
+    <t>Call of Duty 4 Modern Warfare</t>
+  </si>
+  <si>
+    <t>Fallout 3</t>
+  </si>
+  <si>
+    <t>Viking Battle for Asgard</t>
+  </si>
+  <si>
+    <t>Splinter Cell Trilogy</t>
+  </si>
+  <si>
+    <t>Mega Drive Ultimate Collection</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank A Crack in Time</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank Quest for Booty</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank Tools of Destruction</t>
+  </si>
+  <si>
+    <t>God of War 3</t>
+  </si>
+  <si>
+    <t>The ICO &amp; Shadow of the Colossus Collection</t>
+  </si>
+  <si>
+    <t>Ni No Kuni Wrath of the White Witch</t>
+  </si>
+  <si>
+    <t>Folklore</t>
+  </si>
+  <si>
+    <t>God of War Collection Volume 2</t>
+  </si>
+  <si>
+    <t>Modnotion Racers</t>
+  </si>
+  <si>
+    <t>Heavy Rain</t>
+  </si>
+  <si>
+    <t>LittleBigPlanet</t>
+  </si>
+  <si>
+    <t>Prince of Persia Trilogy</t>
+  </si>
+  <si>
+    <t>Ar Nosurge Ode to an Unborn Star</t>
+  </si>
+  <si>
+    <t>Uncharted Drake's Fortune</t>
+  </si>
+  <si>
+    <t>Uncharted 2 Among Thieves</t>
+  </si>
+  <si>
+    <t>Uncharted 3 Drake's Deception</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/QlbqZwh.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/siBqzoO.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/vUxqDSk.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9q8hA5b.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/WcJgOea.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/IKQtOcZ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/NrG3Irt.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/TjWRNe4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Zs34Pdg.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/DMDI8xq.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/58m4bWx.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/os6TttE.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/2lXUTbe.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/FIKmnzP.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/jxsoalT.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/WZDboEl.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/XKZGLo8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/7jkqfKz.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/1HKbxAV.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/O5LwXJR.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/hEny3Bo.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/YBmgwtS.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/gyxeUsm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/yFaRGbp.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/8nV8eJA.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/wu81m6e.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/AZtJc7q.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/yaTNTSU.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/BOwUCCL.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/hT7mWF5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/DlyOpMG.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/w9b5wmN.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/zdbXdE9.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/TLJ9Lwv.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9c2sn7z.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/deNCLTQ.jpg</t>
   </si>
 </sst>
 </file>
@@ -4885,11 +5461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N956"/>
+  <dimension ref="A1:N1065"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A995" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1016" sqref="A1016"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6296,6 +6872,9 @@
       <c r="H59" t="s">
         <v>9</v>
       </c>
+      <c r="J59" t="s">
+        <v>1516</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
@@ -14869,6 +15448,9 @@
       <c r="E534" t="s">
         <v>46</v>
       </c>
+      <c r="J534" t="s">
+        <v>1501</v>
+      </c>
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
@@ -14886,6 +15468,9 @@
       <c r="E535" t="s">
         <v>46</v>
       </c>
+      <c r="J535" t="s">
+        <v>1499</v>
+      </c>
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
@@ -14903,6 +15488,9 @@
       <c r="E536" t="s">
         <v>46</v>
       </c>
+      <c r="J536" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
@@ -15265,6 +15853,9 @@
       <c r="E555" t="s">
         <v>46</v>
       </c>
+      <c r="J555" t="s">
+        <v>1512</v>
+      </c>
     </row>
     <row r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A556" s="5" t="s">
@@ -23692,6 +24283,1874 @@
       </c>
       <c r="J956" t="s">
         <v>1492</v>
+      </c>
+    </row>
+    <row r="957" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A957" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B957" t="s">
+        <v>28</v>
+      </c>
+      <c r="C957" t="s">
+        <v>600</v>
+      </c>
+      <c r="E957" t="s">
+        <v>46</v>
+      </c>
+      <c r="J957" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="958" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A958" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B958" t="s">
+        <v>28</v>
+      </c>
+      <c r="C958" t="s">
+        <v>600</v>
+      </c>
+      <c r="E958" t="s">
+        <v>46</v>
+      </c>
+      <c r="J958" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="959" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A959" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B959" t="s">
+        <v>28</v>
+      </c>
+      <c r="C959" t="s">
+        <v>600</v>
+      </c>
+      <c r="E959" t="s">
+        <v>46</v>
+      </c>
+      <c r="J959" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="960" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A960" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B960" t="s">
+        <v>28</v>
+      </c>
+      <c r="C960" t="s">
+        <v>600</v>
+      </c>
+      <c r="E960" t="s">
+        <v>46</v>
+      </c>
+      <c r="J960" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="961" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A961" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B961" t="s">
+        <v>28</v>
+      </c>
+      <c r="C961" t="s">
+        <v>600</v>
+      </c>
+      <c r="E961" t="s">
+        <v>46</v>
+      </c>
+      <c r="J961" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="962" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A962" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B962" t="s">
+        <v>13</v>
+      </c>
+      <c r="C962" t="s">
+        <v>602</v>
+      </c>
+      <c r="D962" s="1">
+        <v>37064</v>
+      </c>
+      <c r="E962" t="s">
+        <v>46</v>
+      </c>
+      <c r="F962" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J962" t="s">
+        <v>1514</v>
+      </c>
+      <c r="K962" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="963" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A963" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B963" t="s">
+        <v>22</v>
+      </c>
+      <c r="C963" t="s">
+        <v>601</v>
+      </c>
+      <c r="E963" t="s">
+        <v>46</v>
+      </c>
+      <c r="J963" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="964" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A964" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B964" t="s">
+        <v>22</v>
+      </c>
+      <c r="C964" t="s">
+        <v>600</v>
+      </c>
+      <c r="E964" t="s">
+        <v>46</v>
+      </c>
+      <c r="J964" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="965" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A965" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B965" t="s">
+        <v>22</v>
+      </c>
+      <c r="C965" t="s">
+        <v>600</v>
+      </c>
+      <c r="E965" t="s">
+        <v>46</v>
+      </c>
+      <c r="F965" t="s">
+        <v>1519</v>
+      </c>
+      <c r="J965" t="s">
+        <v>1529</v>
+      </c>
+      <c r="K965" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="966" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A966" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B966" t="s">
+        <v>22</v>
+      </c>
+      <c r="C966" t="s">
+        <v>600</v>
+      </c>
+      <c r="E966" t="s">
+        <v>46</v>
+      </c>
+      <c r="F966" t="s">
+        <v>605</v>
+      </c>
+      <c r="J966" t="s">
+        <v>1531</v>
+      </c>
+      <c r="K966" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="967" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A967" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B967" t="s">
+        <v>22</v>
+      </c>
+      <c r="C967" t="s">
+        <v>600</v>
+      </c>
+      <c r="E967" t="s">
+        <v>46</v>
+      </c>
+      <c r="J967" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="968" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A968" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B968" t="s">
+        <v>22</v>
+      </c>
+      <c r="C968" t="s">
+        <v>600</v>
+      </c>
+      <c r="E968" t="s">
+        <v>46</v>
+      </c>
+      <c r="J968" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="969" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A969" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B969" t="s">
+        <v>22</v>
+      </c>
+      <c r="C969" t="s">
+        <v>18</v>
+      </c>
+      <c r="E969" t="s">
+        <v>46</v>
+      </c>
+      <c r="J969" t="s">
+        <v>1535</v>
+      </c>
+      <c r="K969" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="970" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A970" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B970" t="s">
+        <v>22</v>
+      </c>
+      <c r="C970" t="s">
+        <v>18</v>
+      </c>
+      <c r="E970" t="s">
+        <v>46</v>
+      </c>
+      <c r="J970" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="971" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A971" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B971" t="s">
+        <v>22</v>
+      </c>
+      <c r="C971" t="s">
+        <v>600</v>
+      </c>
+      <c r="E971" t="s">
+        <v>46</v>
+      </c>
+      <c r="J971" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="972" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A972" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B972" t="s">
+        <v>22</v>
+      </c>
+      <c r="C972" t="s">
+        <v>600</v>
+      </c>
+      <c r="E972" t="s">
+        <v>46</v>
+      </c>
+      <c r="J972" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="973" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A973" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B973" t="s">
+        <v>29</v>
+      </c>
+      <c r="C973" t="s">
+        <v>600</v>
+      </c>
+      <c r="E973" t="s">
+        <v>46</v>
+      </c>
+      <c r="J973" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="974" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A974" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B974" t="s">
+        <v>29</v>
+      </c>
+      <c r="C974" t="s">
+        <v>600</v>
+      </c>
+      <c r="E974" t="s">
+        <v>46</v>
+      </c>
+      <c r="J974" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="975" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A975" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B975" t="s">
+        <v>29</v>
+      </c>
+      <c r="C975" t="s">
+        <v>600</v>
+      </c>
+      <c r="E975" t="s">
+        <v>46</v>
+      </c>
+      <c r="J975" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="976" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A976" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B976" t="s">
+        <v>29</v>
+      </c>
+      <c r="C976" t="s">
+        <v>600</v>
+      </c>
+      <c r="E976" t="s">
+        <v>46</v>
+      </c>
+      <c r="J976" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="977" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A977" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B977" t="s">
+        <v>29</v>
+      </c>
+      <c r="C977" t="s">
+        <v>600</v>
+      </c>
+      <c r="E977" t="s">
+        <v>46</v>
+      </c>
+      <c r="J977" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="978" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A978" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B978" t="s">
+        <v>29</v>
+      </c>
+      <c r="C978" t="s">
+        <v>600</v>
+      </c>
+      <c r="E978" t="s">
+        <v>46</v>
+      </c>
+      <c r="J978" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="979" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A979" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B979" t="s">
+        <v>29</v>
+      </c>
+      <c r="C979" t="s">
+        <v>600</v>
+      </c>
+      <c r="E979" t="s">
+        <v>46</v>
+      </c>
+      <c r="J979" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="980" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A980" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B980" t="s">
+        <v>29</v>
+      </c>
+      <c r="C980" t="s">
+        <v>600</v>
+      </c>
+      <c r="E980" t="s">
+        <v>46</v>
+      </c>
+      <c r="J980" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="981" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A981" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B981" t="s">
+        <v>29</v>
+      </c>
+      <c r="C981" t="s">
+        <v>600</v>
+      </c>
+      <c r="E981" t="s">
+        <v>46</v>
+      </c>
+      <c r="J981" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="982" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A982" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B982" t="s">
+        <v>29</v>
+      </c>
+      <c r="C982" t="s">
+        <v>600</v>
+      </c>
+      <c r="E982" t="s">
+        <v>46</v>
+      </c>
+      <c r="J982" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="983" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A983" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B983" t="s">
+        <v>29</v>
+      </c>
+      <c r="C983" t="s">
+        <v>600</v>
+      </c>
+      <c r="E983" t="s">
+        <v>46</v>
+      </c>
+      <c r="J983" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="984" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A984" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B984" t="s">
+        <v>29</v>
+      </c>
+      <c r="C984" t="s">
+        <v>600</v>
+      </c>
+      <c r="E984" t="s">
+        <v>46</v>
+      </c>
+      <c r="J984" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="985" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A985" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B985" t="s">
+        <v>27</v>
+      </c>
+      <c r="C985" t="s">
+        <v>18</v>
+      </c>
+      <c r="E985" t="s">
+        <v>46</v>
+      </c>
+      <c r="J985" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="986" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A986" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B986" t="s">
+        <v>27</v>
+      </c>
+      <c r="C986" t="s">
+        <v>18</v>
+      </c>
+      <c r="E986" t="s">
+        <v>46</v>
+      </c>
+      <c r="F986" t="s">
+        <v>1565</v>
+      </c>
+      <c r="J986" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="987" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A987" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B987" t="s">
+        <v>34</v>
+      </c>
+      <c r="C987" t="s">
+        <v>600</v>
+      </c>
+      <c r="E987" t="s">
+        <v>46</v>
+      </c>
+      <c r="F987" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J987" t="s">
+        <v>1571</v>
+      </c>
+      <c r="K987" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="988" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A988" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B988" t="s">
+        <v>34</v>
+      </c>
+      <c r="C988" t="s">
+        <v>18</v>
+      </c>
+      <c r="E988" t="s">
+        <v>46</v>
+      </c>
+      <c r="F988" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J988" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K988" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="989" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A989" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B989" t="s">
+        <v>11</v>
+      </c>
+      <c r="C989" t="s">
+        <v>18</v>
+      </c>
+      <c r="J989" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="990" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A990" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B990" t="s">
+        <v>26</v>
+      </c>
+      <c r="C990" t="s">
+        <v>600</v>
+      </c>
+      <c r="E990" t="s">
+        <v>46</v>
+      </c>
+      <c r="J990" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="991" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A991" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B991" t="s">
+        <v>26</v>
+      </c>
+      <c r="C991" t="s">
+        <v>600</v>
+      </c>
+      <c r="E991" t="s">
+        <v>46</v>
+      </c>
+      <c r="F991" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J991" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="992" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A992" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B992" t="s">
+        <v>26</v>
+      </c>
+      <c r="C992" t="s">
+        <v>600</v>
+      </c>
+      <c r="E992" t="s">
+        <v>46</v>
+      </c>
+      <c r="J992" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="993" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A993" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B993" t="s">
+        <v>26</v>
+      </c>
+      <c r="C993" t="s">
+        <v>600</v>
+      </c>
+      <c r="E993" t="s">
+        <v>46</v>
+      </c>
+      <c r="G993" t="s">
+        <v>7</v>
+      </c>
+      <c r="J993" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="994" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A994" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B994" t="s">
+        <v>26</v>
+      </c>
+      <c r="C994" t="s">
+        <v>18</v>
+      </c>
+      <c r="E994" t="s">
+        <v>46</v>
+      </c>
+      <c r="J994" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="995" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A995" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B995" t="s">
+        <v>26</v>
+      </c>
+      <c r="C995" t="s">
+        <v>18</v>
+      </c>
+      <c r="E995" t="s">
+        <v>46</v>
+      </c>
+      <c r="J995" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="996" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A996" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B996" t="s">
+        <v>26</v>
+      </c>
+      <c r="C996" t="s">
+        <v>600</v>
+      </c>
+      <c r="E996" t="s">
+        <v>46</v>
+      </c>
+      <c r="J996" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="997" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A997" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B997" t="s">
+        <v>26</v>
+      </c>
+      <c r="C997" t="s">
+        <v>600</v>
+      </c>
+      <c r="E997" t="s">
+        <v>46</v>
+      </c>
+      <c r="J997" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="998" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A998" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B998" t="s">
+        <v>26</v>
+      </c>
+      <c r="C998" t="s">
+        <v>18</v>
+      </c>
+      <c r="E998" t="s">
+        <v>46</v>
+      </c>
+      <c r="J998" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="999" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A999" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B999" t="s">
+        <v>26</v>
+      </c>
+      <c r="C999" t="s">
+        <v>18</v>
+      </c>
+      <c r="E999" t="s">
+        <v>46</v>
+      </c>
+      <c r="J999" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1000" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1000" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1001" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1001" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1002" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1002" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1003" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1003" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1003" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1003" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1004" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1004" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1005" s="2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1005" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1006" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1006" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1007" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1007" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1008" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1008" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1008" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1008" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1009" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1009" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1010" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1010" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1011" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1011" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1012" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1012" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1013" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1013" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1014" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1014" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1014" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1014" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1015" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1015" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1016" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1016" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1017" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1017" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1018" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1018" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1019" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1019" t="s">
+        <v>660</v>
+      </c>
+      <c r="G1019" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1019" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1019" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1020" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1020" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1021" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1021" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1022" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1022" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1023" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1023" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1024" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1024" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1024" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1025" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1025" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1025" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1025" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1026" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1027" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1027" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1027" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1028" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1028" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1029" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1029" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1030" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1031" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1032" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1033" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1033" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1033" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1034" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1035" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1036" s="2" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1037" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1038" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1039" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1040" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1041" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1042" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1043" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1044" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1045" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1046" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1047" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1048" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1049" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1050" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1051" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1052" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1053" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1054" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G1054" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1054" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1055" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1055" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1055" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1056" s="2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1057" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1058" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1058" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1058" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1059" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1060" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1060" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1060" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1061" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1062" s="2" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1063" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1063" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1063" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1064" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1064" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1064" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1065" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -23702,7 +26161,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Platforms!$A:$A</xm:f>

--- a/collection.xlsx
+++ b/collection.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6494" uniqueCount="2183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7890" uniqueCount="2737">
   <si>
     <t>Platform</t>
   </si>
@@ -6567,6 +6567,1668 @@
   </si>
   <si>
     <t>https://i.imgur.com/c4e9W8n.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ALkk754.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/vi23nnO.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/8VXMvDU.jpg</t>
+  </si>
+  <si>
+    <t>Jazz Jackrabbit 2</t>
+  </si>
+  <si>
+    <t>Jazz Jackrabbit 2: The Secret Files</t>
+  </si>
+  <si>
+    <t>Commandos Behind Enemy Lines</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/GDdPjka.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/jc0aOHg.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ZRdXlUZ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/bsTf6T6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/hZ2gugo.jpg</t>
+  </si>
+  <si>
+    <t>Angry Birds Trilogy</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/y3XvixX.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/MUqeo1E.jpg</t>
+  </si>
+  <si>
+    <t>Die drei ??? Das Verfluchte Schloss</t>
+  </si>
+  <si>
+    <t>So Blonde Zuruck auf die Insel</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/zMYU4nM.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ZdMFeoO.jpg</t>
+  </si>
+  <si>
+    <t>Lernerfolg Grundschule Deutsch Klasse 1-4</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Sp8aWs0.jpg</t>
+  </si>
+  <si>
+    <t>Die Montagsmaler und andere Malspiele</t>
+  </si>
+  <si>
+    <t>Bibi &amp; Tina Das Grosse Reiterfest</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0vU3uMv.jpg</t>
+  </si>
+  <si>
+    <t>Schlag Den Raab 2</t>
+  </si>
+  <si>
+    <t>Pekin Express La Route Des Dragons</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/pbpfF67.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Nho7vU0.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/IPyXcpl.jpg</t>
+  </si>
+  <si>
+    <t>The Voice of Germany</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xRuoBdi.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9SRZJLg.jpg</t>
+  </si>
+  <si>
+    <t>40 Principales Karaoke Party</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/jZoPnyS.jpg</t>
+  </si>
+  <si>
+    <t>Intervilles Le Jeu Officiel</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/EdLCoR1.jpg</t>
+  </si>
+  <si>
+    <t>Lernerfolg Grundschule Power Mathe</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/fLQcJIv.jpg</t>
+  </si>
+  <si>
+    <t>Lernerfolg Grundschule Mathematik Klasse 1-4</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/hdPlHmL.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/vm2G5GH.jpg</t>
+  </si>
+  <si>
+    <t>Schlag Den Raab 3</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/j384aMu.jpg</t>
+  </si>
+  <si>
+    <t>Go Play Lumberjacks Die Verruckte Holzfäller-Meisterschaft</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/yMQ0mVC.jpg</t>
+  </si>
+  <si>
+    <t>Meine Tierarzt-Praxis SOS am Ozean</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/bHYT4gp.jpg</t>
+  </si>
+  <si>
+    <t>A Boy and his Blob</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/yCv9uNg.jpg</t>
+  </si>
+  <si>
+    <t>Yetisports Penguin Party Island</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/cTIEP9R.jpg</t>
+  </si>
+  <si>
+    <t>Let's Sing 8 Version Espanola</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/mtTyDVK.jpg</t>
+  </si>
+  <si>
+    <t>Der Total Verruckte Gartenspass</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/EUIV0tQ.jpg</t>
+  </si>
+  <si>
+    <t>Play the World</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/UxFi9fI.jpg</t>
+  </si>
+  <si>
+    <t>Let's Sing 5 Version Espanola</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Y7PNGF8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/DYt9SN8.jpg</t>
+  </si>
+  <si>
+    <t>TV Total Events</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/wUOJhWP.jpg</t>
+  </si>
+  <si>
+    <t>Schlag Den Raab</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/LvRG8rV.jpg</t>
+  </si>
+  <si>
+    <t>Build-A-Bear Workshop Friendship Valley</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/HvNA646.jpg</t>
+  </si>
+  <si>
+    <t>Athletic Piggy Party</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xfCBY2Q.jpg</t>
+  </si>
+  <si>
+    <t>Petanque Master</t>
+  </si>
+  <si>
+    <t>K11 Kommissare im Einsatz</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/BYuMoIg.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Z21LNeb.jpg</t>
+  </si>
+  <si>
+    <t>Mein Neues Leben</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/CbtRV86.jpg</t>
+  </si>
+  <si>
+    <t>Bibi Blocksberg Das Grosse Hexenbesen-rennen</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/lCxr2IL.jpg</t>
+  </si>
+  <si>
+    <t>Beach Fun Summer Challenge</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/OwMAuVd.jpg</t>
+  </si>
+  <si>
+    <t>Popstars</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/z5ysqda.jpg</t>
+  </si>
+  <si>
+    <t>Metal Gear Solid</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/dI2HQFH.jpg</t>
+  </si>
+  <si>
+    <t>Tomb Raider De Laatste Onthulling</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/2PaJcGA.jpg</t>
+  </si>
+  <si>
+    <t>Crash Team Racing</t>
+  </si>
+  <si>
+    <t>Pince of Persia The Sands of Time</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/6u9nq0V.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/iZ7XJuY.jpg</t>
+  </si>
+  <si>
+    <t>Need For Speed Carbon</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rK9Zkpb.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/UQ6ugzl.jpg</t>
+  </si>
+  <si>
+    <t>Petanque Pro</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/NVPlmlS.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/dVr7QDi.jpg</t>
+  </si>
+  <si>
+    <t>Lego Batman + Pure</t>
+  </si>
+  <si>
+    <t>Starfox Zero</t>
+  </si>
+  <si>
+    <t>First Print Edition With Starfox Guard</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/1i1epgE.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/VOsLFaT.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/LnU3F8K.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/wGI8dO7.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/IAEF9br.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/VGA3m7Y.jpg</t>
+  </si>
+  <si>
+    <t>Far Cry Instincts Evolution</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/o1ML3bQ.jpg</t>
+  </si>
+  <si>
+    <t>Crimson Skies High Road to Revenge</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/nF2yWvh.jpg</t>
+  </si>
+  <si>
+    <t>Ninja Gaiden</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/4Bfofs8.jpg</t>
+  </si>
+  <si>
+    <t>Amped</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/D3ENRIE.jpg</t>
+  </si>
+  <si>
+    <t>Project Gotham Racing</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/C80ECZE.jpg</t>
+  </si>
+  <si>
+    <t>Fuzion Frenzy</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/fomhgB7.jpg</t>
+  </si>
+  <si>
+    <t>Rainbow Six 3</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/3bKSj1t.jpg</t>
+  </si>
+  <si>
+    <t>Splinter Cell Pandora Tomorrow</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/OEofHZ3.jpg</t>
+  </si>
+  <si>
+    <t>Fifa Football 2005</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/7QzU7Z4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/UWl53Cp.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/fk9zlCY.jpg</t>
+  </si>
+  <si>
+    <t>Bloodwake</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/3nYZ8Lf.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/7bzBWN2.jpg</t>
+  </si>
+  <si>
+    <t>Forza Motorsport</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/2oLO0fv.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/JDcfkzf.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/G6yUKi4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/gN1rpzi.jpg</t>
+  </si>
+  <si>
+    <t>WWE 12</t>
+  </si>
+  <si>
+    <t>WWE 13</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/NuYCBH6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/eKiCUBx.jpg</t>
+  </si>
+  <si>
+    <t>WWE Smackdown vs Raw 2011</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/duTBMpy.jpg</t>
+  </si>
+  <si>
+    <t>WWE Legends of Wrestlemania</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/nhMgNBn.jpg</t>
+  </si>
+  <si>
+    <t>WWE Smackdown vs Raw 2010</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/zjvM0ar.jpg</t>
+  </si>
+  <si>
+    <t>Book of Spells</t>
+  </si>
+  <si>
+    <t>Call of Duty Modern Warfare 2</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/PEfd25E.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/cxGidn4.jpg</t>
+  </si>
+  <si>
+    <t>PES 2015</t>
+  </si>
+  <si>
+    <t>PES 2014</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/iKbCEZy.jpg</t>
+  </si>
+  <si>
+    <t>Darksiders</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/NCbDFKa.jpg</t>
+  </si>
+  <si>
+    <t>PES 2016</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/jImlTaT.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/lB8SApn.jpg</t>
+  </si>
+  <si>
+    <t>PES 2013</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/tH4RzvG.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/6JOW6lG.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/HaZjIEG.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/uHOcoE1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/NoHmrnT.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Znou9ty.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9E6cAUv.jpg</t>
+  </si>
+  <si>
+    <t>Ni No Kuni 2 Collector's Edition Guide</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/2e8ZMyk.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/dhvjvCU.jpg</t>
+  </si>
+  <si>
+    <t>Rayman Origins</t>
+  </si>
+  <si>
+    <t>Singstar</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/TMXZyo8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/VyiyPvx.jpg</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank All 4 One</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/FNVLPuF.jpg</t>
+  </si>
+  <si>
+    <t>LittleBigPlanet Karting</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/VXiTLlJ.jpg</t>
+  </si>
+  <si>
+    <t>Includes Memory Card and Controller</t>
+  </si>
+  <si>
+    <t>PS2 Phat Silver</t>
+  </si>
+  <si>
+    <t>Bonk's Adventure</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/nOSC5R6.jpg</t>
+  </si>
+  <si>
+    <t>Looney Tunes Collector Gevaar van Mars!</t>
+  </si>
+  <si>
+    <t>Bugs Bunny &amp; Lola Bunny Het Wortel Avontuur</t>
+  </si>
+  <si>
+    <t>Conker's Pocket Tales</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/mfXBONq.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/2kSV6qf.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/B6kgFBv.jpg</t>
+  </si>
+  <si>
+    <t>Yo-Kai Watch 2 Gigageesten</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/dYKOH8H.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9kEuFTO.jpg</t>
+  </si>
+  <si>
+    <t>Yo-Kai Watch 2 Skeletspoken</t>
+  </si>
+  <si>
+    <t>Stratego Next Edition</t>
+  </si>
+  <si>
+    <t>Denksport Varia</t>
+  </si>
+  <si>
+    <t>Classic Games Premium Selection</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/UnDNyoi.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/aaMz3gp.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/TmIvRbW.jpg</t>
+  </si>
+  <si>
+    <t>Mechassault</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/vQqpUna.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/4hDjEvI.jpg</t>
+  </si>
+  <si>
+    <t>Blinx the Time Keeper</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/faTVRFc.jpg</t>
+  </si>
+  <si>
+    <t>Quantum Redshift</t>
+  </si>
+  <si>
+    <t>Burnout Paradise</t>
+  </si>
+  <si>
+    <t>Lego Harry Potter Years 1-4</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/APyQiKx.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/CGE2lPt.jpg</t>
+  </si>
+  <si>
+    <t>Dance Sensation</t>
+  </si>
+  <si>
+    <t>Fort Boyard Le Jeu</t>
+  </si>
+  <si>
+    <t>40 Principales Karaoke Party Vol.2</t>
+  </si>
+  <si>
+    <t>Bigbox with 2 mics</t>
+  </si>
+  <si>
+    <t>Code de la Route</t>
+  </si>
+  <si>
+    <t>Attack of the Movies 3-D</t>
+  </si>
+  <si>
+    <t>FlingSmash</t>
+  </si>
+  <si>
+    <t>Questions pour un Champion</t>
+  </si>
+  <si>
+    <t>Safari Adventures Afrique</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/YyUhP00.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ZhJbNBo.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/b7ksSv5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/KdtKDkn.jpg</t>
+  </si>
+  <si>
+    <t>Includes 4 3D glasses</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/gVTE8ON.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/p4myghD.jpg</t>
+  </si>
+  <si>
+    <t>Des Chiffre &amp; Des Lettres</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/sYZlIen.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/l93hCPh.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/4IimXCv.jpg</t>
+  </si>
+  <si>
+    <t>Rebel Raiders Operation Nighthawk</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/HAnHrqr.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/wPDtVaY.jpg</t>
+  </si>
+  <si>
+    <t>Ik Ben Dierenarts</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/krsyqOs.jpg</t>
+  </si>
+  <si>
+    <t>We Love Golf</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ODiYKps.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/z3CWTYc.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/v3rkzLb.jpg</t>
+  </si>
+  <si>
+    <t>Smackdown vs Raw 2009</t>
+  </si>
+  <si>
+    <t>AMF Bowling Pinbusters</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9s06Thj.jpg</t>
+  </si>
+  <si>
+    <t>Bratz Girlz Really Rock</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/DvbnEH7.jpg</t>
+  </si>
+  <si>
+    <t>Family Trainer Extreme Challenge</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ltDXxgq.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/vVGedr4.jpg</t>
+  </si>
+  <si>
+    <t>The Black Eyed Peas Experience</t>
+  </si>
+  <si>
+    <t>Punch-Out!</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/OjFrFYt.jpg</t>
+  </si>
+  <si>
+    <t>Def Jam Rapstar</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/MvXXdvi.jpg</t>
+  </si>
+  <si>
+    <t>Bakugan Battle Brawlers</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/QRytU4I.jpg</t>
+  </si>
+  <si>
+    <t>Grand Slam Tennis</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Dulelec.jpg</t>
+  </si>
+  <si>
+    <t>FDC World Championship Darts Pro Tour</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/21g89pN.jpg</t>
+  </si>
+  <si>
+    <t>Brothers in Arms Road To Hill 30</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/dYEs36z.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/eSUNWiH.jpg</t>
+  </si>
+  <si>
+    <t>Sakura Wars So Long, My Love</t>
+  </si>
+  <si>
+    <t>The Bigs</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/B1PLnfv.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/BWU5ilN.jpg</t>
+  </si>
+  <si>
+    <t>La Voz Quiero Tu Voz</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/LaQZQbb.jpg</t>
+  </si>
+  <si>
+    <t>Sin and Punishment Successor of the Skies</t>
+  </si>
+  <si>
+    <t>Eldar Saga</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0v3KIJU.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/5BZ5ZQf.jpg</t>
+  </si>
+  <si>
+    <t>Mots Croisés</t>
+  </si>
+  <si>
+    <t>Deal or No Deal Der Banker Schlägt Zuruck</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/2lB2LQp.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rAHbycG.jpg</t>
+  </si>
+  <si>
+    <t>We Sing Deutsche Hits</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/8ox4uAO.jpg</t>
+  </si>
+  <si>
+    <t>My Horse Club Auf Der Spur Des Appaloosas</t>
+  </si>
+  <si>
+    <t>Der Gesundheitscoach</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/DlsMEbM.jpg</t>
+  </si>
+  <si>
+    <t>Foot2Rue Nicolas Anelka</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Ugcfslx.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/8ltkfWW.jpg</t>
+  </si>
+  <si>
+    <t>Crazy Quiz</t>
+  </si>
+  <si>
+    <t>RTL Biathlon 2009</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/R6SCA2G.jpg</t>
+  </si>
+  <si>
+    <t>Adibou et les Saisons Magiques</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/7bolQ72.jpg</t>
+  </si>
+  <si>
+    <t>Hugo Zauberei im Trollwald</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/1lMfHBS.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/cTmOvEX.jpg</t>
+  </si>
+  <si>
+    <t>Ninja Captains</t>
+  </si>
+  <si>
+    <t>Think Train Je Brein</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/us6dpNL.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/HGOorE1.jpg</t>
+  </si>
+  <si>
+    <t>Goosebumps Horrorland</t>
+  </si>
+  <si>
+    <t>Mensa Academy</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ZtY1ZA5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/WDhh8JB.jpg</t>
+  </si>
+  <si>
+    <t>Sam &amp; Max Season One</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/RZMCiWP.jpg</t>
+  </si>
+  <si>
+    <t>We Sing Deutsche Hits 2</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xiS5h5u.jpg</t>
+  </si>
+  <si>
+    <t>Fit Music</t>
+  </si>
+  <si>
+    <t>Pirates Hunt for Blackbeards Booty</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/opoIVvQ.jpg</t>
+  </si>
+  <si>
+    <t>Monster 4x4 World Circuit</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/SVhVV1I.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/E670hJT.jpg</t>
+  </si>
+  <si>
+    <t>Dave Mirra BXM Challenge</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/qhvpUk6.jpg</t>
+  </si>
+  <si>
+    <t>The Last Airbender</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/yzPPquT.jpg</t>
+  </si>
+  <si>
+    <t>Drawn to Life Het Nieuwe Hoofdstuk</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/2gHn7i9.jpg</t>
+  </si>
+  <si>
+    <t>My Baby 2</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/2MgmreB.jpg</t>
+  </si>
+  <si>
+    <t>Megamind Het Mega Team</t>
+  </si>
+  <si>
+    <t>My Sims Agents</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Twrqj37.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/oXsivUF.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rluecKm.jpg</t>
+  </si>
+  <si>
+    <t>Tiger Woods PGA Tour 08</t>
+  </si>
+  <si>
+    <t>Dewy's Adventure</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xJHY1eL.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/8d6VzwC.jpg</t>
+  </si>
+  <si>
+    <t>My Sims Sky Heroes</t>
+  </si>
+  <si>
+    <t>Pitfall The Big Adventure</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0LiVnvS.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rjjyAW2.jpg</t>
+  </si>
+  <si>
+    <t>Roland Garros 2002</t>
+  </si>
+  <si>
+    <t>Red Baron</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/k8MWJWp.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/95Qx4E3.jpg</t>
+  </si>
+  <si>
+    <t>Home Alone</t>
+  </si>
+  <si>
+    <t>Tokobot Mysteries of the Karakuri</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/wGlbE0E.jpg</t>
+  </si>
+  <si>
+    <t>Go Diego Go! Safari Rescue</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/7WbMT83.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/lfhppJr.jpg</t>
+  </si>
+  <si>
+    <t>National Geographic Safari Avonturen Afrika</t>
+  </si>
+  <si>
+    <t>Syphon Filter Dark Mirror</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/MAeeOZ1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/y8POfk1.jpg</t>
+  </si>
+  <si>
+    <t>Arc Twilight of the Spirits</t>
+  </si>
+  <si>
+    <t>Circuit Blasters</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/5veOYQx.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/goKq8RN.jpg</t>
+  </si>
+  <si>
+    <t>The Getaway Black Monday</t>
+  </si>
+  <si>
+    <t>Killzone</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rrdz6d1.jpg</t>
+  </si>
+  <si>
+    <t>Army Men Sarge's War</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rIvILN1.jpg</t>
+  </si>
+  <si>
+    <t>Scarface The World Is Yours</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Skrzq5a.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Hs1YrXh.jpg</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Operation Winback</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/T0jW7wF.jpg</t>
+  </si>
+  <si>
+    <t>Call of Duty Finest Hour</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/hbSAeUt.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rv9VKC4.jpg</t>
+  </si>
+  <si>
+    <t>Full Spectrum Warrior</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto Vice City</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/oQlqDHJ.jpg</t>
+  </si>
+  <si>
+    <t>Dragon Ball Z Budokai Tenkaichi</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/yeugAit.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/P9LnXFy.jpg</t>
+  </si>
+  <si>
+    <t>Total Club Manager 2004</t>
+  </si>
+  <si>
+    <t>24 The Game</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/g1L1XI2.jpg</t>
+  </si>
+  <si>
+    <t>Dragon Ball Z Budokai Tenkaichi 3</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/t5OHMLl.jpg</t>
+  </si>
+  <si>
+    <t>Need For Speed Underground 2</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/GOEva7B.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/kizeNFZ.jpg</t>
+  </si>
+  <si>
+    <t>Conflict Desert Storm</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rDfwhWb.jpg</t>
+  </si>
+  <si>
+    <t>Super Mario 3D Land</t>
+  </si>
+  <si>
+    <t>Pokemon Super Mystery Dungeon</t>
+  </si>
+  <si>
+    <t>Mario &amp; Luigi Dream Team Bros</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/hZXmThE.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/XTnFH4g.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/n8VL8VW.jpg</t>
+  </si>
+  <si>
+    <t>Nintendo Classic Mini</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/kJb7U5T.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/AECFrY4.jpg</t>
+  </si>
+  <si>
+    <t>Thrustmaster Ray Gun Toy Story Mania</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ZFTZgzd.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/nnJ2FqX.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/FBz4OrO.jpg</t>
+  </si>
+  <si>
+    <t>Zwart</t>
+  </si>
+  <si>
+    <t>Chibi Robo Park Patrol</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/VYNH0Zv.jpg</t>
+  </si>
+  <si>
+    <t>Tweety &amp; Sylverster Het Ontsnapte Ontbijt</t>
+  </si>
+  <si>
+    <t>Tweety's High Flying Adventure</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/VPlLMFx.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/4CBL3fy.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/4Tt1Pbq.jpg</t>
+  </si>
+  <si>
+    <t>Tweety &amp; The Magic Gems</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/BsDrM4c.jpg</t>
+  </si>
+  <si>
+    <t>AUS Bigbox met Bongo's</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/jAhuemh.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/nQo0YeY.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/IQIcc3O.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/L7Hb6gA.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/7RSrmEV.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/03BRmNc.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/diAsSUb.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/UVrbcVd.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xa45UlX.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/dRZ3gCR.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/d9ZVHFv.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xXCdt2S.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/n0ZDvmV.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/FYvDMGT.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/pbhHgYI.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/psdtpKp.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/uYe4n0h.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/I7j14N8.jpg</t>
+  </si>
+  <si>
+    <t>Katamari Damacy</t>
+  </si>
+  <si>
+    <t>Lucinda Green's Equestrian Challenge</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/1dDuZsC.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/oinuwiN.jpg</t>
+  </si>
+  <si>
+    <t>Kirby's Ghost Trap</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/M1YiTBZ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0DdRdzh.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/uYViR3K.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/7OHVJHe.jpg</t>
+  </si>
+  <si>
+    <t>Guitar Hero Live</t>
+  </si>
+  <si>
+    <t>Bigbox met gitaar</t>
+  </si>
+  <si>
+    <t>Rabbids Land</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/7mt8Njt.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/bJuqB1m.jpg</t>
+  </si>
+  <si>
+    <t>Hitman Contracts</t>
+  </si>
+  <si>
+    <t>Max Payne 2 The Fall of Max Payne</t>
+  </si>
+  <si>
+    <t>Return To Castle Wolfenstein Tides of War</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/LhNMyGn.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/cCE5KQy.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/JEAFztl.jpg</t>
+  </si>
+  <si>
+    <t>Viva Pinata</t>
+  </si>
+  <si>
+    <t>The Walking Dead</t>
+  </si>
+  <si>
+    <t>Batman Arkham City</t>
+  </si>
+  <si>
+    <t>Press Kit</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xMb62U0.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0TObnAz.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/XXOF0iI.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Rht2xt2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/u7LEMbH.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/vBtNrUF.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Inlddog.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Yf9JCM5.jpg</t>
+  </si>
+  <si>
+    <t>Blazblue Calamity Trigger</t>
+  </si>
+  <si>
+    <t>Soul Calibur 4</t>
+  </si>
+  <si>
+    <t>Afro Samurai</t>
+  </si>
+  <si>
+    <t>Time Crisis Razing Storm</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/qqY1vXC.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/lwz5fNS.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9eZCzxg.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/bJp36yT.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/nivJxHz.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/kSMwcPV.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/UXRMMQw.jpg</t>
+  </si>
+  <si>
+    <t>Fragile Dreams</t>
+  </si>
+  <si>
+    <t>The Voice of Germany Vol. 2</t>
+  </si>
+  <si>
+    <t>Chicken Little Ace in Action</t>
+  </si>
+  <si>
+    <t>Cosmic Family</t>
+  </si>
+  <si>
+    <t>My Word Coach Verbeter je Woordenschat</t>
+  </si>
+  <si>
+    <t>Bratz Kidz Party</t>
+  </si>
+  <si>
+    <t>Calvin Tucker's Farm Animal Racing</t>
+  </si>
+  <si>
+    <t>Crazy Mini Golf</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/iJPkc7L.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/IwexzNe.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/wJmViHY.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ImifE1B.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/t7oaaJX.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/s3cEwcd.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ObCJS0P.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/bhBBSyC.jpg</t>
+  </si>
+  <si>
+    <t>Let's Sing 10 Version Espanola</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/dapbgtN.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/DfbYqxF.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/3M0KjhR.jpg</t>
+  </si>
+  <si>
+    <t>Mijn Paardenstal</t>
+  </si>
+  <si>
+    <t>Tales of Symphonia Dawn of the New World</t>
+  </si>
+  <si>
+    <t>Table Tennis</t>
+  </si>
+  <si>
+    <t>Mini Golf Resort</t>
+  </si>
+  <si>
+    <t>The House of the Dead 2 &amp; 3 Return</t>
+  </si>
+  <si>
+    <t>Summer Athletics 2009</t>
+  </si>
+  <si>
+    <t>Tenchu Shadow Assassins</t>
+  </si>
+  <si>
+    <t>Wing Island</t>
+  </si>
+  <si>
+    <t>Agatha Crhsitie Evil Under The Sun</t>
+  </si>
+  <si>
+    <t>Destroy All Humans Big Willy Unleashed</t>
+  </si>
+  <si>
+    <t>Kylie Sing &amp; Dance</t>
+  </si>
+  <si>
+    <t>Teenage Mutant Ninja Turtles Smash Up</t>
+  </si>
+  <si>
+    <t>The Biggest Loser</t>
+  </si>
+  <si>
+    <t>Spray</t>
+  </si>
+  <si>
+    <t>Martian Panic</t>
+  </si>
+  <si>
+    <t>The Saddle Club</t>
+  </si>
+  <si>
+    <t>Remington Super Slam Hunting North America</t>
+  </si>
+  <si>
+    <t>Tiger Woods PGA Tour 09 All Play</t>
+  </si>
+  <si>
+    <t>Marines Modern Urban Combat</t>
+  </si>
+  <si>
+    <t>Popstar Guitar</t>
+  </si>
+  <si>
+    <t>Tatsunoko vs Capcom Ultimate All-Stars</t>
+  </si>
+  <si>
+    <t>Spongebob en Vrienden Aanval van de Speelgoedrobots</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/4zf0Vex.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/IyyLJ1L.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/yxZq85n.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ALv864u.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Erb6GS3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/UNhCJtc.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/izkoXya.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/8n0r4sB.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/m6nElij.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/SRkFW9S.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/SmV1Tzn.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/YNUZkwG.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/uO9iMVH.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/dz97uAJ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/umboKqo.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/jhQ2jzO.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/YTAG3nS.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/35uWFEM.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/HcZaZhn.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/f5uHAkv.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/EqnUjrC.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/yqcs8Xj.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/I7sl7rP.jpg</t>
+  </si>
+  <si>
+    <t>Dragon Quest Swords The Masked Queen and the Tower of Mirrors</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/j0bPzY9.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/7fjLYSW.jpg</t>
+  </si>
+  <si>
+    <t>Warioland 4</t>
+  </si>
+  <si>
+    <t>Avatar The Last Airbender</t>
+  </si>
+  <si>
+    <t>Pokemon Emerald</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/zo0uc8v.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/pZwRkvh.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/FmRZWFg.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/kspgHwU.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/MRb2LUc.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/OtLXlBz.jpg</t>
+  </si>
+  <si>
+    <t>Bayonetta + Bayonetta 2</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/nEpUvxu.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/AeMqXhG.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/GM675Lr.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/secRlyx.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/EtOb2sy.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/z34u43H.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/B1dC8nQ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/UYbXSCu.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/leS6RJS.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/u8mOpmX.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/djb1HHL.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/D80kvyU.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/RW3yLyd.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xsyVXya.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xhc8bgx.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/PehhigZ.jpg</t>
+  </si>
+  <si>
+    <t>R.O.B.</t>
+  </si>
+  <si>
+    <t>With Gyromite accessories</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/bbWzEGb.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/OCIOj4N.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/LTRadWw.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Lq1bzX5.jpg</t>
   </si>
 </sst>
 </file>
@@ -6623,7 +8285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -6632,6 +8294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6937,16 +8600,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1276"/>
+  <dimension ref="A1:N1526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1277" sqref="A1277"/>
+      <pane ySplit="1" topLeftCell="A1499" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1527" sqref="A1527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -8090,7 +9753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>84</v>
       </c>
@@ -8113,7 +9776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>85</v>
       </c>
@@ -8136,7 +9799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>86</v>
       </c>
@@ -8159,7 +9822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>516</v>
       </c>
@@ -8182,7 +9845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>87</v>
       </c>
@@ -8205,7 +9868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>88</v>
       </c>
@@ -8228,7 +9891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>89</v>
       </c>
@@ -8251,7 +9914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>90</v>
       </c>
@@ -8274,7 +9937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>91</v>
       </c>
@@ -8300,7 +9963,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>92</v>
       </c>
@@ -8326,7 +9989,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>93</v>
       </c>
@@ -8352,7 +10015,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>1820</v>
       </c>
@@ -8378,7 +10041,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>94</v>
       </c>
@@ -8394,8 +10057,14 @@
       <c r="E61" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
@@ -8411,8 +10080,17 @@
       <c r="E62" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+      <c r="J62" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>96</v>
       </c>
@@ -8432,10 +10110,16 @@
         <v>7</v>
       </c>
       <c r="H63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J63" t="s">
+        <v>2184</v>
+      </c>
+      <c r="K63" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>515</v>
       </c>
@@ -8451,8 +10135,17 @@
       <c r="E64" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+      <c r="J64" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>97</v>
       </c>
@@ -8468,8 +10161,17 @@
       <c r="E65" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" t="s">
+        <v>9</v>
+      </c>
+      <c r="J65" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>98</v>
       </c>
@@ -8486,7 +10188,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>99</v>
       </c>
@@ -8502,8 +10204,17 @@
       <c r="E67" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+      <c r="J67" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>100</v>
       </c>
@@ -8519,8 +10230,17 @@
       <c r="E68" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" t="s">
+        <v>9</v>
+      </c>
+      <c r="J68" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>101</v>
       </c>
@@ -8536,8 +10256,17 @@
       <c r="E69" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" t="s">
+        <v>9</v>
+      </c>
+      <c r="J69" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>102</v>
       </c>
@@ -8553,8 +10282,20 @@
       <c r="E70" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" t="s">
+        <v>7</v>
+      </c>
+      <c r="J70" t="s">
+        <v>2339</v>
+      </c>
+      <c r="K70" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>103</v>
       </c>
@@ -8570,8 +10311,17 @@
       <c r="E71" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" t="s">
+        <v>9</v>
+      </c>
+      <c r="J71" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>104</v>
       </c>
@@ -8587,8 +10337,17 @@
       <c r="E72" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G72" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" t="s">
+        <v>9</v>
+      </c>
+      <c r="J72" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>105</v>
       </c>
@@ -8604,8 +10363,17 @@
       <c r="E73" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G73" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+      <c r="J73" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>524</v>
       </c>
@@ -8622,7 +10390,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>106</v>
       </c>
@@ -8639,7 +10407,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>107</v>
       </c>
@@ -8656,7 +10424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>108</v>
       </c>
@@ -8673,7 +10441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>109</v>
       </c>
@@ -8690,7 +10458,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>110</v>
       </c>
@@ -8707,7 +10475,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>111</v>
       </c>
@@ -15902,7 +17670,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>474</v>
       </c>
@@ -15925,7 +17693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
         <v>475</v>
       </c>
@@ -15942,7 +17710,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
         <v>476</v>
       </c>
@@ -15959,7 +17727,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>477</v>
       </c>
@@ -15982,7 +17750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
         <v>480</v>
       </c>
@@ -16007,8 +17775,17 @@
       <c r="H485" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J485" t="s">
+        <v>2728</v>
+      </c>
+      <c r="K485" t="s">
+        <v>2729</v>
+      </c>
+      <c r="L485" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>525</v>
       </c>
@@ -16025,7 +17802,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>526</v>
       </c>
@@ -16042,7 +17819,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
         <v>527</v>
       </c>
@@ -16059,7 +17836,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
         <v>528</v>
       </c>
@@ -16075,8 +17852,17 @@
       <c r="E489" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G489" t="s">
+        <v>7</v>
+      </c>
+      <c r="H489" t="s">
+        <v>7</v>
+      </c>
+      <c r="J489" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
         <v>529</v>
       </c>
@@ -16093,7 +17879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
         <v>530</v>
       </c>
@@ -16110,7 +17896,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
         <v>531</v>
       </c>
@@ -16127,7 +17913,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
         <v>532</v>
       </c>
@@ -16144,7 +17930,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>444</v>
       </c>
@@ -16164,7 +17950,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>381</v>
       </c>
@@ -16184,7 +17970,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>534</v>
       </c>
@@ -16743,6 +18529,9 @@
       <c r="E523" t="s">
         <v>45</v>
       </c>
+      <c r="J523" t="s">
+        <v>2310</v>
+      </c>
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
@@ -16835,7 +18624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>558</v>
       </c>
@@ -16852,7 +18641,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>559</v>
       </c>
@@ -16869,7 +18658,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
         <v>560</v>
       </c>
@@ -16886,7 +18675,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>561</v>
       </c>
@@ -16902,8 +18691,11 @@
       <c r="E532" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J532" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
         <v>562</v>
       </c>
@@ -16923,7 +18715,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
         <v>563</v>
       </c>
@@ -16943,7 +18735,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>564</v>
       </c>
@@ -16963,7 +18755,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
         <v>559</v>
       </c>
@@ -16979,8 +18771,20 @@
       <c r="E536" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J536" t="s">
+        <v>2726</v>
+      </c>
+      <c r="K536" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L536" t="s">
+        <v>2725</v>
+      </c>
+      <c r="M536" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>565</v>
       </c>
@@ -16999,8 +18803,20 @@
       <c r="G537" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J537" t="s">
+        <v>2717</v>
+      </c>
+      <c r="K537" t="s">
+        <v>2718</v>
+      </c>
+      <c r="L537" t="s">
+        <v>2719</v>
+      </c>
+      <c r="M537" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>19</v>
       </c>
@@ -17017,7 +18833,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>19</v>
       </c>
@@ -17034,7 +18850,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>565</v>
       </c>
@@ -17060,7 +18876,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>567</v>
       </c>
@@ -17080,7 +18896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>568</v>
       </c>
@@ -17097,7 +18913,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>569</v>
       </c>
@@ -17117,7 +18933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>570</v>
       </c>
@@ -17475,7 +19291,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A561" s="6" t="s">
         <v>591</v>
       </c>
@@ -17495,7 +19311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A562" s="6" t="s">
         <v>20</v>
       </c>
@@ -17512,7 +19328,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A563" s="6" t="s">
         <v>877</v>
       </c>
@@ -17535,7 +19351,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A564" s="6" t="s">
         <v>877</v>
       </c>
@@ -17558,7 +19374,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A565" s="6" t="s">
         <v>593</v>
       </c>
@@ -17584,7 +19400,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A566" s="6" t="s">
         <v>594</v>
       </c>
@@ -17600,8 +19416,11 @@
       <c r="E566" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J566" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A567" s="6" t="s">
         <v>4</v>
       </c>
@@ -17618,7 +19437,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A568" s="6" t="s">
         <v>595</v>
       </c>
@@ -17641,7 +19460,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A569" s="6" t="s">
         <v>596</v>
       </c>
@@ -17667,7 +19486,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A570" s="6" t="s">
         <v>602</v>
       </c>
@@ -17686,8 +19505,17 @@
       <c r="F570" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J570" t="s">
+        <v>2600</v>
+      </c>
+      <c r="K570" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L570" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A571" s="6" t="s">
         <v>561</v>
       </c>
@@ -17703,8 +19531,11 @@
       <c r="E571" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J571" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A572" s="6" t="s">
         <v>558</v>
       </c>
@@ -17720,8 +19551,20 @@
       <c r="E572" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J572" t="s">
+        <v>2722</v>
+      </c>
+      <c r="K572" t="s">
+        <v>2723</v>
+      </c>
+      <c r="L572" t="s">
+        <v>2724</v>
+      </c>
+      <c r="M572" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A573" s="6" t="s">
         <v>2006</v>
       </c>
@@ -17741,7 +19584,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A574" s="6" t="s">
         <v>52</v>
       </c>
@@ -17761,7 +19604,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A575" s="6" t="s">
         <v>605</v>
       </c>
@@ -17784,7 +19627,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A576" s="6" t="s">
         <v>607</v>
       </c>
@@ -21193,6 +23036,9 @@
       <c r="J732" t="s">
         <v>1030</v>
       </c>
+      <c r="K732" t="s">
+        <v>2311</v>
+      </c>
     </row>
     <row r="733" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A733" s="2" t="s">
@@ -30462,24 +32308,30 @@
     </row>
     <row r="1217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1217" s="2" t="s">
-        <v>594</v>
+        <v>1275</v>
       </c>
       <c r="B1217" t="s">
         <v>13</v>
       </c>
       <c r="C1217" t="s">
-        <v>598</v>
+        <v>600</v>
+      </c>
+      <c r="D1217" s="1">
+        <v>38660</v>
       </c>
       <c r="E1217" t="s">
         <v>45</v>
       </c>
+      <c r="F1217" t="s">
+        <v>1267</v>
+      </c>
       <c r="J1217" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="1218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1218" s="2" t="s">
-        <v>1275</v>
+        <v>1264</v>
       </c>
       <c r="B1218" t="s">
         <v>13</v>
@@ -30488,21 +32340,21 @@
         <v>600</v>
       </c>
       <c r="D1218" s="1">
-        <v>38660</v>
+        <v>38422</v>
       </c>
       <c r="E1218" t="s">
         <v>45</v>
       </c>
-      <c r="F1218" t="s">
-        <v>1267</v>
-      </c>
       <c r="J1218" t="s">
-        <v>2069</v>
+        <v>2071</v>
+      </c>
+      <c r="K1218" t="s">
+        <v>2064</v>
       </c>
     </row>
     <row r="1219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1219" s="2" t="s">
-        <v>1264</v>
+      <c r="A1219" s="6" t="s">
+        <v>2006</v>
       </c>
       <c r="B1219" t="s">
         <v>13</v>
@@ -30511,16 +32363,19 @@
         <v>600</v>
       </c>
       <c r="D1219" s="1">
-        <v>38422</v>
+        <v>37708</v>
       </c>
       <c r="E1219" t="s">
         <v>45</v>
       </c>
+      <c r="F1219" t="s">
+        <v>2009</v>
+      </c>
       <c r="J1219" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="K1219" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="1220" spans="1:11" x14ac:dyDescent="0.25">
@@ -30540,50 +32395,44 @@
         <v>45</v>
       </c>
       <c r="F1220" t="s">
-        <v>2009</v>
+        <v>1271</v>
       </c>
       <c r="J1220" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="K1220" t="s">
-        <v>2065</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="1221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1221" s="6" t="s">
-        <v>2006</v>
+        <v>2072</v>
       </c>
       <c r="B1221" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C1221" t="s">
-        <v>600</v>
-      </c>
-      <c r="D1221" s="1">
-        <v>37708</v>
+        <v>18</v>
       </c>
       <c r="E1221" t="s">
         <v>45</v>
       </c>
       <c r="F1221" t="s">
-        <v>1271</v>
+        <v>1567</v>
       </c>
       <c r="J1221" t="s">
-        <v>2066</v>
-      </c>
-      <c r="K1221" t="s">
-        <v>2067</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="1222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1222" s="6" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="B1222" t="s">
         <v>34</v>
       </c>
       <c r="C1222" t="s">
-        <v>18</v>
+        <v>598</v>
       </c>
       <c r="E1222" t="s">
         <v>45</v>
@@ -30591,13 +32440,19 @@
       <c r="F1222" t="s">
         <v>1567</v>
       </c>
+      <c r="G1222" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1222" t="s">
+        <v>7</v>
+      </c>
       <c r="J1222" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="1223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1223" s="6" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="B1223" t="s">
         <v>34</v>
@@ -30608,9 +32463,6 @@
       <c r="E1223" t="s">
         <v>45</v>
       </c>
-      <c r="F1223" t="s">
-        <v>1567</v>
-      </c>
       <c r="G1223" t="s">
         <v>7</v>
       </c>
@@ -30618,12 +32470,12 @@
         <v>7</v>
       </c>
       <c r="J1223" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="1224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1224" s="6" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="B1224" t="s">
         <v>34</v>
@@ -30634,102 +32486,96 @@
       <c r="E1224" t="s">
         <v>45</v>
       </c>
-      <c r="G1224" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1224" t="s">
-        <v>7</v>
-      </c>
       <c r="J1224" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1225" s="6" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="B1225" t="s">
         <v>34</v>
       </c>
       <c r="C1225" t="s">
-        <v>598</v>
+        <v>18</v>
       </c>
       <c r="E1225" t="s">
         <v>45</v>
       </c>
       <c r="J1225" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1226" s="6" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="B1226" t="s">
         <v>34</v>
       </c>
       <c r="C1226" t="s">
-        <v>18</v>
+        <v>598</v>
       </c>
       <c r="E1226" t="s">
         <v>45</v>
       </c>
       <c r="J1226" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="1227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1227" s="6" t="s">
-        <v>2077</v>
+      <c r="A1227" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="B1227" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C1227" t="s">
         <v>598</v>
       </c>
+      <c r="D1227" s="1">
+        <v>37743</v>
+      </c>
       <c r="E1227" t="s">
         <v>45</v>
       </c>
+      <c r="F1227" t="s">
+        <v>603</v>
+      </c>
+      <c r="G1227" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1227" t="s">
+        <v>9</v>
+      </c>
       <c r="J1227" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1228" s="2" t="s">
-        <v>183</v>
+        <v>2086</v>
       </c>
       <c r="B1228" t="s">
-        <v>6</v>
+        <v>1306</v>
       </c>
       <c r="C1228" t="s">
         <v>598</v>
       </c>
-      <c r="D1228" s="1">
-        <v>37743</v>
-      </c>
       <c r="E1228" t="s">
         <v>45</v>
       </c>
-      <c r="F1228" t="s">
-        <v>603</v>
-      </c>
-      <c r="G1228" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1228" t="s">
-        <v>9</v>
-      </c>
       <c r="J1228" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="1229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1229" s="2" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="B1229" t="s">
-        <v>1306</v>
+        <v>39</v>
       </c>
       <c r="C1229" t="s">
         <v>598</v>
@@ -30738,29 +32584,32 @@
         <v>45</v>
       </c>
       <c r="J1229" t="s">
-        <v>2085</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1230" s="2" t="s">
-        <v>2087</v>
+        <v>700</v>
       </c>
       <c r="B1230" t="s">
         <v>39</v>
       </c>
       <c r="C1230" t="s">
-        <v>598</v>
+        <v>600</v>
+      </c>
+      <c r="D1230" s="1">
+        <v>38261</v>
       </c>
       <c r="E1230" t="s">
-        <v>45</v>
+        <v>1308</v>
       </c>
       <c r="J1230" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1231" s="2" t="s">
-        <v>700</v>
+        <v>2088</v>
       </c>
       <c r="B1231" t="s">
         <v>39</v>
@@ -30768,19 +32617,16 @@
       <c r="C1231" t="s">
         <v>600</v>
       </c>
-      <c r="D1231" s="1">
-        <v>38261</v>
-      </c>
       <c r="E1231" t="s">
-        <v>1308</v>
+        <v>45</v>
       </c>
       <c r="J1231" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1232" s="2" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="B1232" t="s">
         <v>39</v>
@@ -30792,29 +32638,26 @@
         <v>45</v>
       </c>
       <c r="J1232" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1233" s="2" t="s">
-        <v>2089</v>
+        <v>2094</v>
       </c>
       <c r="B1233" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1233" t="s">
-        <v>600</v>
-      </c>
-      <c r="E1233" t="s">
-        <v>45</v>
+        <v>598</v>
       </c>
       <c r="J1233" t="s">
-        <v>2090</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1234" s="2" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
       <c r="B1234" t="s">
         <v>37</v>
@@ -30823,54 +32666,57 @@
         <v>598</v>
       </c>
       <c r="J1234" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="1235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1235" s="2" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="B1235" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C1235" t="s">
-        <v>598</v>
+        <v>18</v>
       </c>
       <c r="J1235" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="1236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1236" s="2" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="B1236" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C1236" t="s">
         <v>18</v>
       </c>
       <c r="J1236" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="1237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1237" s="2" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="B1237" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C1237" t="s">
-        <v>18</v>
+        <v>598</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>45</v>
       </c>
       <c r="J1237" t="s">
-        <v>2101</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="1238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1238" s="2" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="B1238" t="s">
         <v>28</v>
@@ -30882,15 +32728,15 @@
         <v>45</v>
       </c>
       <c r="J1238" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="1239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1239" s="2" t="s">
-        <v>2103</v>
+        <v>2106</v>
       </c>
       <c r="B1239" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1239" t="s">
         <v>598</v>
@@ -30899,89 +32745,95 @@
         <v>45</v>
       </c>
       <c r="J1239" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1240" s="2" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="B1240" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C1240" t="s">
-        <v>598</v>
+        <v>18</v>
       </c>
       <c r="E1240" t="s">
         <v>45</v>
       </c>
+      <c r="F1240" t="s">
+        <v>2111</v>
+      </c>
       <c r="J1240" t="s">
-        <v>2107</v>
+        <v>2109</v>
+      </c>
+      <c r="K1240" t="s">
+        <v>2110</v>
       </c>
     </row>
     <row r="1241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1241" s="2" t="s">
-        <v>2108</v>
+        <v>2112</v>
       </c>
       <c r="B1241" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1241" t="s">
-        <v>18</v>
+        <v>598</v>
       </c>
       <c r="E1241" t="s">
         <v>45</v>
       </c>
-      <c r="F1241" t="s">
-        <v>2111</v>
-      </c>
       <c r="J1241" t="s">
-        <v>2109</v>
-      </c>
-      <c r="K1241" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1242" s="2" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="B1242" t="s">
         <v>25</v>
       </c>
       <c r="C1242" t="s">
-        <v>598</v>
+        <v>18</v>
       </c>
       <c r="E1242" t="s">
         <v>45</v>
       </c>
       <c r="J1242" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="1243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1243" s="2" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="B1243" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1243" t="s">
-        <v>18</v>
+        <v>598</v>
       </c>
       <c r="E1243" t="s">
         <v>45</v>
       </c>
+      <c r="G1243" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1243" t="s">
+        <v>7</v>
+      </c>
       <c r="J1243" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1244" s="2" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="B1244" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C1244" t="s">
         <v>598</v>
@@ -30989,19 +32841,13 @@
       <c r="E1244" t="s">
         <v>45</v>
       </c>
-      <c r="G1244" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1244" t="s">
-        <v>7</v>
-      </c>
       <c r="J1244" t="s">
-        <v>2117</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="1245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1245" s="2" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="B1245" t="s">
         <v>33</v>
@@ -31012,13 +32858,16 @@
       <c r="E1245" t="s">
         <v>45</v>
       </c>
+      <c r="F1245" t="s">
+        <v>2132</v>
+      </c>
       <c r="J1245" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="1246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1246" s="2" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="B1246" t="s">
         <v>33</v>
@@ -31029,16 +32878,13 @@
       <c r="E1246" t="s">
         <v>45</v>
       </c>
-      <c r="F1246" t="s">
-        <v>2132</v>
-      </c>
       <c r="J1246" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1247" s="2" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="B1247" t="s">
         <v>33</v>
@@ -31049,13 +32895,16 @@
       <c r="E1247" t="s">
         <v>45</v>
       </c>
+      <c r="G1247" t="s">
+        <v>7</v>
+      </c>
       <c r="J1247" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1248" s="2" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="B1248" t="s">
         <v>33</v>
@@ -31069,13 +32918,16 @@
       <c r="G1248" t="s">
         <v>7</v>
       </c>
+      <c r="H1248" t="s">
+        <v>7</v>
+      </c>
       <c r="J1248" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="1249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1249" s="2" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="B1249" t="s">
         <v>33</v>
@@ -31086,19 +32938,13 @@
       <c r="E1249" t="s">
         <v>45</v>
       </c>
-      <c r="G1249" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1249" t="s">
-        <v>7</v>
-      </c>
       <c r="J1249" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1250" s="2" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="B1250" t="s">
         <v>33</v>
@@ -31110,29 +32956,29 @@
         <v>45</v>
       </c>
       <c r="J1250" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="1251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1251" s="2" t="s">
-        <v>2124</v>
+        <v>2133</v>
       </c>
       <c r="B1251" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C1251" t="s">
         <v>598</v>
       </c>
       <c r="E1251" t="s">
-        <v>45</v>
+        <v>1308</v>
       </c>
       <c r="J1251" t="s">
-        <v>2131</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="1252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1252" s="2" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="B1252" t="s">
         <v>21</v>
@@ -31141,15 +32987,15 @@
         <v>598</v>
       </c>
       <c r="E1252" t="s">
-        <v>1308</v>
+        <v>45</v>
       </c>
       <c r="J1252" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="1253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1253" s="2" t="s">
-        <v>2134</v>
+        <v>2138</v>
       </c>
       <c r="B1253" t="s">
         <v>21</v>
@@ -31161,12 +33007,12 @@
         <v>45</v>
       </c>
       <c r="J1253" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="1254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1254" s="2" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
       <c r="B1254" t="s">
         <v>21</v>
@@ -31177,13 +33023,16 @@
       <c r="E1254" t="s">
         <v>45</v>
       </c>
+      <c r="G1254" t="s">
+        <v>7</v>
+      </c>
       <c r="J1254" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1255" s="2" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="B1255" t="s">
         <v>21</v>
@@ -31197,13 +33046,16 @@
       <c r="G1255" t="s">
         <v>7</v>
       </c>
+      <c r="H1255" t="s">
+        <v>7</v>
+      </c>
       <c r="J1255" t="s">
-        <v>2139</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1256" s="2" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="B1256" t="s">
         <v>21</v>
@@ -31214,19 +33066,13 @@
       <c r="E1256" t="s">
         <v>45</v>
       </c>
-      <c r="G1256" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1256" t="s">
-        <v>7</v>
-      </c>
       <c r="J1256" t="s">
-        <v>2142</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="1257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1257" s="2" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="B1257" t="s">
         <v>21</v>
@@ -31238,12 +33084,12 @@
         <v>45</v>
       </c>
       <c r="J1257" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="1258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1258" s="2" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="B1258" t="s">
         <v>21</v>
@@ -31255,12 +33101,12 @@
         <v>45</v>
       </c>
       <c r="J1258" t="s">
-        <v>2149</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="1259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1259" s="2" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="B1259" t="s">
         <v>21</v>
@@ -31272,12 +33118,12 @@
         <v>45</v>
       </c>
       <c r="J1259" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="1260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1260" s="2" t="s">
-        <v>2146</v>
+        <v>1125</v>
       </c>
       <c r="B1260" t="s">
         <v>21</v>
@@ -31288,13 +33134,19 @@
       <c r="E1260" t="s">
         <v>45</v>
       </c>
+      <c r="G1260" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1260" t="s">
+        <v>7</v>
+      </c>
       <c r="J1260" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1261" s="2" t="s">
-        <v>1125</v>
+        <v>2147</v>
       </c>
       <c r="B1261" t="s">
         <v>21</v>
@@ -31305,19 +33157,13 @@
       <c r="E1261" t="s">
         <v>45</v>
       </c>
-      <c r="G1261" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1261" t="s">
-        <v>7</v>
-      </c>
       <c r="J1261" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="1262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1262" s="2" t="s">
-        <v>2147</v>
+        <v>2154</v>
       </c>
       <c r="B1262" t="s">
         <v>21</v>
@@ -31329,12 +33175,12 @@
         <v>45</v>
       </c>
       <c r="J1262" t="s">
-        <v>2152</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="1263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1263" s="2" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="B1263" t="s">
         <v>21</v>
@@ -31346,12 +33192,12 @@
         <v>45</v>
       </c>
       <c r="J1263" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1264" s="2" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="B1264" t="s">
         <v>21</v>
@@ -31363,12 +33209,12 @@
         <v>45</v>
       </c>
       <c r="J1264" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="1265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1265" s="2" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="B1265" t="s">
         <v>21</v>
@@ -31380,12 +33226,12 @@
         <v>45</v>
       </c>
       <c r="J1265" t="s">
-        <v>2161</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1266" s="2" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="B1266" t="s">
         <v>21</v>
@@ -31397,12 +33243,12 @@
         <v>45</v>
       </c>
       <c r="J1266" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1267" s="2" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="B1267" t="s">
         <v>21</v>
@@ -31414,12 +33260,12 @@
         <v>45</v>
       </c>
       <c r="J1267" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="1268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1268" s="2" t="s">
-        <v>2159</v>
+        <v>2166</v>
       </c>
       <c r="B1268" t="s">
         <v>21</v>
@@ -31431,12 +33277,12 @@
         <v>45</v>
       </c>
       <c r="J1268" t="s">
-        <v>2165</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1269" s="2" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="B1269" t="s">
         <v>21</v>
@@ -31448,12 +33294,12 @@
         <v>45</v>
       </c>
       <c r="J1269" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1270" s="2" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="B1270" t="s">
         <v>21</v>
@@ -31465,12 +33311,12 @@
         <v>45</v>
       </c>
       <c r="J1270" t="s">
-        <v>2171</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="1271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1271" s="2" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="B1271" t="s">
         <v>21</v>
@@ -31482,12 +33328,12 @@
         <v>45</v>
       </c>
       <c r="J1271" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1272" s="2" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="B1272" t="s">
         <v>21</v>
@@ -31499,12 +33345,15 @@
         <v>45</v>
       </c>
       <c r="J1272" t="s">
-        <v>2173</v>
+        <v>2172</v>
+      </c>
+      <c r="K1272" t="s">
+        <v>2176</v>
       </c>
     </row>
     <row r="1273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1273" s="2" t="s">
-        <v>2170</v>
+        <v>877</v>
       </c>
       <c r="B1273" t="s">
         <v>21</v>
@@ -31515,16 +33364,22 @@
       <c r="E1273" t="s">
         <v>45</v>
       </c>
+      <c r="G1273" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1273" t="s">
+        <v>7</v>
+      </c>
       <c r="J1273" t="s">
-        <v>2172</v>
+        <v>2180</v>
       </c>
       <c r="K1273" t="s">
-        <v>2176</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="1274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1274" s="2" t="s">
-        <v>877</v>
+        <v>2177</v>
       </c>
       <c r="B1274" t="s">
         <v>21</v>
@@ -31535,22 +33390,13 @@
       <c r="E1274" t="s">
         <v>45</v>
       </c>
-      <c r="G1274" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1274" t="s">
-        <v>7</v>
-      </c>
       <c r="J1274" t="s">
-        <v>2180</v>
-      </c>
-      <c r="K1274" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1275" s="2" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="B1275" t="s">
         <v>21</v>
@@ -31562,24 +33408,4562 @@
         <v>45</v>
       </c>
       <c r="J1275" t="s">
-        <v>2179</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1276" s="2" t="s">
-        <v>2178</v>
+        <v>1833</v>
       </c>
       <c r="B1276" t="s">
-        <v>21</v>
+        <v>659</v>
       </c>
       <c r="C1276" t="s">
         <v>598</v>
       </c>
-      <c r="E1276" t="s">
-        <v>45</v>
+      <c r="G1276" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1276" t="s">
+        <v>9</v>
       </c>
       <c r="J1276" t="s">
-        <v>2182</v>
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1277" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>659</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1277" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1277" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1277" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1278" s="2" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>659</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1278" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1278" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1278" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1279" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>659</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1279" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1279" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1279" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1280" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>659</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1280" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1280" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1280" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1281" s="2" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1281" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1281" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1281" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1282" s="2" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>599</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1282" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1283" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1283" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1284" s="2" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1284" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1284" t="s">
+        <v>2200</v>
+      </c>
+      <c r="K1284" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1285" s="2" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1285" t="s">
+        <v>2202</v>
+      </c>
+      <c r="K1285" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1286" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1286" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1286" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1287" s="2" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1287" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1287" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1288" s="2" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1288" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1288" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1289" s="2" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1289" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1290" s="2" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1290" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1290" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1291" s="2" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1291" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1292" s="2" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1292" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1293" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1293" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1293" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1294" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1294" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1294" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1295" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1295" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1295" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1296" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1296" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1296" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1297" s="2" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1297" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1297" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1298" s="2" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1298" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1298" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1299" s="2" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1299" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1299" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1300" s="2" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1300" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1300" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1301" s="2" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1301" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1301" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1302" s="2" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1302" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1302" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1303" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1303" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1303" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1304" s="2" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1304" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1304" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1305" s="2" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1305" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1306" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1306" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1307" s="2" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1307" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1308" s="2" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1308" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1309" s="2" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1309" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1309" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1310" s="2" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>599</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1310" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1311" s="2" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1311" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1311" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1312" s="2" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1312" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1312" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1313" s="2" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1313" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1313" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1314" s="2" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1314" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1314" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1315" s="2" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1315" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1315" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1316" s="2" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1316" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1316" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1317" s="2" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1317" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1317" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1318" s="2" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1318" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1318" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1319" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1319" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1319" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1320" s="2" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1320" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1320" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1321" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1321" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1321" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1322" s="2" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1322" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1322" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1323" s="2" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1323" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1323" t="s">
+        <v>2278</v>
+      </c>
+      <c r="J1323" t="s">
+        <v>2279</v>
+      </c>
+      <c r="K1323" t="s">
+        <v>2280</v>
+      </c>
+      <c r="L1323" t="s">
+        <v>2281</v>
+      </c>
+      <c r="M1323" t="s">
+        <v>2282</v>
+      </c>
+      <c r="N1323" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1324" s="2" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1324" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1324" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1325" s="2" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1325" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1325" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1326" s="2" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1326" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1327" s="2" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1327" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1327" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1328" s="2" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1328" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1328" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1329" s="2" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1329" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1329" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1330" s="2" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1330" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1330" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J1330" t="s">
+        <v>2296</v>
+      </c>
+      <c r="K1330" t="s">
+        <v>2302</v>
+      </c>
+      <c r="L1330" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1331" s="2" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1331" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1331" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J1331" t="s">
+        <v>2298</v>
+      </c>
+      <c r="K1331" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1332" s="2" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1332" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1332" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J1332" t="s">
+        <v>2300</v>
+      </c>
+      <c r="K1332" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1333" s="2" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1333" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1333" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1334" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1334" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1334" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1335" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1335" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1335" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1336" s="2" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1336" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1336" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1337" s="2" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1337" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1337" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1338" s="2" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1338" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1338" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1339" s="2" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1339" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1339" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1340" s="2" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1340" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1340" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1341" s="2" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1341" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1341" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1342" s="2" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1342" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1342" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1343" s="2" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1343" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1343" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1344" s="2" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1344" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1344" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1345" s="2" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1345" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1345" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1346" s="2" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1346" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1346" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1347" s="2" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1347" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1347" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1348" s="2" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1348" s="1">
+        <v>43238</v>
+      </c>
+      <c r="J1348" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1349" s="2" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1349" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1349" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1350" s="2" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1350" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1350" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1351" s="2" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1351" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1351" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1352" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1352" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1352" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1353" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1353" s="1">
+        <v>36854</v>
+      </c>
+      <c r="E1353" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1353" t="s">
+        <v>2354</v>
+      </c>
+      <c r="J1353" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1354" s="2" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1354" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J1354" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1355" s="2" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1355" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1355" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1356" s="2" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1356" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1356" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1357" s="2" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1357" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1357" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1358" s="2" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1358" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1358" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1359" s="2" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1359" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1359" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1360" s="2" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1360" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1360" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1361" s="2" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1361" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1361" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1362" s="2" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1362" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1362" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1363" s="2" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1363" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1363" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1364" s="2" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1364" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1364" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1365" s="2" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1365" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1365" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1366" s="2" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1366" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1366" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1367" s="2" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1367" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1367" t="s">
+        <v>657</v>
+      </c>
+      <c r="J1367" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1368" s="2" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1368" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1368" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1369" s="2" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1369" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1369" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1370" s="2" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1370" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1370" t="s">
+        <v>2387</v>
+      </c>
+      <c r="J1370" t="s">
+        <v>2395</v>
+      </c>
+      <c r="K1370" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1371" s="2" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1371" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1371" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1372" s="2" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1372" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1372" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1373" s="2" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1373" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1373" t="s">
+        <v>2397</v>
+      </c>
+      <c r="J1373" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1374" s="2" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1374" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1374" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1375" s="2" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1375" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1375" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1376" s="2" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1376" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1376" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1377" s="2" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1377" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1377" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1378" s="2" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1378" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1378" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1379" s="2" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1379" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1379" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1380" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1380" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1380" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1381" s="2" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1381" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1381" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1382" s="2" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1382" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1382" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1383" s="2" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1383" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1383" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1384" s="2" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1384" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1384" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1385" s="2" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1385" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1385" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1386" s="2" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1386" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1386" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1387" s="2" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1387" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1387" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1388" s="2" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1388" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1388" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1389" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1389" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1389" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1390" s="2" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1390" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1390" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1391" s="2" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1391" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1391" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1392" s="2" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1392" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1392" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1393" s="2" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1393" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1393" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1394" s="2" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1394" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1394" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1395" s="2" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1395" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1395" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1396" s="2" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1396" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1396" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1397" s="2" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1397" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1397" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1398" s="2" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1398" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1398" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1399" s="2" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1399" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1399" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1400" s="2" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1400" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1400" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1401" s="2" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1401" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1401" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1402" s="2" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1402" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1402" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1403" s="2" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1403" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1404" s="2" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1404" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1405" s="2" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>599</v>
+      </c>
+      <c r="E1405" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1405" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1406" s="2" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1406" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1406" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1407" s="2" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1407" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1407" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1408" s="2" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1408" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1408" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1409" s="2" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1409" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1409" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1410" s="2" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1410" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1410" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1411" s="2" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1411" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1411" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1412" s="2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1412" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1412" t="s">
+        <v>2132</v>
+      </c>
+      <c r="J1412" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1413" s="2" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1413" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1413" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1414" s="2" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1414" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1414" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1415" s="2" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1415" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1415" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1416" s="2" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1416" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1416" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1417" s="2" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1417" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1417" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1418" s="2" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1418" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1418" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1419" s="2" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1419" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1420" s="2" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1420" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1421" s="2" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1421" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1422" s="2" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1422" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1423" s="2" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1423" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1424" s="2" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1424" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1425" s="2" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1425" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1426" s="2" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1426" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1427" s="2" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1427" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1427" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1428" s="2" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1428" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1428" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1429" s="2" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1429" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1429" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1430" s="2" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1430" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1431" s="2" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1431" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1431" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1432" s="2" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1432" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1433" s="2" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1433" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1434" s="2" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1434" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1435" s="2" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1435" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1436" s="2" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1436" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1437" s="2" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1437" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1438" s="2" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1438" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1439" s="2" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1439" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1439" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1440" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1440" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1440" t="s">
+        <v>2530</v>
+      </c>
+      <c r="J1440" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1441" s="2" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>599</v>
+      </c>
+      <c r="E1441" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1441" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1442" s="2" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1442" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1443" s="2" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1443" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1443" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1444" s="2" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1444" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1444" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1445" s="2" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>599</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1445" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1446" s="2" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1446" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1447" s="2" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1447" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J1447" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1448" s="2" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1448" t="s">
+        <v>2530</v>
+      </c>
+      <c r="J1448" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1449" s="2" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1449" t="s">
+        <v>2530</v>
+      </c>
+      <c r="J1449" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1450" s="2" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1450" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1450" t="s">
+        <v>657</v>
+      </c>
+      <c r="J1450" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1451" s="2" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1451" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1451" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1452" s="2" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1452" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1452" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1453" s="2" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1453" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1453" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1454" s="2" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1454" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1454" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1455" s="2" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1455" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1455" t="s">
+        <v>2559</v>
+      </c>
+      <c r="K1455" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1456" s="8" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>600</v>
+      </c>
+      <c r="J1456" t="s">
+        <v>2562</v>
+      </c>
+      <c r="K1456" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1457" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1457" s="1">
+        <v>36854</v>
+      </c>
+      <c r="F1457" t="s">
+        <v>2565</v>
+      </c>
+      <c r="J1457" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1458" s="2" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1458" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1458" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1459" s="2" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1459" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1459" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1460" s="2" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1460" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1460" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1461" s="2" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1461" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1462" s="2" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1462" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1462" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1463" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1463" s="1">
+        <v>38275</v>
+      </c>
+      <c r="E1463" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1463" t="s">
+        <v>2575</v>
+      </c>
+      <c r="G1463" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1463" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1463" t="s">
+        <v>2580</v>
+      </c>
+      <c r="K1463" t="s">
+        <v>2581</v>
+      </c>
+      <c r="L1463" t="s">
+        <v>2582</v>
+      </c>
+      <c r="M1463" t="s">
+        <v>2583</v>
+      </c>
+      <c r="N1463" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1464" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1464" s="1">
+        <v>38387</v>
+      </c>
+      <c r="E1464" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1464" t="s">
+        <v>2575</v>
+      </c>
+      <c r="J1464" t="s">
+        <v>2576</v>
+      </c>
+      <c r="K1464" t="s">
+        <v>2577</v>
+      </c>
+      <c r="L1464" t="s">
+        <v>2578</v>
+      </c>
+      <c r="M1464" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1465" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1465" s="1">
+        <v>38429</v>
+      </c>
+      <c r="E1465" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1465" t="s">
+        <v>657</v>
+      </c>
+      <c r="J1465" t="s">
+        <v>2585</v>
+      </c>
+      <c r="K1465" t="s">
+        <v>2586</v>
+      </c>
+      <c r="L1465" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1466" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1466" s="1">
+        <v>37554</v>
+      </c>
+      <c r="E1466" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1466" t="s">
+        <v>710</v>
+      </c>
+      <c r="G1466" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1466" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1466" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1467" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1467" s="1">
+        <v>37939</v>
+      </c>
+      <c r="E1467" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1467" t="s">
+        <v>710</v>
+      </c>
+      <c r="G1467" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1467" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1467" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1468" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1468" s="1">
+        <v>38233</v>
+      </c>
+      <c r="E1468" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1468" t="s">
+        <v>710</v>
+      </c>
+      <c r="G1468" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1468" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1468" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1469" s="2" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1469" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1469" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1470" s="2" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1470" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1470" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1471" s="2" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1471" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1471" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1472" s="2" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1472" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1472" t="s">
+        <v>2604</v>
+      </c>
+      <c r="J1472" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1473" s="2" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1473" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1473" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1474" s="2" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1474" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1474" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1475" s="2" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1475" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1475" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1476" s="2" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1476" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1476" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1477" s="2" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1477" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1477" t="s">
+        <v>657</v>
+      </c>
+      <c r="G1477" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1477" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1477" t="s">
+        <v>2618</v>
+      </c>
+      <c r="K1477" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1478" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1478" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1478" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1478" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1478" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1479" s="2" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1479" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1479" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1479" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1479" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1480" s="2" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1480" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1480" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1480" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1480" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1481" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1481" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1481" t="s">
+        <v>2617</v>
+      </c>
+      <c r="G1481" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1481" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1481" t="s">
+        <v>2623</v>
+      </c>
+      <c r="K1481" t="s">
+        <v>2624</v>
+      </c>
+      <c r="L1481" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1482" s="2" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1482" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1482" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1483" s="2" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1483" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1483" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1483" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1484" s="2" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1484" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1484" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1485" s="2" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1485" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1486" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1486" s="1">
+        <v>40074</v>
+      </c>
+      <c r="E1486" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1486" t="s">
+        <v>657</v>
+      </c>
+      <c r="G1486" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1486" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1486" t="s">
+        <v>2634</v>
+      </c>
+      <c r="K1486" t="s">
+        <v>2635</v>
+      </c>
+      <c r="L1486" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1487" s="2" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1487" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1487" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1488" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1488" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1489" s="2" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1489" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1490" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1490" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1491" s="2" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1491" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1491" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1492" s="2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1492" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1492" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1493" s="2" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1493" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1493" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1494" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1494" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1494" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1495" s="2" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1495" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1495" t="s">
+        <v>2654</v>
+      </c>
+      <c r="K1495" t="s">
+        <v>2655</v>
+      </c>
+      <c r="L1495" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1496" s="2" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1496" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1496" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1497" s="2" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1497" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1497" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1498" s="2" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1498" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1498" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1499" s="2" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1499" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1499" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1500" s="2" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1500" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1500" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1501" s="2" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1501" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1501" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1502" s="2" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1502" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1502" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1503" s="2" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1503" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1503" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1504" s="2" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1504" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1504" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1505" s="2" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1505" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1505" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1506" s="2" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1506" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1506" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1507" s="2" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1507" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1507" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1508" s="2" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1508" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1508" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1509" s="2" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1509" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1509" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1510" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1510" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1510" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1511" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1511" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1511" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1512" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1512" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1512" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1513" s="2" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1513" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1513" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1514" s="2" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1514" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1514" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1515" s="2" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1515" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1515" t="s">
+        <v>924</v>
+      </c>
+      <c r="J1515" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1516" s="2" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1516" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1516" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1517" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1517" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1517" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1518" s="2" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1518" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1518" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1519" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1519" s="1">
+        <v>38429</v>
+      </c>
+      <c r="E1519" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1519" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1520" s="2" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1520" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1520" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1521" s="2" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1521" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J1521" t="s">
+        <v>2713</v>
+      </c>
+      <c r="K1521" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1522" s="2" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1522" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1522" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1523" s="2" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1523" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1523" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1524" s="2" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>599</v>
+      </c>
+      <c r="E1524" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1524" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1525" s="2" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1525" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1525" t="s">
+        <v>1183</v>
+      </c>
+      <c r="J1525" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1526" s="2" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1526" t="s">
+        <v>2732</v>
+      </c>
+      <c r="J1526" t="s">
+        <v>2733</v>
+      </c>
+      <c r="K1526" t="s">
+        <v>2734</v>
+      </c>
+      <c r="L1526" t="s">
+        <v>2735</v>
+      </c>
+      <c r="M1526" t="s">
+        <v>2736</v>
       </c>
     </row>
   </sheetData>

--- a/collection.xlsx
+++ b/collection.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7890" uniqueCount="2737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8620" uniqueCount="2976">
   <si>
     <t>Platform</t>
   </si>
@@ -8229,6 +8229,723 @@
   </si>
   <si>
     <t>https://i.imgur.com/Lq1bzX5.jpg</t>
+  </si>
+  <si>
+    <t>Lego Star Wars The Force Awakens</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/pwNDtqr.jpg</t>
+  </si>
+  <si>
+    <t>Kingdom Under Fire Heroes</t>
+  </si>
+  <si>
+    <t>Sega GT 2002</t>
+  </si>
+  <si>
+    <t>Unreal 2 The Awakening</t>
+  </si>
+  <si>
+    <t>Blinx 2 Masters of Time &amp; Space</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/fBJ6cCw.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/kHmhcpa.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/N8YNcx6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/oKQf25P.jpg</t>
+  </si>
+  <si>
+    <t>Excitebike 64</t>
+  </si>
+  <si>
+    <t>Star Wars Rogue Squadron</t>
+  </si>
+  <si>
+    <t>Fighters Destiny</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/KLYwDaM.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/O24UV8I.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/owy1y3t.jpg</t>
+  </si>
+  <si>
+    <t>Soul Calibur 5</t>
+  </si>
+  <si>
+    <t>Naughty Bear</t>
+  </si>
+  <si>
+    <t>Mini Ninjas</t>
+  </si>
+  <si>
+    <t>Promotional Copy</t>
+  </si>
+  <si>
+    <t>Perfect Dark Zero</t>
+  </si>
+  <si>
+    <t>Banjo Kazooie Nuts &amp; Bolts</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/OuEaq6u.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/5tcJ6PS.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/owMFiVz.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/oJWAipu.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/cn7Sy59.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/33vMqeN.jpg</t>
+  </si>
+  <si>
+    <t>Dante's Inferno</t>
+  </si>
+  <si>
+    <t>Gears of War 2</t>
+  </si>
+  <si>
+    <t>Assassin's Creed Brotherhood</t>
+  </si>
+  <si>
+    <t>Bayonetta</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/eFMyVin.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/UUlU0Vh.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0s6r33X.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Ums6ESo.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/LLW0fYa.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/F6P3wfu.jpg</t>
+  </si>
+  <si>
+    <t>Halo 3 ODST</t>
+  </si>
+  <si>
+    <t>Forza Motorsport 3</t>
+  </si>
+  <si>
+    <t>Kane &amp; Lynch 2 Dog Days</t>
+  </si>
+  <si>
+    <t>Mortal Kombat vs DC Universe</t>
+  </si>
+  <si>
+    <t>Fable 2</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/OVfUSz0.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ILMrmWg.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0x1VZKw.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9BqF9Rz.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/LDlFnyp.jpg</t>
+  </si>
+  <si>
+    <t>World of Warcraft Burning Crusade</t>
+  </si>
+  <si>
+    <t>Diablo 2 Expansion Set</t>
+  </si>
+  <si>
+    <t>Spellforce</t>
+  </si>
+  <si>
+    <t>Civilization Call To Power</t>
+  </si>
+  <si>
+    <t>Fable The Lost Chapter</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/2ZqQNDN.jpg</t>
+  </si>
+  <si>
+    <t>Diablo 2</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/bDC9ZcM.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/33QAYe0.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/CIHH1IA.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/yCC0UQ6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/SOBbqvL.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/KPjNDWM.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/GoJHu7P.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/C5wkj3c.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/cofasiW.jpg</t>
+  </si>
+  <si>
+    <t>Zelda Twilight Princess</t>
+  </si>
+  <si>
+    <t>The Last Story</t>
+  </si>
+  <si>
+    <t>Super Mario Strikers Charged Football</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/cuSf81d.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/nIjvSdC.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/XMdWUEo.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Jk8oktj.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/8ph6DZr.jpg</t>
+  </si>
+  <si>
+    <t>New Play Control Pikmin</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/wB8Gyk7.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/3J0EFcy.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/jlQkKzN.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/y85RvM6.jpg</t>
+  </si>
+  <si>
+    <t>Zack &amp; Wiki Quest For Barbaros' Treasure</t>
+  </si>
+  <si>
+    <t>uDraw Disney Princess Cadeaupakket</t>
+  </si>
+  <si>
+    <t>Both included games are sealed</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/itaAwI7.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/pdsEDPw.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/dakUke4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/JXBA8dz.jpg</t>
+  </si>
+  <si>
+    <t>Mario Party 8</t>
+  </si>
+  <si>
+    <t>Mario Party 9</t>
+  </si>
+  <si>
+    <t>De Blob</t>
+  </si>
+  <si>
+    <t>De Blob 2</t>
+  </si>
+  <si>
+    <t>Pokemon Battle Revolution</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/aTajN2q.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/PueMLGL.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/E4z6www.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/sKZNWZ7.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/NxdJP1W.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/FOgtRGS.jpg</t>
+  </si>
+  <si>
+    <t>The Munchables</t>
+  </si>
+  <si>
+    <t>Warioware Smooth Moves</t>
+  </si>
+  <si>
+    <t>Muramasa The Demon Blade</t>
+  </si>
+  <si>
+    <t>Ivy The Kiwi?</t>
+  </si>
+  <si>
+    <t>Wii Sports</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/LVTrtBx.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/QlOQzzg.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/aFwNWh8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ejGZnGI.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/p9dKvAw.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/IK9TQvl.jpg</t>
+  </si>
+  <si>
+    <t>Fire Emblem Radiant Dawn</t>
+  </si>
+  <si>
+    <t>Battle For The Pacific</t>
+  </si>
+  <si>
+    <t>Samba De Amigo</t>
+  </si>
+  <si>
+    <t>Wii Music</t>
+  </si>
+  <si>
+    <t>The Conduit</t>
+  </si>
+  <si>
+    <t>Mario &amp; Sonic op de Olympische Spelen</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/jRMfAS3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Hf9Sd60.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/o35nbc3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/mBtRuAg.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/edbuFC5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/PV9LEl7.jpg</t>
+  </si>
+  <si>
+    <t>Battalion Wars 2</t>
+  </si>
+  <si>
+    <t>Wii Fit Plus</t>
+  </si>
+  <si>
+    <t>Super Mario Galaxy 2</t>
+  </si>
+  <si>
+    <t>No More Heroes 2 Desperate Struggle</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/EXunaXV.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/scEHfEN.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/f4WunOW.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/f8yPR8s.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/5m1WuTB.jpg</t>
+  </si>
+  <si>
+    <t>God of War</t>
+  </si>
+  <si>
+    <t>God of War 2</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Fq2ejIJ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/mtlp73i.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/kWLy2QK.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/uFgReNW.jpg</t>
+  </si>
+  <si>
+    <t>Jak X</t>
+  </si>
+  <si>
+    <t>Jak and Daxter The Precursor Legacy</t>
+  </si>
+  <si>
+    <t>Jak 2 Renegade</t>
+  </si>
+  <si>
+    <t>Jak 3</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/p4KfXe1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/sBYcYuH.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/DkpuIce.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Tz3CNpa.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/6EohR2X.jpg</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/x6LTTRh.jpg</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank 2</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/O6TFnSQ.jpg</t>
+  </si>
+  <si>
+    <t>Ratchet Gladiator</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank 3</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/WrcBnk4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/TjCpOTn.jpg</t>
+  </si>
+  <si>
+    <t>Paddington Bear</t>
+  </si>
+  <si>
+    <t>Playboy The Mansion</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/QJdolQW.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/mhKcToo.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/DlE0iQC.jpg</t>
+  </si>
+  <si>
+    <t>Persona 4</t>
+  </si>
+  <si>
+    <t>Stitch Experiment 626</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/SzaFGzj.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/tqHKuBr.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/NYx7xBt.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/mWFmcW2.jpg</t>
+  </si>
+  <si>
+    <t>Crash Bandicoot De Wraak Van Cortex</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/yQTCr9Y.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/889ReNa.jpg</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts 2</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/LpqpYAg.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rc0mTBe.jpg</t>
+  </si>
+  <si>
+    <t>Canis Canem Edit</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/BnDcMCL.jpg</t>
+  </si>
+  <si>
+    <t>Rayman Revolution</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rGkVL6p.jpg</t>
+  </si>
+  <si>
+    <t>Rayman 10th Anniversary</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Zf4LYdl.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/PfBxbgI.jpg</t>
+  </si>
+  <si>
+    <t>Rayman M</t>
+  </si>
+  <si>
+    <t>Rayman 3 Hoodlum Havoc</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/CMAFWQc.jpg</t>
+  </si>
+  <si>
+    <t>Hitman Triple Pack</t>
+  </si>
+  <si>
+    <t>Spyro Een Draak Is Geboren</t>
+  </si>
+  <si>
+    <t>Spyro Enter The Dragonfly</t>
+  </si>
+  <si>
+    <t>Donald Duck Power Duck</t>
+  </si>
+  <si>
+    <t>Includes PS1 Quack Attack</t>
+  </si>
+  <si>
+    <t>The Godfather</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rbtcX7E.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/2EzfcBT.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/UNTJGTT.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/51naxGa.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/M0bpY2W.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/P8VsvG2.jpg</t>
+  </si>
+  <si>
+    <t>Army Men Green Rogue</t>
+  </si>
+  <si>
+    <t>Lego Star Wars 2 The Original Trilogy</t>
+  </si>
+  <si>
+    <t>The Golden Compass</t>
+  </si>
+  <si>
+    <t>Final Fantasy XII</t>
+  </si>
+  <si>
+    <t>Final Fantasy VII Dirge of Cerberus</t>
+  </si>
+  <si>
+    <t>Final Fatasy X</t>
+  </si>
+  <si>
+    <t>With Bonus DVD</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/MidOkEW.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rz0dhr4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/UK4ueBw.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/DPxfgds.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/1zhoHlm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/x38ajYN.jpg</t>
+  </si>
+  <si>
+    <t>Tom &amp; Jerry Strijd Der Snorharen</t>
+  </si>
+  <si>
+    <t>Scaler</t>
+  </si>
+  <si>
+    <t>Tomb Raider Legend</t>
+  </si>
+  <si>
+    <t>Kengo Master Of Bushido</t>
+  </si>
+  <si>
+    <t>Sega Superstars</t>
+  </si>
+  <si>
+    <t>Super Party Met Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>Monsters En Co. Schrik Eiland</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/RP2VKDH.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/B7IcIQj.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/H7zttGM.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/kIxFitf.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/C2tdg7E.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/GgEnOzY.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/VOPhem3.jpg</t>
+  </si>
+  <si>
+    <t>Prototype 2</t>
+  </si>
+  <si>
+    <t>Mirror's Edge</t>
+  </si>
+  <si>
+    <t>White Knight Chronicles</t>
+  </si>
+  <si>
+    <t>Legendary</t>
+  </si>
+  <si>
+    <t>Diablo 3</t>
+  </si>
+  <si>
+    <t>Battlefield 3</t>
+  </si>
+  <si>
+    <t>Medal Of Honor</t>
+  </si>
+  <si>
+    <t>Wolfenstein The New Order</t>
+  </si>
+  <si>
+    <t>Prison Break The Conspiracy</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9kiaMLJ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/jXj6Jkl.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/MmQa1Dc.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/41QuEGS.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/lRxYERz.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/gbh2zLJ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/6HtPse6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/h95xQCj.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/QiUJkEV.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/GR1GPrZ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/pvi8JPV.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/F0obB0R.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/K7YeHof.jpg</t>
   </si>
 </sst>
 </file>
@@ -8600,11 +9317,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1526"/>
+  <dimension ref="A1:N1650"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1499" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1527" sqref="A1527"/>
+      <pane ySplit="1" topLeftCell="A1624" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1651" sqref="A1651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37964,6 +38681,2444 @@
       </c>
       <c r="M1526" t="s">
         <v>2736</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1527" s="2" t="s">
+        <v>2737</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1527" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1527" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1528" s="2" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1528" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1528" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1529" s="2" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1529" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1529" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1530" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1530" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1530" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1531" s="2" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1531" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1531" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1532" s="2" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1532" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1532" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1533" s="2" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1533" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1533" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1534" s="2" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1534" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1534" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1535" s="2" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1535" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1535" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1535" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1535" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1536" s="2" t="s">
+        <v>2754</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1536" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1536" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1536" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1536" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1537" s="2" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1537" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1537" t="s">
+        <v>2756</v>
+      </c>
+      <c r="J1537" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1538" s="2" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1538" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1538" t="s">
+        <v>1868</v>
+      </c>
+      <c r="J1538" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1539" s="2" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1539" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1539" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1539" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1539" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1540" s="2" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1540" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1540" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1541" s="2" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E1541" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1541" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1541" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1541" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1542" s="2" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1542" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1542" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1542" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1542" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1543" s="2" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1543" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1543" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1543" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1543" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1544" s="2" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1544" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1544" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1544" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1544" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1545" s="2" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1545" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1545" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1545" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1545" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1546" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1546" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1546" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1546" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1546" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1547" s="2" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1547" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1547" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1547" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1547" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1548" s="2" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1548" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1548" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1548" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1548" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1549" s="2" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1549" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1549" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1549" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1549" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1550" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1550" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1550" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1550" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1550" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1551" s="2" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1551" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1551" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1551" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1551" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1552" s="2" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>659</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1552" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1552" t="s">
+        <v>2796</v>
+      </c>
+      <c r="K1552" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1553" s="2" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>659</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1553" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1553" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1554" s="2" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>659</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1554" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1554" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1555" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>659</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1555" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1555" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1555" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1556" s="2" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>659</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1556" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1556" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1557" s="2" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>659</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>598</v>
+      </c>
+      <c r="F1557" t="s">
+        <v>924</v>
+      </c>
+      <c r="G1557" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1557" t="s">
+        <v>2798</v>
+      </c>
+      <c r="K1557" t="s">
+        <v>2799</v>
+      </c>
+      <c r="L1557" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1558" s="2" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>659</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1558" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1558" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1558" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1559" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1559" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1559" t="s">
+        <v>603</v>
+      </c>
+      <c r="J1559" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1560" s="2" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1560" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1560" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1561" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1561" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1561" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1561" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1561" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1562" s="2" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1562" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1562" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1563" s="2" t="s">
+        <v>2803</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1563" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1563" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1564" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1564" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1564" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1564" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1564" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1565" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1565" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1565" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1566" s="2" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1566" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1566" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1567" s="2" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1567" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1567" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1567" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1567" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1568" s="2" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1568" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1568" t="s">
+        <v>2816</v>
+      </c>
+      <c r="J1568" t="s">
+        <v>2817</v>
+      </c>
+      <c r="K1568" t="s">
+        <v>2818</v>
+      </c>
+      <c r="L1568" t="s">
+        <v>2819</v>
+      </c>
+      <c r="M1568" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1569" s="2" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1569" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1569" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1570" s="2" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1570" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1570" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1571" s="2" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1571" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1571" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1571" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1571" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1572" s="2" t="s">
+        <v>2823</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1572" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1572" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1573" s="2" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1573" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1573" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1574" s="2" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1574" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1574" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1574" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1574" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1575" s="2" t="s">
+        <v>2832</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1575" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1575" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1576" s="2" t="s">
+        <v>2833</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1576" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1576" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1577" s="2" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1577" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1577" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1578" s="2" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1578" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1578" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1579" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1579" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1579" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1579" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1579" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1580" s="2" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1580" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1580" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1580" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1580" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1581" s="2" t="s">
+        <v>2843</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1581" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1581" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1582" s="2" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1582" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1582" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1583" s="2" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1583" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1583" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1584" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1584" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1584" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1585" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1585" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1585" t="s">
+        <v>1183</v>
+      </c>
+      <c r="J1585" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1586" s="2" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1586" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1586" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1587" s="2" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1587" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1587" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1588" s="2" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>599</v>
+      </c>
+      <c r="E1588" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1588" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1589" s="2" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1589" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1589" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1589" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1589" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1590" s="2" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1590" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1590" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1590" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1590" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1591" s="2" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1591" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1591" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1592" s="2" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1592" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1592" t="s">
+        <v>2530</v>
+      </c>
+      <c r="G1592" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1592" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1592" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1593" s="2" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1593" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1593" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G1593" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1593" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1593" t="s">
+        <v>2867</v>
+      </c>
+      <c r="K1593" t="s">
+        <v>2868</v>
+      </c>
+      <c r="L1593" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1594" s="2" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1594" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1594" t="s">
+        <v>2530</v>
+      </c>
+      <c r="G1594" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1594" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1594" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1595" s="2" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1595" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1595" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1595" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1595" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1596" s="2" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1596" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1596" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1597" s="2" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1597" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1597" t="s">
+        <v>2530</v>
+      </c>
+      <c r="J1597" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1598" s="2" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1598" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1598" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1598" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1598" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1599" s="2" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1599" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1599" t="s">
+        <v>2530</v>
+      </c>
+      <c r="G1599" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1599" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1599" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1600" s="2" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1600" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1600" t="s">
+        <v>2530</v>
+      </c>
+      <c r="J1600" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1601" s="2" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1601" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1601" t="s">
+        <v>2530</v>
+      </c>
+      <c r="J1601" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1602" s="2" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1602" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1602" t="s">
+        <v>2530</v>
+      </c>
+      <c r="J1602" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1603" s="2" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1603" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1603" t="s">
+        <v>2530</v>
+      </c>
+      <c r="G1603" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1603" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1603" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1604" s="2" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1604" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1604" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1605" s="2" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1605" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1605" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1606" s="2" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1606" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1606" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1607" s="2" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1607" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1607" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1608" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1608" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1608" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1608" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1608" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1609" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1609" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1609" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1609" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1609" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1610" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1610" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1610" t="s">
+        <v>2530</v>
+      </c>
+      <c r="J1610" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1611" s="2" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1611" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1611" t="s">
+        <v>2530</v>
+      </c>
+      <c r="J1611" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1612" s="2" t="s">
+        <v>2901</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1612" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1612" t="s">
+        <v>2530</v>
+      </c>
+      <c r="G1612" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1612" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1612" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1613" s="2" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1613" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1613" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1614" s="2" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1614" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1614" t="s">
+        <v>2530</v>
+      </c>
+      <c r="G1614" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1614" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1614" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1615" s="2" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1615" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1615" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1616" s="2" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1616" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1616" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1617" s="2" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1617" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1617" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1618" s="2" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1618" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1618" t="s">
+        <v>2530</v>
+      </c>
+      <c r="J1618" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1619" s="2" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1619" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1619" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1620" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1620" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1620" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1621" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1621" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1621" t="s">
+        <v>2530</v>
+      </c>
+      <c r="J1621" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1622" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1622" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1622" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1623" s="2" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1623" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1623" t="s">
+        <v>2919</v>
+      </c>
+      <c r="J1623" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1624" s="2" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1624" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1624" t="s">
+        <v>603</v>
+      </c>
+      <c r="J1624" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1625" s="2" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1625" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1625" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1626" s="2" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1626" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1626" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1627" s="2" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1627" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1627" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1628" s="2" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1628" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1628" t="s">
+        <v>2530</v>
+      </c>
+      <c r="J1628" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1629" s="2" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1629" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1629" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1630" s="2" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1630" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1630" t="s">
+        <v>2933</v>
+      </c>
+      <c r="J1630" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1631" s="2" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1631" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1631" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1632" s="2" t="s">
+        <v>2941</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>599</v>
+      </c>
+      <c r="E1632" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1632" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1633" s="2" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1633" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1633" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1634" s="2" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1634" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1634" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1635" s="2" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1635" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1635" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1636" s="2" t="s">
+        <v>2945</v>
+      </c>
+      <c r="B1636" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>599</v>
+      </c>
+      <c r="E1636" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1636" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1637" s="2" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1637" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1637" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1638" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1638" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J1638" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1639" s="2" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1639" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1639" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1640" s="2" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1640" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1640" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1641" s="2" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>599</v>
+      </c>
+      <c r="E1641" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1641" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1642" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1642" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1642" t="s">
+        <v>1897</v>
+      </c>
+      <c r="J1642" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1643" s="2" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1643" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1643" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1644" s="2" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1644" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1644" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1645" s="2" t="s">
+        <v>2959</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1645" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1645" t="s">
+        <v>603</v>
+      </c>
+      <c r="J1645" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1646" s="2" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B1646" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1646" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1646" t="s">
+        <v>603</v>
+      </c>
+      <c r="J1646" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1647" s="2" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B1647" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>599</v>
+      </c>
+      <c r="E1647" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1647" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1648" s="2" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B1648" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1648" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1648" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1649" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1649" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1649" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1649" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1649" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1650" s="2" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1650" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1650" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1650" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1650" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1650" t="s">
+        <v>2971</v>
       </c>
     </row>
   </sheetData>

--- a/collection.xlsx
+++ b/collection.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8764" uniqueCount="3046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8894" uniqueCount="3116">
   <si>
     <t>Platform</t>
   </si>
@@ -9156,6 +9156,216 @@
   </si>
   <si>
     <t>https://i.imgur.com/Ic4THvM.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/c6inywC.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/d1nCVT9.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/pN6eeoC.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/CtOxerq.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Y0f2mAV.jpg</t>
+  </si>
+  <si>
+    <t>Super Mario Odyssey Collector's Edition Guide</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/uIg6EnM.jpg</t>
+  </si>
+  <si>
+    <t>Over The Hedge Hammy Draait Door</t>
+  </si>
+  <si>
+    <t>Piratenplaneet</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/dpKg32s.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Upgg8Lv.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/NXYZS8y.jpg</t>
+  </si>
+  <si>
+    <t>Finding Dory Play Set</t>
+  </si>
+  <si>
+    <t>Mad Hatter</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/nG8Y5mE.jpg</t>
+  </si>
+  <si>
+    <t>Gamecube Bongo's</t>
+  </si>
+  <si>
+    <t>Nintendo Switch Pro Controller</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Sn1gk5k.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/fk7bEb1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/zQtShFO.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ECzIKEu.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/04xMgqa.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/CGF6smk.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/XjNMPND.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/19OWHBz.jpg</t>
+  </si>
+  <si>
+    <t>PS One</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/wsU4El4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/JGm6AJC.jpg</t>
+  </si>
+  <si>
+    <t>Supergirl</t>
+  </si>
+  <si>
+    <t>Poly Bag</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/GmAfdVO.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/lYw3h8Y.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/fE9a8zd.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/FRlQugU.jpg</t>
+  </si>
+  <si>
+    <t>Green Arrow</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/QdJKl2B.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/vaWzCA3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/qHsnYPv.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/4V1PbEn.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/tSnoFPL.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/l51Ul9n.jpg</t>
+  </si>
+  <si>
+    <t>Superman Fun Pack</t>
+  </si>
+  <si>
+    <t>Lego City Fun Pack</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/mhS4wlb.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/vsI9RY2.jpg</t>
+  </si>
+  <si>
+    <t>Sensei Wu Fun Pack</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/dqkfvaw.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/oMs9mOO.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/IxqqkSi.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/epYIFhp.jpg</t>
+  </si>
+  <si>
+    <t>Tina Goldstein Fun Pack</t>
+  </si>
+  <si>
+    <t>Hermione Granger Fun Pack</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/LtPBD09.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rYfW6Zc.jpg</t>
+  </si>
+  <si>
+    <t>Starfire Fun Pack</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/jOOrjde.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ru1vXrh.jpg</t>
+  </si>
+  <si>
+    <t>Sonic The Hedgehog Level Pack</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/L7OJ3eE.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/pAMLDmR.jpg</t>
+  </si>
+  <si>
+    <t>Ghosbusters Level Pack</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/dy94T10.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/BQNWFPf.jpg</t>
+  </si>
+  <si>
+    <t>Midway Arcade Level Pack</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/nV46KAu.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/2d0DVtG.jpg</t>
+  </si>
+  <si>
+    <t>Gremlins Level Pack</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/flHgBd6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/AN0XaHH.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/KntB9hT.jpg</t>
   </si>
 </sst>
 </file>
@@ -9527,11 +9737,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1682"/>
+  <dimension ref="A1:N1705"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1654" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1682" sqref="D1682"/>
+      <pane ySplit="1" topLeftCell="A1683" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1706" sqref="A1706"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11333,6 +11543,9 @@
       <c r="E75" t="s">
         <v>45</v>
       </c>
+      <c r="J75" t="s">
+        <v>3048</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
@@ -11350,6 +11563,18 @@
       <c r="E76" t="s">
         <v>45</v>
       </c>
+      <c r="G76" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" t="s">
+        <v>9</v>
+      </c>
+      <c r="J76" t="s">
+        <v>3047</v>
+      </c>
+      <c r="K76" t="s">
+        <v>3050</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
@@ -11367,6 +11592,18 @@
       <c r="E77" t="s">
         <v>45</v>
       </c>
+      <c r="G77" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" t="s">
+        <v>9</v>
+      </c>
+      <c r="J77" t="s">
+        <v>3046</v>
+      </c>
+      <c r="K77" t="s">
+        <v>3049</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
@@ -20363,6 +20600,12 @@
       <c r="E567" t="s">
         <v>45</v>
       </c>
+      <c r="J567" t="s">
+        <v>3066</v>
+      </c>
+      <c r="K567" t="s">
+        <v>3065</v>
+      </c>
     </row>
     <row r="568" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A568" s="6" t="s">
@@ -20510,6 +20753,12 @@
       <c r="F573" t="s">
         <v>604</v>
       </c>
+      <c r="J573" t="s">
+        <v>3067</v>
+      </c>
+      <c r="K573" t="s">
+        <v>3068</v>
+      </c>
     </row>
     <row r="574" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A574" s="6" t="s">
@@ -41802,7 +42051,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="1681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1681" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1681" s="2" t="s">
         <v>3041</v>
       </c>
@@ -41816,7 +42065,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="1682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1682" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1682" s="2" t="s">
         <v>3044</v>
       </c>
@@ -41825,6 +42074,403 @@
       </c>
       <c r="J1682" t="s">
         <v>3045</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1683" s="2" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>491</v>
+      </c>
+      <c r="J1683" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1684" s="2" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1684" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1684" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1684" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1685" s="2" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B1685" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1685" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1685" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1685" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1686" s="2" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B1686" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1686" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1686" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1687" s="2" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1687" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1687" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1688" s="2" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1688" t="s">
+        <v>600</v>
+      </c>
+      <c r="J1688" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1689" s="2" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1689" t="s">
+        <v>598</v>
+      </c>
+      <c r="F1689" t="s">
+        <v>2008</v>
+      </c>
+      <c r="J1689" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1690" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1690" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1690" t="s">
+        <v>3069</v>
+      </c>
+      <c r="K1690" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1691" s="2" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B1691" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1691" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1691" t="s">
+        <v>3072</v>
+      </c>
+      <c r="K1691" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1692" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B1692" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1692" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1692" t="s">
+        <v>3075</v>
+      </c>
+      <c r="J1692" t="s">
+        <v>3076</v>
+      </c>
+      <c r="K1692" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1693" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B1693" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1693" t="s">
+        <v>598</v>
+      </c>
+      <c r="F1693" t="s">
+        <v>3075</v>
+      </c>
+      <c r="J1693" t="s">
+        <v>3078</v>
+      </c>
+      <c r="K1693" t="s">
+        <v>3079</v>
+      </c>
+      <c r="L1693" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1694" s="2" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B1694" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1694" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1694" t="s">
+        <v>3075</v>
+      </c>
+      <c r="J1694" t="s">
+        <v>3081</v>
+      </c>
+      <c r="K1694" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1695" s="2" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B1695" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1695" t="s">
+        <v>598</v>
+      </c>
+      <c r="F1695" t="s">
+        <v>3075</v>
+      </c>
+      <c r="J1695" t="s">
+        <v>3083</v>
+      </c>
+      <c r="K1695" t="s">
+        <v>3084</v>
+      </c>
+      <c r="L1695" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1696" s="2" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B1696" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1696" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1696" t="s">
+        <v>3086</v>
+      </c>
+      <c r="K1696" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1697" s="2" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B1697" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1697" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1697" t="s">
+        <v>3089</v>
+      </c>
+      <c r="K1697" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1698" s="2" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B1698" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1698" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1698" t="s">
+        <v>3092</v>
+      </c>
+      <c r="K1698" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1699" s="2" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B1699" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1699" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1699" t="s">
+        <v>3094</v>
+      </c>
+      <c r="K1699" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1700" s="2" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B1700" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1700" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1700" t="s">
+        <v>3099</v>
+      </c>
+      <c r="K1700" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1701" s="2" t="s">
+        <v>3100</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1701" t="s">
+        <v>3101</v>
+      </c>
+      <c r="K1701" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1702" s="2" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1702" t="s">
+        <v>3105</v>
+      </c>
+      <c r="K1702" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1703" s="2" t="s">
+        <v>3106</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1703" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1703" t="s">
+        <v>3107</v>
+      </c>
+      <c r="K1703" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1704" s="2" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B1704" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1704" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1704" t="s">
+        <v>3110</v>
+      </c>
+      <c r="K1704" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1705" s="2" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1705" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1705" t="s">
+        <v>3114</v>
+      </c>
+      <c r="K1705" t="s">
+        <v>3113</v>
+      </c>
+      <c r="L1705" t="s">
+        <v>3115</v>
       </c>
     </row>
   </sheetData>

--- a/collection.xlsx
+++ b/collection.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8894" uniqueCount="3116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9010" uniqueCount="3167">
   <si>
     <t>Platform</t>
   </si>
@@ -9366,6 +9366,159 @@
   </si>
   <si>
     <t>https://i.imgur.com/KntB9hT.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rTdz6Sr.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0rfxroM.jpg</t>
+  </si>
+  <si>
+    <t>Kirby's Epic Yarn</t>
+  </si>
+  <si>
+    <t>Jakers! Kart Racing</t>
+  </si>
+  <si>
+    <t>Der Bauernhof</t>
+  </si>
+  <si>
+    <t>Excite Truck</t>
+  </si>
+  <si>
+    <t>Big Beach Sports</t>
+  </si>
+  <si>
+    <t>Rango</t>
+  </si>
+  <si>
+    <t>Giocaparola Party</t>
+  </si>
+  <si>
+    <t>Aka Spellbound Party</t>
+  </si>
+  <si>
+    <t>Rabbids Go Home</t>
+  </si>
+  <si>
+    <t>Celebrity Sports Showdown</t>
+  </si>
+  <si>
+    <t>Just Dance 2014</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/afJuGAn.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/WSkeWRs.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Fz9B52a.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/l3RqYcl.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/FktHf7n.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ymTYGcH.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/sl4UPSe.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/MOv9AYF.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/r2He6oq.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ojx3HBI.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ig9qrfy.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/GTIFvsK.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/8Fwa2Y7.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/iYIs3fH.jpg</t>
+  </si>
+  <si>
+    <t>Wii Blue London 2012 Olympic Limited Edition</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/h1Ab9pK.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/7YbJtyY.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/JtgrYrr.jpg</t>
+  </si>
+  <si>
+    <t>Wii Balance Board White</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/wsSsLYN.jpg</t>
+  </si>
+  <si>
+    <t>Dark Souls Remastered</t>
+  </si>
+  <si>
+    <t>Incl. Metal Plate</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/aSeWp12.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xpO1MgF.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/JggFwf7.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/opQ1F1J.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Gj3VsTT.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/a7RrE5h.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/XUOU6GD.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xJd0X6m.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/tsRkPuD.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0YNRJ5W.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/YM6TBiN.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/jsgnNdn.jpg</t>
+  </si>
+  <si>
+    <t>Pink Cover</t>
+  </si>
+  <si>
+    <t>Yellow Cover</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/s4sq5AW.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0VxeHxg.jpg</t>
   </si>
 </sst>
 </file>
@@ -9737,11 +9890,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1705"/>
+  <dimension ref="A1:N1723"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1683" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1706" sqref="A1706"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11282,7 +11435,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>97</v>
       </c>
@@ -11308,7 +11461,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>98</v>
       </c>
@@ -11325,7 +11478,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>99</v>
       </c>
@@ -11351,7 +11504,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>100</v>
       </c>
@@ -11377,7 +11530,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>101</v>
       </c>
@@ -11403,7 +11556,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>102</v>
       </c>
@@ -11432,7 +11585,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>103</v>
       </c>
@@ -11458,7 +11611,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>104</v>
       </c>
@@ -11484,7 +11637,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>105</v>
       </c>
@@ -11510,7 +11663,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>524</v>
       </c>
@@ -11527,7 +11680,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>106</v>
       </c>
@@ -11543,11 +11696,23 @@
       <c r="E75" t="s">
         <v>45</v>
       </c>
+      <c r="G75" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" t="s">
+        <v>7</v>
+      </c>
       <c r="J75" t="s">
         <v>3048</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K75" t="s">
+        <v>3117</v>
+      </c>
+      <c r="L75" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>107</v>
       </c>
@@ -11576,7 +11741,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>108</v>
       </c>
@@ -11605,7 +11770,7 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>109</v>
       </c>
@@ -11621,8 +11786,17 @@
       <c r="E78" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" t="s">
+        <v>9</v>
+      </c>
+      <c r="J78" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>110</v>
       </c>
@@ -11638,8 +11812,17 @@
       <c r="E79" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" t="s">
+        <v>9</v>
+      </c>
+      <c r="J79" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>111</v>
       </c>
@@ -11655,8 +11838,17 @@
       <c r="E80" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>7</v>
+      </c>
+      <c r="H80" t="s">
+        <v>9</v>
+      </c>
+      <c r="J80" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>112</v>
       </c>
@@ -11672,8 +11864,17 @@
       <c r="E81" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>7</v>
+      </c>
+      <c r="H81" t="s">
+        <v>9</v>
+      </c>
+      <c r="J81" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>113</v>
       </c>
@@ -11689,8 +11890,17 @@
       <c r="E82" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>7</v>
+      </c>
+      <c r="H82" t="s">
+        <v>7</v>
+      </c>
+      <c r="J82" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>114</v>
       </c>
@@ -11706,8 +11916,17 @@
       <c r="E83" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" t="s">
+        <v>7</v>
+      </c>
+      <c r="J83" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>115</v>
       </c>
@@ -11723,8 +11942,17 @@
       <c r="E84" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>7</v>
+      </c>
+      <c r="H84" t="s">
+        <v>9</v>
+      </c>
+      <c r="J84" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>116</v>
       </c>
@@ -11740,8 +11968,17 @@
       <c r="E85" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" t="s">
+        <v>7</v>
+      </c>
+      <c r="J85" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>117</v>
       </c>
@@ -11752,13 +11989,22 @@
         <v>598</v>
       </c>
       <c r="D86" s="1">
-        <v>37579</v>
+        <v>37575</v>
       </c>
       <c r="E86" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>7</v>
+      </c>
+      <c r="H86" t="s">
+        <v>9</v>
+      </c>
+      <c r="J86" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>118</v>
       </c>
@@ -11774,8 +12020,14 @@
       <c r="E87" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G87" t="s">
+        <v>7</v>
+      </c>
+      <c r="J87" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>119</v>
       </c>
@@ -11792,7 +12044,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>120</v>
       </c>
@@ -11812,7 +12064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>121</v>
       </c>
@@ -11829,7 +12081,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>122</v>
       </c>
@@ -11846,7 +12098,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>519</v>
       </c>
@@ -11863,7 +12115,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>123</v>
       </c>
@@ -11880,7 +12132,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>124</v>
       </c>
@@ -11897,7 +12149,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>125</v>
       </c>
@@ -11914,7 +12166,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>126</v>
       </c>
@@ -13931,6 +14183,12 @@
       <c r="E210" t="s">
         <v>45</v>
       </c>
+      <c r="F210" t="s">
+        <v>3163</v>
+      </c>
+      <c r="J210" t="s">
+        <v>3162</v>
+      </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
@@ -19285,7 +19543,7 @@
         <v>18</v>
       </c>
       <c r="D503" s="1">
-        <v>37574</v>
+        <v>37575</v>
       </c>
       <c r="E503" t="s">
         <v>45</v>
@@ -42471,6 +42729,291 @@
       </c>
       <c r="L1705" t="s">
         <v>3115</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1706" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B1706" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1706" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1706" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1707" s="2" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1707" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1708" s="2" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1708" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1709" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B1709" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>599</v>
+      </c>
+      <c r="J1709" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1710" s="2" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1710" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1711" s="2" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1711" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1712" s="2" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1712" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1713" s="2" t="s">
+        <v>3122</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1713" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1714" s="2" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1714" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1715" s="2" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1715" t="s">
+        <v>3125</v>
+      </c>
+      <c r="J1715" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1716" s="2" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1716" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1717" s="2" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1717" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1718" s="2" t="s">
+        <v>3128</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1718" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1719" s="2" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1719" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1719" t="s">
+        <v>3142</v>
+      </c>
+      <c r="K1719" t="s">
+        <v>3144</v>
+      </c>
+      <c r="L1719" t="s">
+        <v>3145</v>
+      </c>
+      <c r="M1719" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1720" s="2" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>600</v>
+      </c>
+      <c r="J1720" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1721" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1721" t="s">
+        <v>3150</v>
+      </c>
+      <c r="J1721" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1722" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1722" s="1">
+        <v>37582</v>
+      </c>
+      <c r="E1722" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1722" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1722" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1723" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1723" s="1">
+        <v>37918</v>
+      </c>
+      <c r="E1723" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1723" t="s">
+        <v>3164</v>
+      </c>
+      <c r="J1723" t="s">
+        <v>3165</v>
       </c>
     </row>
   </sheetData>

--- a/collection.xlsx
+++ b/collection.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9010" uniqueCount="3167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9194" uniqueCount="3233">
   <si>
     <t>Platform</t>
   </si>
@@ -6692,9 +6692,6 @@
     <t>https://i.imgur.com/j384aMu.jpg</t>
   </si>
   <si>
-    <t>Go Play Lumberjacks Die Verruckte Holzfäller-Meisterschaft</t>
-  </si>
-  <si>
     <t>https://i.imgur.com/yMQ0mVC.jpg</t>
   </si>
   <si>
@@ -9519,6 +9516,207 @@
   </si>
   <si>
     <t>https://i.imgur.com/0VxeHxg.jpg</t>
+  </si>
+  <si>
+    <t>Go Play Lumberjacks Die Verruckte Holzfaller-Meisterschaft</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/1SI0GYR.jpg</t>
+  </si>
+  <si>
+    <t>Skylanders Trap Team</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xrMfAOp.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/YOoliui.jpg</t>
+  </si>
+  <si>
+    <t>Starter Pack</t>
+  </si>
+  <si>
+    <t>Let's Sing 2018 Hits Francais Et Internationaux</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Jj0vaRg.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/OQrB70H.jpg</t>
+  </si>
+  <si>
+    <t>Happy Neuron Academy</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/HYCrNIA.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/I4kKtOE.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/KRYMzSG.jpg</t>
+  </si>
+  <si>
+    <t>Kirby's Adventure Wii</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/1yrQp67.jpg</t>
+  </si>
+  <si>
+    <t>All Star Cheerleader</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/S0O6X02.jpg</t>
+  </si>
+  <si>
+    <t>Cocoto Magic Circus</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/tVaXczT.jpg</t>
+  </si>
+  <si>
+    <t>Let's Sing 6 Version Espanola</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/VeyJvbG.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/QRDGuFs.jpg</t>
+  </si>
+  <si>
+    <t>Let's Sing 7 Version Espanola</t>
+  </si>
+  <si>
+    <t>La Voz</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/brg09Ei.jpg</t>
+  </si>
+  <si>
+    <t>La Voz 2</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/42uHJix.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/VzFjFma.jpg</t>
+  </si>
+  <si>
+    <t>ACB Total 2010-2011</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/g3tDMkr.jpg</t>
+  </si>
+  <si>
+    <t>Let's Sing Radio Italia</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/vd3UuBL.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/LAhAZ3Y.jpg</t>
+  </si>
+  <si>
+    <t>La Voz 3</t>
+  </si>
+  <si>
+    <t>Let's Sing 2018</t>
+  </si>
+  <si>
+    <t>Bigbox with Mic</t>
+  </si>
+  <si>
+    <t>Q*Bert</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xf5Fq3x.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/LGVlCvE.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/U41flrO.jpg</t>
+  </si>
+  <si>
+    <t>E.T.</t>
+  </si>
+  <si>
+    <t>Donkey Kong</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ijN1gcd.jpg</t>
+  </si>
+  <si>
+    <t>Zelda A Link Between Worlds</t>
+  </si>
+  <si>
+    <t>Charlie Blasts Territory</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/t4JwY4i.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/8MHJ48a.jpg</t>
+  </si>
+  <si>
+    <t>Clay Fighter 63 1/3</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/shso8KI.jpg</t>
+  </si>
+  <si>
+    <t>Steamworld Collection</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/37k3lty.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/acJLhT0.jpg</t>
+  </si>
+  <si>
+    <t>Pokemon Let's Go Pikachu</t>
+  </si>
+  <si>
+    <t>Bigbox with Pokeball Plus</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/DybtYk1.jpg</t>
+  </si>
+  <si>
+    <t>Uncharted 3</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/aGauNCL.jpg</t>
+  </si>
+  <si>
+    <t>Legacy of Kain Soul Reaver</t>
+  </si>
+  <si>
+    <t>Disney Demo Disc</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9987K3T.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/X5dMYfL.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/w2VD8SP.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/uvBDq3h.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9R6hvYl.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ImiQXhl.jpg</t>
+  </si>
+  <si>
+    <t>Naruto: Gekito Ninja Taisen! 2</t>
+  </si>
+  <si>
+    <t>Naruto: Gekito Ninja Taisen! 3</t>
   </si>
 </sst>
 </file>
@@ -9890,11 +10088,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1723"/>
+  <dimension ref="A1:N1755"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J80" sqref="J80"/>
+      <pane ySplit="1" topLeftCell="A1727" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1756" sqref="A1756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11432,7 +11630,7 @@
         <v>9</v>
       </c>
       <c r="J64" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -11458,7 +11656,7 @@
         <v>9</v>
       </c>
       <c r="J65" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -11501,7 +11699,7 @@
         <v>9</v>
       </c>
       <c r="J67" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -11527,7 +11725,7 @@
         <v>9</v>
       </c>
       <c r="J68" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -11553,7 +11751,7 @@
         <v>9</v>
       </c>
       <c r="J69" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -11579,10 +11777,10 @@
         <v>7</v>
       </c>
       <c r="J70" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="K70" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -11608,7 +11806,7 @@
         <v>9</v>
       </c>
       <c r="J71" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -11634,7 +11832,7 @@
         <v>9</v>
       </c>
       <c r="J72" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -11660,7 +11858,7 @@
         <v>9</v>
       </c>
       <c r="J73" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -11703,13 +11901,13 @@
         <v>7</v>
       </c>
       <c r="J75" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="K75" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="L75" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -11735,10 +11933,10 @@
         <v>9</v>
       </c>
       <c r="J76" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="K76" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -11764,10 +11962,10 @@
         <v>9</v>
       </c>
       <c r="J77" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="K77" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -11793,7 +11991,7 @@
         <v>9</v>
       </c>
       <c r="J78" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -11819,7 +12017,7 @@
         <v>9</v>
       </c>
       <c r="J79" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -11845,7 +12043,7 @@
         <v>9</v>
       </c>
       <c r="J80" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -11871,7 +12069,7 @@
         <v>9</v>
       </c>
       <c r="J81" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -11897,7 +12095,7 @@
         <v>7</v>
       </c>
       <c r="J82" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -11923,7 +12121,7 @@
         <v>7</v>
       </c>
       <c r="J83" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -11949,7 +12147,7 @@
         <v>9</v>
       </c>
       <c r="J84" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -11975,7 +12173,7 @@
         <v>7</v>
       </c>
       <c r="J85" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -12001,7 +12199,7 @@
         <v>9</v>
       </c>
       <c r="J86" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -12024,7 +12222,7 @@
         <v>7</v>
       </c>
       <c r="J87" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -14184,10 +14382,10 @@
         <v>45</v>
       </c>
       <c r="F210" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="J210" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -19198,13 +19396,13 @@
         <v>7</v>
       </c>
       <c r="J485" t="s">
+        <v>2724</v>
+      </c>
+      <c r="K485" t="s">
         <v>2725</v>
       </c>
-      <c r="K485" t="s">
+      <c r="L485" t="s">
         <v>2726</v>
-      </c>
-      <c r="L485" t="s">
-        <v>2727</v>
       </c>
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.25">
@@ -19281,7 +19479,7 @@
         <v>7</v>
       </c>
       <c r="J489" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.25">
@@ -19952,7 +20150,7 @@
         <v>45</v>
       </c>
       <c r="J523" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.25">
@@ -20114,7 +20312,7 @@
         <v>45</v>
       </c>
       <c r="J532" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="533" spans="1:13" x14ac:dyDescent="0.25">
@@ -20194,16 +20392,16 @@
         <v>45</v>
       </c>
       <c r="J536" t="s">
+        <v>2722</v>
+      </c>
+      <c r="K536" t="s">
         <v>2723</v>
       </c>
-      <c r="K536" t="s">
-        <v>2724</v>
-      </c>
       <c r="L536" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="M536" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="537" spans="1:13" x14ac:dyDescent="0.25">
@@ -20226,16 +20424,16 @@
         <v>7</v>
       </c>
       <c r="J537" t="s">
+        <v>2713</v>
+      </c>
+      <c r="K537" t="s">
         <v>2714</v>
       </c>
-      <c r="K537" t="s">
+      <c r="L537" t="s">
         <v>2715</v>
       </c>
-      <c r="L537" t="s">
+      <c r="M537" t="s">
         <v>2716</v>
-      </c>
-      <c r="M537" t="s">
-        <v>2717</v>
       </c>
     </row>
     <row r="538" spans="1:13" x14ac:dyDescent="0.25">
@@ -20859,10 +21057,10 @@
         <v>45</v>
       </c>
       <c r="J567" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="K567" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="568" spans="1:13" x14ac:dyDescent="0.25">
@@ -20934,13 +21132,13 @@
         <v>603</v>
       </c>
       <c r="J570" t="s">
+        <v>2598</v>
+      </c>
+      <c r="K570" t="s">
         <v>2599</v>
       </c>
-      <c r="K570" t="s">
+      <c r="L570" t="s">
         <v>2600</v>
-      </c>
-      <c r="L570" t="s">
-        <v>2601</v>
       </c>
     </row>
     <row r="571" spans="1:13" x14ac:dyDescent="0.25">
@@ -20960,7 +21158,7 @@
         <v>45</v>
       </c>
       <c r="J571" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="572" spans="1:13" x14ac:dyDescent="0.25">
@@ -20980,16 +21178,16 @@
         <v>45</v>
       </c>
       <c r="J572" t="s">
+        <v>2718</v>
+      </c>
+      <c r="K572" t="s">
         <v>2719</v>
       </c>
-      <c r="K572" t="s">
+      <c r="L572" t="s">
         <v>2720</v>
       </c>
-      <c r="L572" t="s">
-        <v>2721</v>
-      </c>
       <c r="M572" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="573" spans="1:13" x14ac:dyDescent="0.25">
@@ -21012,10 +21210,10 @@
         <v>604</v>
       </c>
       <c r="J573" t="s">
+        <v>3066</v>
+      </c>
+      <c r="K573" t="s">
         <v>3067</v>
-      </c>
-      <c r="K573" t="s">
-        <v>3068</v>
       </c>
     </row>
     <row r="574" spans="1:13" x14ac:dyDescent="0.25">
@@ -21106,7 +21304,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="6" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="B578" t="s">
         <v>33</v>
@@ -24471,7 +24669,7 @@
         <v>1029</v>
       </c>
       <c r="K732" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="733" spans="1:12" x14ac:dyDescent="0.25">
@@ -35197,7 +35395,7 @@
     </row>
     <row r="1295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1295" s="2" t="s">
-        <v>2224</v>
+        <v>3166</v>
       </c>
       <c r="B1295" t="s">
         <v>22</v>
@@ -35214,7 +35412,7 @@
     </row>
     <row r="1296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1296" s="2" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="B1296" t="s">
         <v>22</v>
@@ -35226,12 +35424,12 @@
         <v>45</v>
       </c>
       <c r="J1296" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1297" s="2" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="B1297" t="s">
         <v>22</v>
@@ -35243,12 +35441,12 @@
         <v>45</v>
       </c>
       <c r="J1297" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1298" s="2" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="B1298" t="s">
         <v>22</v>
@@ -35260,12 +35458,12 @@
         <v>45</v>
       </c>
       <c r="J1298" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1299" s="2" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="B1299" t="s">
         <v>22</v>
@@ -35277,12 +35475,12 @@
         <v>45</v>
       </c>
       <c r="J1299" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1300" s="2" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="B1300" t="s">
         <v>22</v>
@@ -35294,12 +35492,12 @@
         <v>45</v>
       </c>
       <c r="J1300" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="1301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1301" s="2" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B1301" t="s">
         <v>22</v>
@@ -35311,12 +35509,12 @@
         <v>45</v>
       </c>
       <c r="J1301" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1302" s="2" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="B1302" t="s">
         <v>22</v>
@@ -35328,7 +35526,7 @@
         <v>45</v>
       </c>
       <c r="J1302" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="1303" spans="1:10" x14ac:dyDescent="0.25">
@@ -35345,12 +35543,12 @@
         <v>45</v>
       </c>
       <c r="J1303" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="1304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1304" s="2" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="B1304" t="s">
         <v>22</v>
@@ -35362,12 +35560,12 @@
         <v>45</v>
       </c>
       <c r="J1304" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1305" s="2" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="B1305" t="s">
         <v>22</v>
@@ -35379,12 +35577,12 @@
         <v>45</v>
       </c>
       <c r="J1305" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1306" s="2" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="B1306" t="s">
         <v>22</v>
@@ -35396,12 +35594,12 @@
         <v>45</v>
       </c>
       <c r="J1306" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1307" s="2" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="B1307" t="s">
         <v>22</v>
@@ -35413,12 +35611,12 @@
         <v>45</v>
       </c>
       <c r="J1307" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1308" s="2" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="B1308" t="s">
         <v>22</v>
@@ -35430,12 +35628,12 @@
         <v>45</v>
       </c>
       <c r="J1308" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1309" s="2" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="B1309" t="s">
         <v>22</v>
@@ -35447,12 +35645,12 @@
         <v>45</v>
       </c>
       <c r="J1309" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1310" s="2" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="B1310" t="s">
         <v>22</v>
@@ -35464,12 +35662,12 @@
         <v>45</v>
       </c>
       <c r="J1310" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1311" s="2" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="B1311" t="s">
         <v>22</v>
@@ -35481,12 +35679,12 @@
         <v>45</v>
       </c>
       <c r="J1311" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1312" s="2" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="B1312" t="s">
         <v>22</v>
@@ -35498,12 +35696,12 @@
         <v>45</v>
       </c>
       <c r="J1312" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1313" s="2" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B1313" t="s">
         <v>22</v>
@@ -35515,12 +35713,12 @@
         <v>45</v>
       </c>
       <c r="J1313" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1314" s="2" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="B1314" t="s">
         <v>24</v>
@@ -35532,12 +35730,12 @@
         <v>45</v>
       </c>
       <c r="J1314" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="1315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1315" s="2" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="B1315" t="s">
         <v>24</v>
@@ -35549,12 +35747,12 @@
         <v>45</v>
       </c>
       <c r="J1315" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="1316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1316" s="2" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="B1316" t="s">
         <v>24</v>
@@ -35566,12 +35764,12 @@
         <v>45</v>
       </c>
       <c r="J1316" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1317" s="2" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="B1317" t="s">
         <v>25</v>
@@ -35583,12 +35781,12 @@
         <v>45</v>
       </c>
       <c r="J1317" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1318" s="2" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="B1318" t="s">
         <v>25</v>
@@ -35600,7 +35798,7 @@
         <v>45</v>
       </c>
       <c r="J1318" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1319" spans="1:14" x14ac:dyDescent="0.25">
@@ -35617,12 +35815,12 @@
         <v>45</v>
       </c>
       <c r="J1319" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1320" s="2" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="B1320" t="s">
         <v>25</v>
@@ -35634,7 +35832,7 @@
         <v>45</v>
       </c>
       <c r="J1320" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1321" spans="1:14" x14ac:dyDescent="0.25">
@@ -35651,12 +35849,12 @@
         <v>45</v>
       </c>
       <c r="J1321" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="1322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1322" s="2" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="B1322" t="s">
         <v>29</v>
@@ -35668,12 +35866,12 @@
         <v>45</v>
       </c>
       <c r="J1322" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1323" s="2" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="B1323" t="s">
         <v>23</v>
@@ -35685,27 +35883,27 @@
         <v>45</v>
       </c>
       <c r="F1323" t="s">
+        <v>2276</v>
+      </c>
+      <c r="J1323" t="s">
         <v>2277</v>
       </c>
-      <c r="J1323" t="s">
+      <c r="K1323" t="s">
         <v>2278</v>
       </c>
-      <c r="K1323" t="s">
+      <c r="L1323" t="s">
         <v>2279</v>
       </c>
-      <c r="L1323" t="s">
+      <c r="M1323" t="s">
         <v>2280</v>
       </c>
-      <c r="M1323" t="s">
+      <c r="N1323" t="s">
         <v>2281</v>
-      </c>
-      <c r="N1323" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="1324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1324" s="2" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B1324" t="s">
         <v>28</v>
@@ -35717,12 +35915,12 @@
         <v>45</v>
       </c>
       <c r="J1324" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1325" s="2" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="B1325" t="s">
         <v>28</v>
@@ -35734,12 +35932,12 @@
         <v>45</v>
       </c>
       <c r="J1325" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1326" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="B1326" t="s">
         <v>28</v>
@@ -35751,12 +35949,12 @@
         <v>45</v>
       </c>
       <c r="J1326" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1327" s="2" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="B1327" t="s">
         <v>28</v>
@@ -35768,12 +35966,12 @@
         <v>45</v>
       </c>
       <c r="J1327" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1328" s="2" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="B1328" t="s">
         <v>28</v>
@@ -35785,12 +35983,12 @@
         <v>45</v>
       </c>
       <c r="J1328" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="1329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1329" s="2" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="B1329" t="s">
         <v>28</v>
@@ -35802,12 +36000,12 @@
         <v>45</v>
       </c>
       <c r="J1329" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1330" s="2" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="B1330" t="s">
         <v>28</v>
@@ -35822,18 +36020,18 @@
         <v>2093</v>
       </c>
       <c r="J1330" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="K1330" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="L1330" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="1331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1331" s="2" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="B1331" t="s">
         <v>28</v>
@@ -35848,15 +36046,15 @@
         <v>2093</v>
       </c>
       <c r="J1331" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="K1331" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="1332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1332" s="2" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="B1332" t="s">
         <v>28</v>
@@ -35871,15 +36069,15 @@
         <v>2093</v>
       </c>
       <c r="J1332" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="K1332" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1333" s="2" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="B1333" t="s">
         <v>28</v>
@@ -35891,12 +36089,12 @@
         <v>45</v>
       </c>
       <c r="J1333" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1334" s="2" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="B1334" t="s">
         <v>28</v>
@@ -35908,12 +36106,12 @@
         <v>45</v>
       </c>
       <c r="J1334" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1335" s="2" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="B1335" t="s">
         <v>26</v>
@@ -35925,12 +36123,12 @@
         <v>45</v>
       </c>
       <c r="J1335" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1336" s="2" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="B1336" t="s">
         <v>26</v>
@@ -35942,12 +36140,12 @@
         <v>45</v>
       </c>
       <c r="J1336" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1337" s="2" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="B1337" t="s">
         <v>26</v>
@@ -35959,12 +36157,12 @@
         <v>45</v>
       </c>
       <c r="J1337" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="1338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1338" s="2" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="B1338" t="s">
         <v>26</v>
@@ -35976,12 +36174,12 @@
         <v>45</v>
       </c>
       <c r="J1338" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1339" s="2" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="B1339" t="s">
         <v>26</v>
@@ -35993,12 +36191,12 @@
         <v>45</v>
       </c>
       <c r="J1339" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1340" s="2" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="B1340" t="s">
         <v>26</v>
@@ -36010,12 +36208,12 @@
         <v>45</v>
       </c>
       <c r="J1340" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1341" s="2" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="B1341" t="s">
         <v>26</v>
@@ -36027,12 +36225,12 @@
         <v>45</v>
       </c>
       <c r="J1341" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1342" s="2" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="B1342" t="s">
         <v>26</v>
@@ -36044,12 +36242,12 @@
         <v>45</v>
       </c>
       <c r="J1342" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1343" s="2" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="B1343" t="s">
         <v>26</v>
@@ -36061,12 +36259,12 @@
         <v>45</v>
       </c>
       <c r="J1343" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1344" s="2" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="B1344" t="s">
         <v>26</v>
@@ -36078,12 +36276,12 @@
         <v>45</v>
       </c>
       <c r="J1344" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1345" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="B1345" t="s">
         <v>26</v>
@@ -36095,12 +36293,12 @@
         <v>45</v>
       </c>
       <c r="J1345" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1346" s="2" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="B1346" t="s">
         <v>26</v>
@@ -36112,12 +36310,12 @@
         <v>45</v>
       </c>
       <c r="J1346" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1347" s="2" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="B1347" t="s">
         <v>491</v>
@@ -36129,12 +36327,12 @@
         <v>43238</v>
       </c>
       <c r="J1347" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1348" s="2" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B1348" t="s">
         <v>26</v>
@@ -36146,12 +36344,12 @@
         <v>45</v>
       </c>
       <c r="J1348" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1349" s="2" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B1349" t="s">
         <v>26</v>
@@ -36163,12 +36361,12 @@
         <v>45</v>
       </c>
       <c r="J1349" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1350" s="2" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B1350" t="s">
         <v>26</v>
@@ -36180,12 +36378,12 @@
         <v>45</v>
       </c>
       <c r="J1350" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1351" s="2" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B1351" t="s">
         <v>26</v>
@@ -36197,12 +36395,12 @@
         <v>45</v>
       </c>
       <c r="J1351" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1352" s="2" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="B1352" t="s">
         <v>13</v>
@@ -36217,15 +36415,15 @@
         <v>45</v>
       </c>
       <c r="F1352" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="J1352" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1353" s="2" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B1353" t="s">
         <v>38</v>
@@ -36237,12 +36435,12 @@
         <v>1307</v>
       </c>
       <c r="J1353" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1354" s="2" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B1354" t="s">
         <v>1305</v>
@@ -36254,12 +36452,12 @@
         <v>45</v>
       </c>
       <c r="J1354" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1355" s="2" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="B1355" t="s">
         <v>1305</v>
@@ -36271,12 +36469,12 @@
         <v>45</v>
       </c>
       <c r="J1355" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1356" s="2" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="B1356" t="s">
         <v>1305</v>
@@ -36288,12 +36486,12 @@
         <v>45</v>
       </c>
       <c r="J1356" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1357" s="2" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B1357" t="s">
         <v>34</v>
@@ -36305,12 +36503,12 @@
         <v>45</v>
       </c>
       <c r="J1357" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1358" s="2" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="B1358" t="s">
         <v>34</v>
@@ -36322,12 +36520,12 @@
         <v>45</v>
       </c>
       <c r="J1358" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1359" s="2" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="B1359" t="s">
         <v>33</v>
@@ -36339,12 +36537,12 @@
         <v>45</v>
       </c>
       <c r="J1359" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1360" s="2" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B1360" t="s">
         <v>33</v>
@@ -36356,12 +36554,12 @@
         <v>45</v>
       </c>
       <c r="J1360" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1361" s="2" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="B1361" t="s">
         <v>33</v>
@@ -36373,12 +36571,12 @@
         <v>45</v>
       </c>
       <c r="J1361" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1362" s="2" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="B1362" t="s">
         <v>28</v>
@@ -36390,12 +36588,12 @@
         <v>45</v>
       </c>
       <c r="J1362" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1363" s="2" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B1363" t="s">
         <v>28</v>
@@ -36407,12 +36605,12 @@
         <v>45</v>
       </c>
       <c r="J1363" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1364" s="2" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B1364" t="s">
         <v>28</v>
@@ -36424,12 +36622,12 @@
         <v>45</v>
       </c>
       <c r="J1364" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1365" s="2" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B1365" t="s">
         <v>29</v>
@@ -36441,12 +36639,12 @@
         <v>45</v>
       </c>
       <c r="J1365" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1366" s="2" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B1366" t="s">
         <v>29</v>
@@ -36461,12 +36659,12 @@
         <v>656</v>
       </c>
       <c r="J1366" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1367" s="2" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B1367" t="s">
         <v>22</v>
@@ -36478,12 +36676,12 @@
         <v>45</v>
       </c>
       <c r="J1367" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="1368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1368" s="2" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B1368" t="s">
         <v>22</v>
@@ -36495,12 +36693,12 @@
         <v>45</v>
       </c>
       <c r="J1368" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="1369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1369" s="2" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B1369" t="s">
         <v>22</v>
@@ -36512,18 +36710,18 @@
         <v>45</v>
       </c>
       <c r="F1369" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="J1369" t="s">
+        <v>2393</v>
+      </c>
+      <c r="K1369" t="s">
         <v>2394</v>
-      </c>
-      <c r="K1369" t="s">
-        <v>2395</v>
       </c>
     </row>
     <row r="1370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1370" s="2" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="B1370" t="s">
         <v>22</v>
@@ -36535,12 +36733,12 @@
         <v>45</v>
       </c>
       <c r="J1370" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="1371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1371" s="2" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="B1371" t="s">
         <v>22</v>
@@ -36552,12 +36750,12 @@
         <v>45</v>
       </c>
       <c r="J1371" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="1372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1372" s="2" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B1372" t="s">
         <v>22</v>
@@ -36569,15 +36767,15 @@
         <v>45</v>
       </c>
       <c r="F1372" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="J1372" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="1373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1373" s="2" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="B1373" t="s">
         <v>22</v>
@@ -36589,12 +36787,12 @@
         <v>45</v>
       </c>
       <c r="J1373" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="1374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1374" s="2" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="B1374" t="s">
         <v>22</v>
@@ -36606,12 +36804,12 @@
         <v>45</v>
       </c>
       <c r="J1374" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="1375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1375" s="2" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="B1375" t="s">
         <v>22</v>
@@ -36623,12 +36821,12 @@
         <v>45</v>
       </c>
       <c r="J1375" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1376" s="2" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="B1376" t="s">
         <v>22</v>
@@ -36640,12 +36838,12 @@
         <v>45</v>
       </c>
       <c r="J1376" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="1377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1377" s="2" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="B1377" t="s">
         <v>22</v>
@@ -36657,12 +36855,12 @@
         <v>45</v>
       </c>
       <c r="J1377" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="1378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1378" s="2" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="B1378" t="s">
         <v>22</v>
@@ -36674,7 +36872,7 @@
         <v>45</v>
       </c>
       <c r="J1378" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="1379" spans="1:10" x14ac:dyDescent="0.25">
@@ -36691,12 +36889,12 @@
         <v>45</v>
       </c>
       <c r="J1379" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="1380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1380" s="2" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="B1380" t="s">
         <v>22</v>
@@ -36708,12 +36906,12 @@
         <v>45</v>
       </c>
       <c r="J1380" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="1381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1381" s="2" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B1381" t="s">
         <v>22</v>
@@ -36725,12 +36923,12 @@
         <v>45</v>
       </c>
       <c r="J1381" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="1382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1382" s="2" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B1382" t="s">
         <v>22</v>
@@ -36742,12 +36940,12 @@
         <v>45</v>
       </c>
       <c r="J1382" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="1383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1383" s="2" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="B1383" t="s">
         <v>22</v>
@@ -36759,12 +36957,12 @@
         <v>45</v>
       </c>
       <c r="J1383" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="1384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1384" s="2" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="B1384" t="s">
         <v>22</v>
@@ -36776,12 +36974,12 @@
         <v>45</v>
       </c>
       <c r="J1384" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="1385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1385" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="B1385" t="s">
         <v>22</v>
@@ -36793,12 +36991,12 @@
         <v>45</v>
       </c>
       <c r="J1385" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="1386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1386" s="2" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="B1386" t="s">
         <v>22</v>
@@ -36810,12 +37008,12 @@
         <v>45</v>
       </c>
       <c r="J1386" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="1387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1387" s="2" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="B1387" t="s">
         <v>22</v>
@@ -36827,12 +37025,12 @@
         <v>45</v>
       </c>
       <c r="J1387" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="1388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1388" s="2" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="B1388" t="s">
         <v>22</v>
@@ -36844,12 +37042,12 @@
         <v>45</v>
       </c>
       <c r="J1388" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="1389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1389" s="2" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="B1389" t="s">
         <v>22</v>
@@ -36861,12 +37059,12 @@
         <v>45</v>
       </c>
       <c r="J1389" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1390" s="2" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="B1390" t="s">
         <v>22</v>
@@ -36878,12 +37076,12 @@
         <v>45</v>
       </c>
       <c r="J1390" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="1391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1391" s="2" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="B1391" t="s">
         <v>22</v>
@@ -36895,12 +37093,12 @@
         <v>45</v>
       </c>
       <c r="J1391" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="1392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1392" s="2" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="B1392" t="s">
         <v>22</v>
@@ -36912,12 +37110,12 @@
         <v>45</v>
       </c>
       <c r="J1392" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="1393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1393" s="2" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="B1393" t="s">
         <v>22</v>
@@ -36929,12 +37127,12 @@
         <v>45</v>
       </c>
       <c r="J1393" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1394" s="2" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="B1394" t="s">
         <v>22</v>
@@ -36946,12 +37144,12 @@
         <v>45</v>
       </c>
       <c r="J1394" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1395" s="2" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="B1395" t="s">
         <v>22</v>
@@ -36963,12 +37161,12 @@
         <v>45</v>
       </c>
       <c r="J1395" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="1396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1396" s="2" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="B1396" t="s">
         <v>22</v>
@@ -36980,12 +37178,12 @@
         <v>45</v>
       </c>
       <c r="J1396" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="1397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1397" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="B1397" t="s">
         <v>22</v>
@@ -36997,12 +37195,12 @@
         <v>45</v>
       </c>
       <c r="J1397" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="1398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1398" s="2" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="B1398" t="s">
         <v>22</v>
@@ -37014,12 +37212,12 @@
         <v>45</v>
       </c>
       <c r="J1398" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1399" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="B1399" t="s">
         <v>22</v>
@@ -37031,12 +37229,12 @@
         <v>45</v>
       </c>
       <c r="J1399" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="1400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1400" s="2" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="B1400" t="s">
         <v>22</v>
@@ -37048,12 +37246,12 @@
         <v>45</v>
       </c>
       <c r="J1400" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="1401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1401" s="2" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="B1401" t="s">
         <v>22</v>
@@ -37065,12 +37263,12 @@
         <v>45</v>
       </c>
       <c r="J1401" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="1402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1402" s="2" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="B1402" t="s">
         <v>22</v>
@@ -37082,12 +37280,12 @@
         <v>45</v>
       </c>
       <c r="J1402" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="1403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1403" s="2" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="B1403" t="s">
         <v>22</v>
@@ -37099,12 +37297,12 @@
         <v>45</v>
       </c>
       <c r="J1403" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="1404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1404" s="2" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="B1404" t="s">
         <v>22</v>
@@ -37116,12 +37314,12 @@
         <v>45</v>
       </c>
       <c r="J1404" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="1405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1405" s="2" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B1405" t="s">
         <v>22</v>
@@ -37133,12 +37331,12 @@
         <v>45</v>
       </c>
       <c r="J1405" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="1406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1406" s="2" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="B1406" t="s">
         <v>22</v>
@@ -37150,12 +37348,12 @@
         <v>45</v>
       </c>
       <c r="J1406" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="1407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1407" s="2" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B1407" t="s">
         <v>22</v>
@@ -37167,12 +37365,12 @@
         <v>45</v>
       </c>
       <c r="J1407" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1408" s="2" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="B1408" t="s">
         <v>22</v>
@@ -37184,12 +37382,12 @@
         <v>45</v>
       </c>
       <c r="J1408" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1409" s="2" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="B1409" t="s">
         <v>22</v>
@@ -37201,12 +37399,12 @@
         <v>45</v>
       </c>
       <c r="J1409" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="1410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1410" s="2" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="B1410" t="s">
         <v>22</v>
@@ -37218,7 +37416,7 @@
         <v>45</v>
       </c>
       <c r="J1410" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="1411" spans="1:10" x14ac:dyDescent="0.25">
@@ -37238,12 +37436,12 @@
         <v>2131</v>
       </c>
       <c r="J1411" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1412" s="2" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="B1412" t="s">
         <v>22</v>
@@ -37255,12 +37453,12 @@
         <v>45</v>
       </c>
       <c r="J1412" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="1413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1413" s="2" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="B1413" t="s">
         <v>22</v>
@@ -37272,12 +37470,12 @@
         <v>45</v>
       </c>
       <c r="J1413" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="1414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1414" s="2" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="B1414" t="s">
         <v>22</v>
@@ -37289,12 +37487,12 @@
         <v>45</v>
       </c>
       <c r="J1414" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="1415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1415" s="2" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="B1415" t="s">
         <v>22</v>
@@ -37306,12 +37504,12 @@
         <v>45</v>
       </c>
       <c r="J1415" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="1416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1416" s="2" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="B1416" t="s">
         <v>22</v>
@@ -37323,12 +37521,12 @@
         <v>45</v>
       </c>
       <c r="J1416" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="1417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1417" s="2" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="B1417" t="s">
         <v>22</v>
@@ -37340,12 +37538,12 @@
         <v>45</v>
       </c>
       <c r="J1417" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="1418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1418" s="2" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="B1418" t="s">
         <v>22</v>
@@ -37357,12 +37555,12 @@
         <v>45</v>
       </c>
       <c r="J1418" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1419" s="2" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="B1419" t="s">
         <v>22</v>
@@ -37374,12 +37572,12 @@
         <v>45</v>
       </c>
       <c r="J1419" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1420" s="2" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B1420" t="s">
         <v>22</v>
@@ -37391,12 +37589,12 @@
         <v>45</v>
       </c>
       <c r="J1420" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1421" s="2" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="B1421" t="s">
         <v>22</v>
@@ -37408,12 +37606,12 @@
         <v>45</v>
       </c>
       <c r="J1421" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1422" s="2" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="B1422" t="s">
         <v>22</v>
@@ -37425,12 +37623,12 @@
         <v>45</v>
       </c>
       <c r="J1422" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1423" s="2" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="B1423" t="s">
         <v>22</v>
@@ -37442,12 +37640,12 @@
         <v>45</v>
       </c>
       <c r="J1423" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="1424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1424" s="2" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="B1424" t="s">
         <v>22</v>
@@ -37459,12 +37657,12 @@
         <v>45</v>
       </c>
       <c r="J1424" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="1425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1425" s="2" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="B1425" t="s">
         <v>22</v>
@@ -37476,12 +37674,12 @@
         <v>45</v>
       </c>
       <c r="J1425" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1426" s="2" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="B1426" t="s">
         <v>25</v>
@@ -37493,12 +37691,12 @@
         <v>45</v>
       </c>
       <c r="J1426" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="1427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1427" s="2" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="B1427" t="s">
         <v>25</v>
@@ -37510,12 +37708,12 @@
         <v>45</v>
       </c>
       <c r="J1427" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="1428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1428" s="2" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="B1428" t="s">
         <v>25</v>
@@ -37527,12 +37725,12 @@
         <v>45</v>
       </c>
       <c r="J1428" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="1429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1429" s="2" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="B1429" t="s">
         <v>25</v>
@@ -37544,12 +37742,12 @@
         <v>45</v>
       </c>
       <c r="J1429" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="1430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1430" s="2" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="B1430" t="s">
         <v>25</v>
@@ -37561,12 +37759,12 @@
         <v>45</v>
       </c>
       <c r="J1430" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="1431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1431" s="2" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B1431" t="s">
         <v>25</v>
@@ -37578,12 +37776,12 @@
         <v>45</v>
       </c>
       <c r="J1431" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="1432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1432" s="2" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B1432" t="s">
         <v>25</v>
@@ -37595,12 +37793,12 @@
         <v>45</v>
       </c>
       <c r="J1432" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="1433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1433" s="2" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="B1433" t="s">
         <v>25</v>
@@ -37612,12 +37810,12 @@
         <v>45</v>
       </c>
       <c r="J1433" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="1434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1434" s="2" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="B1434" t="s">
         <v>25</v>
@@ -37629,12 +37827,12 @@
         <v>45</v>
       </c>
       <c r="J1434" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="1435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1435" s="2" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B1435" t="s">
         <v>25</v>
@@ -37646,12 +37844,12 @@
         <v>45</v>
       </c>
       <c r="J1435" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="1436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1436" s="2" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B1436" t="s">
         <v>25</v>
@@ -37663,12 +37861,12 @@
         <v>45</v>
       </c>
       <c r="J1436" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="1437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1437" s="2" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="B1437" t="s">
         <v>25</v>
@@ -37680,12 +37878,12 @@
         <v>45</v>
       </c>
       <c r="J1437" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="1438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1438" s="2" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="B1438" t="s">
         <v>25</v>
@@ -37697,7 +37895,7 @@
         <v>45</v>
       </c>
       <c r="J1438" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="1439" spans="1:10" x14ac:dyDescent="0.25">
@@ -37714,15 +37912,15 @@
         <v>45</v>
       </c>
       <c r="F1439" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="J1439" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="1440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1440" s="2" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="B1440" t="s">
         <v>25</v>
@@ -37734,12 +37932,12 @@
         <v>45</v>
       </c>
       <c r="J1440" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="1441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1441" s="2" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="B1441" t="s">
         <v>25</v>
@@ -37751,12 +37949,12 @@
         <v>45</v>
       </c>
       <c r="J1441" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1442" s="2" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="B1442" t="s">
         <v>25</v>
@@ -37768,12 +37966,12 @@
         <v>45</v>
       </c>
       <c r="J1442" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="1443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1443" s="2" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="B1443" t="s">
         <v>25</v>
@@ -37785,12 +37983,12 @@
         <v>45</v>
       </c>
       <c r="J1443" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1444" s="2" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="B1444" t="s">
         <v>25</v>
@@ -37802,12 +38000,12 @@
         <v>45</v>
       </c>
       <c r="J1444" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="1445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1445" s="2" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="B1445" t="s">
         <v>25</v>
@@ -37819,12 +38017,12 @@
         <v>45</v>
       </c>
       <c r="J1445" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="1446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1446" s="2" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="B1446" t="s">
         <v>25</v>
@@ -37839,12 +38037,12 @@
         <v>1614</v>
       </c>
       <c r="J1446" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="1447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1447" s="2" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="B1447" t="s">
         <v>25</v>
@@ -37856,15 +38054,15 @@
         <v>45</v>
       </c>
       <c r="F1447" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="J1447" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="1448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1448" s="2" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="B1448" t="s">
         <v>25</v>
@@ -37876,15 +38074,15 @@
         <v>45</v>
       </c>
       <c r="F1448" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="J1448" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="1449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1449" s="2" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="B1449" t="s">
         <v>25</v>
@@ -37899,12 +38097,12 @@
         <v>656</v>
       </c>
       <c r="J1449" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="1450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1450" s="2" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="B1450" t="s">
         <v>25</v>
@@ -37916,12 +38114,12 @@
         <v>45</v>
       </c>
       <c r="J1450" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="1451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1451" s="2" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="B1451" t="s">
         <v>34</v>
@@ -37933,12 +38131,12 @@
         <v>45</v>
       </c>
       <c r="J1451" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="1452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1452" s="2" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="B1452" t="s">
         <v>34</v>
@@ -37950,12 +38148,12 @@
         <v>45</v>
       </c>
       <c r="J1452" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="1453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1453" s="2" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="B1453" t="s">
         <v>34</v>
@@ -37967,12 +38165,12 @@
         <v>45</v>
       </c>
       <c r="J1453" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="1454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1454" s="2" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="B1454" t="s">
         <v>13</v>
@@ -37984,15 +38182,15 @@
         <v>45</v>
       </c>
       <c r="J1454" t="s">
+        <v>2557</v>
+      </c>
+      <c r="K1454" t="s">
         <v>2558</v>
-      </c>
-      <c r="K1454" t="s">
-        <v>2559</v>
       </c>
     </row>
     <row r="1455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1455" s="8" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="B1455" t="s">
         <v>36</v>
@@ -38001,10 +38199,10 @@
         <v>600</v>
       </c>
       <c r="J1455" t="s">
+        <v>2560</v>
+      </c>
+      <c r="K1455" t="s">
         <v>2561</v>
-      </c>
-      <c r="K1455" t="s">
-        <v>2562</v>
       </c>
     </row>
     <row r="1456" spans="1:11" x14ac:dyDescent="0.25">
@@ -38021,15 +38219,15 @@
         <v>36854</v>
       </c>
       <c r="F1456" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="J1456" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="1457" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1457" s="2" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="B1457" t="s">
         <v>33</v>
@@ -38041,12 +38239,12 @@
         <v>45</v>
       </c>
       <c r="J1457" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="1458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1458" s="2" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="B1458" t="s">
         <v>1305</v>
@@ -38058,12 +38256,12 @@
         <v>45</v>
       </c>
       <c r="J1458" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="1459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1459" s="2" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="B1459" t="s">
         <v>1305</v>
@@ -38075,12 +38273,12 @@
         <v>45</v>
       </c>
       <c r="J1459" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="1460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1460" s="2" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B1460" t="s">
         <v>1305</v>
@@ -38092,12 +38290,12 @@
         <v>45</v>
       </c>
       <c r="J1460" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="1461" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1461" s="2" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="B1461" t="s">
         <v>39</v>
@@ -38109,7 +38307,7 @@
         <v>45</v>
       </c>
       <c r="J1461" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="1462" spans="1:14" x14ac:dyDescent="0.25">
@@ -38129,7 +38327,7 @@
         <v>45</v>
       </c>
       <c r="F1462" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="G1462" t="s">
         <v>7</v>
@@ -38138,19 +38336,19 @@
         <v>9</v>
       </c>
       <c r="J1462" t="s">
+        <v>2578</v>
+      </c>
+      <c r="K1462" t="s">
         <v>2579</v>
       </c>
-      <c r="K1462" t="s">
+      <c r="L1462" t="s">
         <v>2580</v>
       </c>
-      <c r="L1462" t="s">
+      <c r="M1462" t="s">
         <v>2581</v>
       </c>
-      <c r="M1462" t="s">
+      <c r="N1462" t="s">
         <v>2582</v>
-      </c>
-      <c r="N1462" t="s">
-        <v>2583</v>
       </c>
     </row>
     <row r="1463" spans="1:14" x14ac:dyDescent="0.25">
@@ -38170,19 +38368,19 @@
         <v>45</v>
       </c>
       <c r="F1463" t="s">
+        <v>2573</v>
+      </c>
+      <c r="J1463" t="s">
         <v>2574</v>
       </c>
-      <c r="J1463" t="s">
+      <c r="K1463" t="s">
         <v>2575</v>
       </c>
-      <c r="K1463" t="s">
+      <c r="L1463" t="s">
         <v>2576</v>
       </c>
-      <c r="L1463" t="s">
+      <c r="M1463" t="s">
         <v>2577</v>
-      </c>
-      <c r="M1463" t="s">
-        <v>2578</v>
       </c>
     </row>
     <row r="1464" spans="1:14" x14ac:dyDescent="0.25">
@@ -38205,13 +38403,13 @@
         <v>656</v>
       </c>
       <c r="J1464" t="s">
+        <v>2583</v>
+      </c>
+      <c r="K1464" t="s">
         <v>2584</v>
       </c>
-      <c r="K1464" t="s">
+      <c r="L1464" t="s">
         <v>2585</v>
-      </c>
-      <c r="L1464" t="s">
-        <v>2586</v>
       </c>
     </row>
     <row r="1465" spans="1:14" x14ac:dyDescent="0.25">
@@ -38240,7 +38438,7 @@
         <v>9</v>
       </c>
       <c r="J1465" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="1466" spans="1:14" x14ac:dyDescent="0.25">
@@ -38269,7 +38467,7 @@
         <v>9</v>
       </c>
       <c r="J1466" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="1467" spans="1:14" x14ac:dyDescent="0.25">
@@ -38298,12 +38496,12 @@
         <v>9</v>
       </c>
       <c r="J1467" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="1468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1468" s="2" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="B1468" t="s">
         <v>25</v>
@@ -38315,12 +38513,12 @@
         <v>45</v>
       </c>
       <c r="J1468" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="1469" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1469" s="2" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="B1469" t="s">
         <v>25</v>
@@ -38332,12 +38530,12 @@
         <v>45</v>
       </c>
       <c r="J1469" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="1470" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1470" s="2" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="B1470" t="s">
         <v>20</v>
@@ -38349,12 +38547,12 @@
         <v>45</v>
       </c>
       <c r="J1470" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="1471" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1471" s="2" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="B1471" t="s">
         <v>23</v>
@@ -38366,15 +38564,15 @@
         <v>45</v>
       </c>
       <c r="F1471" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="J1471" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="1472" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1472" s="2" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="B1472" t="s">
         <v>23</v>
@@ -38386,12 +38584,12 @@
         <v>45</v>
       </c>
       <c r="J1472" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="1473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1473" s="2" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="B1473" t="s">
         <v>28</v>
@@ -38403,12 +38601,12 @@
         <v>45</v>
       </c>
       <c r="J1473" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="1474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1474" s="2" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="B1474" t="s">
         <v>28</v>
@@ -38420,12 +38618,12 @@
         <v>45</v>
       </c>
       <c r="J1474" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="1475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1475" s="2" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="B1475" t="s">
         <v>28</v>
@@ -38437,12 +38635,12 @@
         <v>45</v>
       </c>
       <c r="J1475" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="1476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1476" s="2" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="B1476" t="s">
         <v>29</v>
@@ -38463,15 +38661,15 @@
         <v>9</v>
       </c>
       <c r="J1476" t="s">
+        <v>2616</v>
+      </c>
+      <c r="K1476" t="s">
         <v>2617</v>
-      </c>
-      <c r="K1476" t="s">
-        <v>2618</v>
       </c>
     </row>
     <row r="1477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1477" s="2" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="B1477" t="s">
         <v>29</v>
@@ -38489,12 +38687,12 @@
         <v>7</v>
       </c>
       <c r="J1477" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="1478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1478" s="2" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="B1478" t="s">
         <v>29</v>
@@ -38512,7 +38710,7 @@
         <v>7</v>
       </c>
       <c r="J1478" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="1479" spans="1:12" x14ac:dyDescent="0.25">
@@ -38535,7 +38733,7 @@
         <v>9</v>
       </c>
       <c r="J1479" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="1480" spans="1:12" x14ac:dyDescent="0.25">
@@ -38552,7 +38750,7 @@
         <v>45</v>
       </c>
       <c r="F1480" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="G1480" t="s">
         <v>7</v>
@@ -38561,18 +38759,18 @@
         <v>7</v>
       </c>
       <c r="J1480" t="s">
+        <v>2621</v>
+      </c>
+      <c r="K1480" t="s">
         <v>2622</v>
       </c>
-      <c r="K1480" t="s">
+      <c r="L1480" t="s">
         <v>2623</v>
-      </c>
-      <c r="L1480" t="s">
-        <v>2624</v>
       </c>
     </row>
     <row r="1481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1481" s="2" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="B1481" t="s">
         <v>26</v>
@@ -38584,12 +38782,12 @@
         <v>45</v>
       </c>
       <c r="J1481" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="1482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1482" s="2" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="B1482" t="s">
         <v>26</v>
@@ -38604,12 +38802,12 @@
         <v>7</v>
       </c>
       <c r="J1482" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="1483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1483" s="2" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B1483" t="s">
         <v>26</v>
@@ -38621,12 +38819,12 @@
         <v>45</v>
       </c>
       <c r="J1483" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="1484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1484" s="2" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B1484" t="s">
         <v>26</v>
@@ -38638,7 +38836,7 @@
         <v>45</v>
       </c>
       <c r="J1484" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="1485" spans="1:12" x14ac:dyDescent="0.25">
@@ -38667,18 +38865,18 @@
         <v>7</v>
       </c>
       <c r="J1485" t="s">
+        <v>2632</v>
+      </c>
+      <c r="K1485" t="s">
         <v>2633</v>
       </c>
-      <c r="K1485" t="s">
+      <c r="L1485" t="s">
         <v>2634</v>
-      </c>
-      <c r="L1485" t="s">
-        <v>2635</v>
       </c>
     </row>
     <row r="1486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1486" s="2" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="B1486" t="s">
         <v>22</v>
@@ -38690,12 +38888,12 @@
         <v>45</v>
       </c>
       <c r="J1486" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="1487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1487" s="2" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="B1487" t="s">
         <v>22</v>
@@ -38707,12 +38905,12 @@
         <v>45</v>
       </c>
       <c r="J1487" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="1488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1488" s="2" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B1488" t="s">
         <v>22</v>
@@ -38724,12 +38922,12 @@
         <v>45</v>
       </c>
       <c r="J1488" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1489" s="2" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="B1489" t="s">
         <v>22</v>
@@ -38741,12 +38939,12 @@
         <v>45</v>
       </c>
       <c r="J1489" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="1490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1490" s="2" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="B1490" t="s">
         <v>22</v>
@@ -38758,12 +38956,12 @@
         <v>45</v>
       </c>
       <c r="J1490" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="1491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1491" s="2" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="B1491" t="s">
         <v>22</v>
@@ -38775,12 +38973,12 @@
         <v>45</v>
       </c>
       <c r="J1491" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="1492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1492" s="2" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="B1492" t="s">
         <v>22</v>
@@ -38792,12 +38990,12 @@
         <v>45</v>
       </c>
       <c r="J1492" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="1493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1493" s="2" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="B1493" t="s">
         <v>22</v>
@@ -38809,12 +39007,12 @@
         <v>45</v>
       </c>
       <c r="J1493" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="1494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1494" s="2" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="B1494" t="s">
         <v>22</v>
@@ -38826,18 +39024,18 @@
         <v>45</v>
       </c>
       <c r="J1494" t="s">
+        <v>2652</v>
+      </c>
+      <c r="K1494" t="s">
         <v>2653</v>
       </c>
-      <c r="K1494" t="s">
+      <c r="L1494" t="s">
         <v>2654</v>
-      </c>
-      <c r="L1494" t="s">
-        <v>2655</v>
       </c>
     </row>
     <row r="1495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1495" s="2" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="B1495" t="s">
         <v>22</v>
@@ -38849,12 +39047,12 @@
         <v>45</v>
       </c>
       <c r="J1495" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="1496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1496" s="2" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="B1496" t="s">
         <v>22</v>
@@ -38866,12 +39064,12 @@
         <v>45</v>
       </c>
       <c r="J1496" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="1497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1497" s="2" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="B1497" t="s">
         <v>22</v>
@@ -38883,12 +39081,12 @@
         <v>45</v>
       </c>
       <c r="J1497" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="1498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1498" s="2" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="B1498" t="s">
         <v>22</v>
@@ -38900,12 +39098,12 @@
         <v>45</v>
       </c>
       <c r="J1498" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="1499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1499" s="2" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="B1499" t="s">
         <v>22</v>
@@ -38917,12 +39115,12 @@
         <v>45</v>
       </c>
       <c r="J1499" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="1500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1500" s="2" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="B1500" t="s">
         <v>22</v>
@@ -38934,12 +39132,12 @@
         <v>45</v>
       </c>
       <c r="J1500" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="1501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1501" s="2" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="B1501" t="s">
         <v>22</v>
@@ -38951,12 +39149,12 @@
         <v>45</v>
       </c>
       <c r="J1501" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="1502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1502" s="2" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="B1502" t="s">
         <v>22</v>
@@ -38968,12 +39166,12 @@
         <v>45</v>
       </c>
       <c r="J1502" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="1503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1503" s="2" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="B1503" t="s">
         <v>22</v>
@@ -38985,12 +39183,12 @@
         <v>45</v>
       </c>
       <c r="J1503" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1504" s="2" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="B1504" t="s">
         <v>22</v>
@@ -39002,12 +39200,12 @@
         <v>45</v>
       </c>
       <c r="J1504" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="1505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1505" s="2" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="B1505" t="s">
         <v>22</v>
@@ -39019,12 +39217,12 @@
         <v>45</v>
       </c>
       <c r="J1505" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="1506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1506" s="2" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B1506" t="s">
         <v>22</v>
@@ -39036,12 +39234,12 @@
         <v>45</v>
       </c>
       <c r="J1506" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="1507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1507" s="2" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="B1507" t="s">
         <v>22</v>
@@ -39053,12 +39251,12 @@
         <v>45</v>
       </c>
       <c r="J1507" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="1508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1508" s="2" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="B1508" t="s">
         <v>22</v>
@@ -39070,12 +39268,12 @@
         <v>45</v>
       </c>
       <c r="J1508" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="1509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1509" s="2" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="B1509" t="s">
         <v>22</v>
@@ -39087,12 +39285,12 @@
         <v>45</v>
       </c>
       <c r="J1509" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="1510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1510" s="2" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="B1510" t="s">
         <v>22</v>
@@ -39104,12 +39302,12 @@
         <v>45</v>
       </c>
       <c r="J1510" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="1511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1511" s="2" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="B1511" t="s">
         <v>22</v>
@@ -39121,12 +39319,12 @@
         <v>45</v>
       </c>
       <c r="J1511" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="1512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1512" s="2" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="B1512" t="s">
         <v>22</v>
@@ -39138,12 +39336,12 @@
         <v>45</v>
       </c>
       <c r="J1512" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="1513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1513" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="B1513" t="s">
         <v>22</v>
@@ -39155,12 +39353,12 @@
         <v>45</v>
       </c>
       <c r="J1513" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="1514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1514" s="2" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="B1514" t="s">
         <v>22</v>
@@ -39175,12 +39373,12 @@
         <v>923</v>
       </c>
       <c r="J1514" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="1515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1515" s="2" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="B1515" t="s">
         <v>22</v>
@@ -39192,12 +39390,12 @@
         <v>45</v>
       </c>
       <c r="J1515" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="1516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1516" s="2" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="B1516" t="s">
         <v>22</v>
@@ -39209,12 +39407,12 @@
         <v>45</v>
       </c>
       <c r="J1516" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="1517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1517" s="2" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="B1517" t="s">
         <v>22</v>
@@ -39226,7 +39424,7 @@
         <v>45</v>
       </c>
       <c r="J1517" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="1518" spans="1:11" x14ac:dyDescent="0.25">
@@ -39246,12 +39444,12 @@
         <v>45</v>
       </c>
       <c r="J1518" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="1519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1519" s="2" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="B1519" t="s">
         <v>39</v>
@@ -39263,12 +39461,12 @@
         <v>45</v>
       </c>
       <c r="J1519" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="1520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1520" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="B1520" t="s">
         <v>39</v>
@@ -39280,10 +39478,10 @@
         <v>1307</v>
       </c>
       <c r="J1520" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="K1520" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="1521" spans="1:13" x14ac:dyDescent="0.25">
@@ -39300,12 +39498,12 @@
         <v>45</v>
       </c>
       <c r="J1521" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="1522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1522" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="B1522" t="s">
         <v>39</v>
@@ -39317,7 +39515,7 @@
         <v>45</v>
       </c>
       <c r="J1522" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="1523" spans="1:13" x14ac:dyDescent="0.25">
@@ -39334,12 +39532,12 @@
         <v>45</v>
       </c>
       <c r="J1523" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="1524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1524" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="B1524" t="s">
         <v>23</v>
@@ -39354,12 +39552,12 @@
         <v>1182</v>
       </c>
       <c r="J1524" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="1525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1525" s="2" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="B1525" t="s">
         <v>36</v>
@@ -39368,24 +39566,24 @@
         <v>600</v>
       </c>
       <c r="F1525" t="s">
+        <v>2728</v>
+      </c>
+      <c r="J1525" t="s">
         <v>2729</v>
       </c>
-      <c r="J1525" t="s">
+      <c r="K1525" t="s">
         <v>2730</v>
       </c>
-      <c r="K1525" t="s">
+      <c r="L1525" t="s">
         <v>2731</v>
       </c>
-      <c r="L1525" t="s">
+      <c r="M1525" t="s">
         <v>2732</v>
-      </c>
-      <c r="M1525" t="s">
-        <v>2733</v>
       </c>
     </row>
     <row r="1526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1526" s="2" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="B1526" t="s">
         <v>23</v>
@@ -39397,12 +39595,12 @@
         <v>45</v>
       </c>
       <c r="J1526" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="1527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1527" s="2" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="B1527" t="s">
         <v>28</v>
@@ -39414,12 +39612,12 @@
         <v>45</v>
       </c>
       <c r="J1527" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="1528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1528" s="2" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="B1528" t="s">
         <v>28</v>
@@ -39431,12 +39629,12 @@
         <v>45</v>
       </c>
       <c r="J1528" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="1529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1529" s="2" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="B1529" t="s">
         <v>28</v>
@@ -39448,12 +39646,12 @@
         <v>45</v>
       </c>
       <c r="J1529" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="1530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1530" s="2" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="B1530" t="s">
         <v>28</v>
@@ -39465,12 +39663,12 @@
         <v>45</v>
       </c>
       <c r="J1530" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="1531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1531" s="2" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="B1531" t="s">
         <v>21</v>
@@ -39482,12 +39680,12 @@
         <v>45</v>
       </c>
       <c r="J1531" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="1532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1532" s="2" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="B1532" t="s">
         <v>21</v>
@@ -39499,12 +39697,12 @@
         <v>45</v>
       </c>
       <c r="J1532" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="1533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1533" s="2" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="B1533" t="s">
         <v>21</v>
@@ -39516,12 +39714,12 @@
         <v>45</v>
       </c>
       <c r="J1533" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="1534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1534" s="2" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="B1534" t="s">
         <v>29</v>
@@ -39539,12 +39737,12 @@
         <v>7</v>
       </c>
       <c r="J1534" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="1535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1535" s="2" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="B1535" t="s">
         <v>29</v>
@@ -39562,12 +39760,12 @@
         <v>9</v>
       </c>
       <c r="J1535" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1536" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1536" s="2" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="B1536" t="s">
         <v>29</v>
@@ -39579,15 +39777,15 @@
         <v>45</v>
       </c>
       <c r="F1536" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="J1536" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="1537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1537" s="2" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="B1537" t="s">
         <v>29</v>
@@ -39602,12 +39800,12 @@
         <v>1867</v>
       </c>
       <c r="J1537" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="1538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1538" s="2" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="B1538" t="s">
         <v>29</v>
@@ -39625,12 +39823,12 @@
         <v>9</v>
       </c>
       <c r="J1538" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="1539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1539" s="2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="B1539" t="s">
         <v>29</v>
@@ -39642,12 +39840,12 @@
         <v>45</v>
       </c>
       <c r="J1539" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="1540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1540" s="2" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="B1540" t="s">
         <v>29</v>
@@ -39665,12 +39863,12 @@
         <v>7</v>
       </c>
       <c r="J1540" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="1541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1541" s="2" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="B1541" t="s">
         <v>29</v>
@@ -39688,12 +39886,12 @@
         <v>9</v>
       </c>
       <c r="J1541" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="1542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1542" s="2" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="B1542" t="s">
         <v>29</v>
@@ -39711,12 +39909,12 @@
         <v>9</v>
       </c>
       <c r="J1542" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="1543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1543" s="2" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="B1543" t="s">
         <v>29</v>
@@ -39734,12 +39932,12 @@
         <v>7</v>
       </c>
       <c r="J1543" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="1544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1544" s="2" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="B1544" t="s">
         <v>29</v>
@@ -39757,7 +39955,7 @@
         <v>9</v>
       </c>
       <c r="J1544" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="1545" spans="1:11" x14ac:dyDescent="0.25">
@@ -39780,12 +39978,12 @@
         <v>9</v>
       </c>
       <c r="J1545" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="1546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1546" s="2" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="B1546" t="s">
         <v>29</v>
@@ -39803,12 +40001,12 @@
         <v>9</v>
       </c>
       <c r="J1546" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="1547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1547" s="2" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="B1547" t="s">
         <v>29</v>
@@ -39826,12 +40024,12 @@
         <v>9</v>
       </c>
       <c r="J1547" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="1548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1548" s="2" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="B1548" t="s">
         <v>29</v>
@@ -39849,12 +40047,12 @@
         <v>9</v>
       </c>
       <c r="J1548" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="1549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1549" s="2" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="B1549" t="s">
         <v>29</v>
@@ -39872,12 +40070,12 @@
         <v>9</v>
       </c>
       <c r="J1549" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="1550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1550" s="2" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="B1550" t="s">
         <v>29</v>
@@ -39895,12 +40093,12 @@
         <v>7</v>
       </c>
       <c r="J1550" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="1551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1551" s="2" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="B1551" t="s">
         <v>658</v>
@@ -39912,15 +40110,15 @@
         <v>9</v>
       </c>
       <c r="J1551" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="K1551" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1552" s="2" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="B1552" t="s">
         <v>658</v>
@@ -39932,12 +40130,12 @@
         <v>9</v>
       </c>
       <c r="J1552" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1553" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1553" s="2" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1553" t="s">
         <v>658</v>
@@ -39949,7 +40147,7 @@
         <v>9</v>
       </c>
       <c r="J1553" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1554" spans="1:13" x14ac:dyDescent="0.25">
@@ -39969,12 +40167,12 @@
         <v>7</v>
       </c>
       <c r="J1554" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1555" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1555" s="2" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="B1555" t="s">
         <v>658</v>
@@ -39986,12 +40184,12 @@
         <v>9</v>
       </c>
       <c r="J1555" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1556" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1556" s="2" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="B1556" t="s">
         <v>658</v>
@@ -40006,18 +40204,18 @@
         <v>9</v>
       </c>
       <c r="J1556" t="s">
+        <v>2794</v>
+      </c>
+      <c r="K1556" t="s">
         <v>2795</v>
       </c>
-      <c r="K1556" t="s">
+      <c r="L1556" t="s">
         <v>2796</v>
-      </c>
-      <c r="L1556" t="s">
-        <v>2797</v>
       </c>
     </row>
     <row r="1557" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1557" s="2" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="B1557" t="s">
         <v>658</v>
@@ -40032,7 +40230,7 @@
         <v>7</v>
       </c>
       <c r="J1557" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="1558" spans="1:13" x14ac:dyDescent="0.25">
@@ -40052,12 +40250,12 @@
         <v>603</v>
       </c>
       <c r="J1558" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="1559" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1559" s="2" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="B1559" t="s">
         <v>22</v>
@@ -40069,7 +40267,7 @@
         <v>45</v>
       </c>
       <c r="J1559" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="1560" spans="1:13" x14ac:dyDescent="0.25">
@@ -40092,12 +40290,12 @@
         <v>7</v>
       </c>
       <c r="J1560" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1561" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1561" s="2" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="B1561" t="s">
         <v>22</v>
@@ -40109,12 +40307,12 @@
         <v>45</v>
       </c>
       <c r="J1561" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="1562" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1562" s="2" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="B1562" t="s">
         <v>22</v>
@@ -40126,7 +40324,7 @@
         <v>45</v>
       </c>
       <c r="J1562" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="1563" spans="1:13" x14ac:dyDescent="0.25">
@@ -40149,7 +40347,7 @@
         <v>9</v>
       </c>
       <c r="J1563" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="1564" spans="1:13" x14ac:dyDescent="0.25">
@@ -40166,12 +40364,12 @@
         <v>45</v>
       </c>
       <c r="J1564" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="1565" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1565" s="2" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="B1565" t="s">
         <v>22</v>
@@ -40183,12 +40381,12 @@
         <v>45</v>
       </c>
       <c r="J1565" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="1566" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1566" s="2" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="B1566" t="s">
         <v>22</v>
@@ -40206,12 +40404,12 @@
         <v>9</v>
       </c>
       <c r="J1566" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="1567" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1567" s="2" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="B1567" t="s">
         <v>22</v>
@@ -40223,24 +40421,24 @@
         <v>45</v>
       </c>
       <c r="F1567" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J1567" t="s">
         <v>2813</v>
       </c>
-      <c r="J1567" t="s">
+      <c r="K1567" t="s">
         <v>2814</v>
       </c>
-      <c r="K1567" t="s">
+      <c r="L1567" t="s">
         <v>2815</v>
       </c>
-      <c r="L1567" t="s">
+      <c r="M1567" t="s">
         <v>2816</v>
-      </c>
-      <c r="M1567" t="s">
-        <v>2817</v>
       </c>
     </row>
     <row r="1568" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1568" s="2" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="B1568" t="s">
         <v>22</v>
@@ -40252,12 +40450,12 @@
         <v>45</v>
       </c>
       <c r="J1568" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="1569" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1569" s="2" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B1569" t="s">
         <v>22</v>
@@ -40269,12 +40467,12 @@
         <v>45</v>
       </c>
       <c r="J1569" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="1570" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1570" s="2" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="B1570" t="s">
         <v>22</v>
@@ -40292,12 +40490,12 @@
         <v>9</v>
       </c>
       <c r="J1570" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="1571" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1571" s="2" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="B1571" t="s">
         <v>22</v>
@@ -40309,12 +40507,12 @@
         <v>45</v>
       </c>
       <c r="J1571" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="1572" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1572" s="2" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="B1572" t="s">
         <v>22</v>
@@ -40326,12 +40524,12 @@
         <v>45</v>
       </c>
       <c r="J1572" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="1573" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1573" s="2" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="B1573" t="s">
         <v>22</v>
@@ -40349,12 +40547,12 @@
         <v>9</v>
       </c>
       <c r="J1573" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="1574" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1574" s="2" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="B1574" t="s">
         <v>22</v>
@@ -40366,12 +40564,12 @@
         <v>45</v>
       </c>
       <c r="J1574" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1575" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1575" s="2" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="B1575" t="s">
         <v>22</v>
@@ -40383,12 +40581,12 @@
         <v>45</v>
       </c>
       <c r="J1575" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="1576" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1576" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="B1576" t="s">
         <v>22</v>
@@ -40400,12 +40598,12 @@
         <v>45</v>
       </c>
       <c r="J1576" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="1577" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1577" s="2" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="B1577" t="s">
         <v>22</v>
@@ -40417,7 +40615,7 @@
         <v>45</v>
       </c>
       <c r="J1577" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="1578" spans="1:10" x14ac:dyDescent="0.25">
@@ -40440,12 +40638,12 @@
         <v>7</v>
       </c>
       <c r="J1578" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="1579" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1579" s="2" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="B1579" t="s">
         <v>22</v>
@@ -40463,12 +40661,12 @@
         <v>7</v>
       </c>
       <c r="J1579" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="1580" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1580" s="2" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="B1580" t="s">
         <v>22</v>
@@ -40480,12 +40678,12 @@
         <v>45</v>
       </c>
       <c r="J1580" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="1581" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1581" s="2" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="B1581" t="s">
         <v>22</v>
@@ -40497,12 +40695,12 @@
         <v>45</v>
       </c>
       <c r="J1581" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="1582" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1582" s="2" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="B1582" t="s">
         <v>22</v>
@@ -40514,12 +40712,12 @@
         <v>45</v>
       </c>
       <c r="J1582" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="1583" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1583" s="2" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="B1583" t="s">
         <v>22</v>
@@ -40531,12 +40729,12 @@
         <v>45</v>
       </c>
       <c r="J1583" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="1584" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1584" s="2" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="B1584" t="s">
         <v>22</v>
@@ -40551,12 +40749,12 @@
         <v>1182</v>
       </c>
       <c r="J1584" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="1585" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1585" s="2" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="B1585" t="s">
         <v>22</v>
@@ -40568,7 +40766,7 @@
         <v>45</v>
       </c>
       <c r="J1585" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="1586" spans="1:12" x14ac:dyDescent="0.25">
@@ -40585,12 +40783,12 @@
         <v>45</v>
       </c>
       <c r="J1586" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="1587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1587" s="2" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="B1587" t="s">
         <v>22</v>
@@ -40602,12 +40800,12 @@
         <v>45</v>
       </c>
       <c r="J1587" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="1588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1588" s="2" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="B1588" t="s">
         <v>22</v>
@@ -40625,12 +40823,12 @@
         <v>9</v>
       </c>
       <c r="J1588" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="1589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1589" s="2" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="B1589" t="s">
         <v>22</v>
@@ -40648,12 +40846,12 @@
         <v>7</v>
       </c>
       <c r="J1589" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="1590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1590" s="2" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="B1590" t="s">
         <v>22</v>
@@ -40665,12 +40863,12 @@
         <v>45</v>
       </c>
       <c r="J1590" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="1591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1591" s="2" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="B1591" t="s">
         <v>25</v>
@@ -40682,7 +40880,7 @@
         <v>45</v>
       </c>
       <c r="F1591" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="G1591" t="s">
         <v>7</v>
@@ -40691,12 +40889,12 @@
         <v>9</v>
       </c>
       <c r="J1591" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="1592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1592" s="2" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="B1592" t="s">
         <v>25</v>
@@ -40717,18 +40915,18 @@
         <v>9</v>
       </c>
       <c r="J1592" t="s">
+        <v>2863</v>
+      </c>
+      <c r="K1592" t="s">
         <v>2864</v>
       </c>
-      <c r="K1592" t="s">
+      <c r="L1592" t="s">
         <v>2865</v>
-      </c>
-      <c r="L1592" t="s">
-        <v>2866</v>
       </c>
     </row>
     <row r="1593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1593" s="2" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="B1593" t="s">
         <v>25</v>
@@ -40740,7 +40938,7 @@
         <v>45</v>
       </c>
       <c r="F1593" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="G1593" t="s">
         <v>7</v>
@@ -40749,12 +40947,12 @@
         <v>9</v>
       </c>
       <c r="J1593" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="1594" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1594" s="2" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="B1594" t="s">
         <v>25</v>
@@ -40772,12 +40970,12 @@
         <v>7</v>
       </c>
       <c r="J1594" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="1595" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1595" s="2" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="B1595" t="s">
         <v>25</v>
@@ -40789,12 +40987,12 @@
         <v>45</v>
       </c>
       <c r="J1595" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="1596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1596" s="2" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="B1596" t="s">
         <v>25</v>
@@ -40806,15 +41004,15 @@
         <v>45</v>
       </c>
       <c r="F1596" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="J1596" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="1597" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1597" s="2" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="B1597" t="s">
         <v>25</v>
@@ -40832,12 +41030,12 @@
         <v>9</v>
       </c>
       <c r="J1597" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="1598" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1598" s="2" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="B1598" t="s">
         <v>25</v>
@@ -40849,7 +41047,7 @@
         <v>45</v>
       </c>
       <c r="F1598" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="G1598" t="s">
         <v>7</v>
@@ -40858,12 +41056,12 @@
         <v>7</v>
       </c>
       <c r="J1598" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="1599" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1599" s="2" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="B1599" t="s">
         <v>25</v>
@@ -40875,15 +41073,15 @@
         <v>45</v>
       </c>
       <c r="F1599" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="J1599" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="1600" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1600" s="2" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="B1600" t="s">
         <v>25</v>
@@ -40895,15 +41093,15 @@
         <v>45</v>
       </c>
       <c r="F1600" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="J1600" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="1601" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1601" s="2" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="B1601" t="s">
         <v>25</v>
@@ -40915,15 +41113,15 @@
         <v>45</v>
       </c>
       <c r="F1601" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="J1601" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="1602" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1602" s="2" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="B1602" t="s">
         <v>25</v>
@@ -40935,7 +41133,7 @@
         <v>45</v>
       </c>
       <c r="F1602" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="G1602" t="s">
         <v>7</v>
@@ -40944,12 +41142,12 @@
         <v>9</v>
       </c>
       <c r="J1602" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1603" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1603" s="2" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="B1603" t="s">
         <v>25</v>
@@ -40961,12 +41159,12 @@
         <v>45</v>
       </c>
       <c r="J1603" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1604" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1604" s="2" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B1604" t="s">
         <v>25</v>
@@ -40978,12 +41176,12 @@
         <v>45</v>
       </c>
       <c r="J1604" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="1605" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1605" s="2" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="B1605" t="s">
         <v>25</v>
@@ -40995,12 +41193,12 @@
         <v>45</v>
       </c>
       <c r="J1605" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="1606" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1606" s="2" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="B1606" t="s">
         <v>25</v>
@@ -41012,7 +41210,7 @@
         <v>45</v>
       </c>
       <c r="J1606" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1607" spans="1:10" x14ac:dyDescent="0.25">
@@ -41035,7 +41233,7 @@
         <v>9</v>
       </c>
       <c r="J1607" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1608" spans="1:10" x14ac:dyDescent="0.25">
@@ -41058,7 +41256,7 @@
         <v>9</v>
       </c>
       <c r="J1608" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1609" spans="1:10" x14ac:dyDescent="0.25">
@@ -41075,15 +41273,15 @@
         <v>45</v>
       </c>
       <c r="F1609" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="J1609" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1610" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1610" s="2" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="B1610" t="s">
         <v>25</v>
@@ -41095,15 +41293,15 @@
         <v>45</v>
       </c>
       <c r="F1610" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="J1610" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1611" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1611" s="2" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="B1611" t="s">
         <v>25</v>
@@ -41115,7 +41313,7 @@
         <v>45</v>
       </c>
       <c r="F1611" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="G1611" t="s">
         <v>7</v>
@@ -41124,12 +41322,12 @@
         <v>9</v>
       </c>
       <c r="J1611" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1612" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1612" s="2" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="B1612" t="s">
         <v>25</v>
@@ -41141,12 +41339,12 @@
         <v>45</v>
       </c>
       <c r="J1612" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1613" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1613" s="2" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B1613" t="s">
         <v>25</v>
@@ -41158,7 +41356,7 @@
         <v>45</v>
       </c>
       <c r="F1613" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="G1613" t="s">
         <v>7</v>
@@ -41167,12 +41365,12 @@
         <v>7</v>
       </c>
       <c r="J1613" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1614" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1614" s="2" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="B1614" t="s">
         <v>25</v>
@@ -41184,12 +41382,12 @@
         <v>45</v>
       </c>
       <c r="J1614" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1615" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1615" s="2" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="B1615" t="s">
         <v>25</v>
@@ -41201,12 +41399,12 @@
         <v>45</v>
       </c>
       <c r="J1615" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="1616" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1616" s="2" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="B1616" t="s">
         <v>25</v>
@@ -41218,12 +41416,12 @@
         <v>45</v>
       </c>
       <c r="J1616" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="1617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1617" s="2" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="B1617" t="s">
         <v>25</v>
@@ -41235,15 +41433,15 @@
         <v>45</v>
       </c>
       <c r="F1617" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="J1617" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="1618" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1618" s="2" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="B1618" t="s">
         <v>25</v>
@@ -41255,7 +41453,7 @@
         <v>45</v>
       </c>
       <c r="J1618" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="1619" spans="1:10" x14ac:dyDescent="0.25">
@@ -41272,12 +41470,12 @@
         <v>45</v>
       </c>
       <c r="J1619" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="1620" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1620" s="2" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="B1620" t="s">
         <v>25</v>
@@ -41289,15 +41487,15 @@
         <v>45</v>
       </c>
       <c r="F1620" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="J1620" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="1621" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1621" s="2" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="B1621" t="s">
         <v>25</v>
@@ -41309,12 +41507,12 @@
         <v>45</v>
       </c>
       <c r="J1621" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="1622" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1622" s="2" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="B1622" t="s">
         <v>25</v>
@@ -41326,15 +41524,15 @@
         <v>45</v>
       </c>
       <c r="F1622" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="J1622" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="1623" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1623" s="2" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="B1623" t="s">
         <v>25</v>
@@ -41349,12 +41547,12 @@
         <v>603</v>
       </c>
       <c r="J1623" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="1624" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1624" s="2" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="B1624" t="s">
         <v>25</v>
@@ -41366,12 +41564,12 @@
         <v>45</v>
       </c>
       <c r="J1624" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="1625" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1625" s="2" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="B1625" t="s">
         <v>25</v>
@@ -41383,12 +41581,12 @@
         <v>45</v>
       </c>
       <c r="J1625" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1626" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1626" s="2" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="B1626" t="s">
         <v>25</v>
@@ -41400,12 +41598,12 @@
         <v>45</v>
       </c>
       <c r="J1626" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="1627" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1627" s="2" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="B1627" t="s">
         <v>25</v>
@@ -41417,15 +41615,15 @@
         <v>45</v>
       </c>
       <c r="F1627" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="J1627" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1628" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1628" s="2" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="B1628" t="s">
         <v>25</v>
@@ -41437,12 +41635,12 @@
         <v>45</v>
       </c>
       <c r="J1628" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="1629" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1629" s="2" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="B1629" t="s">
         <v>25</v>
@@ -41454,15 +41652,15 @@
         <v>45</v>
       </c>
       <c r="F1629" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="J1629" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="1630" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1630" s="2" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="B1630" t="s">
         <v>25</v>
@@ -41474,12 +41672,12 @@
         <v>45</v>
       </c>
       <c r="J1630" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="1631" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1631" s="2" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="B1631" t="s">
         <v>25</v>
@@ -41491,12 +41689,12 @@
         <v>45</v>
       </c>
       <c r="J1631" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="1632" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1632" s="2" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="B1632" t="s">
         <v>25</v>
@@ -41508,12 +41706,12 @@
         <v>45</v>
       </c>
       <c r="J1632" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="1633" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1633" s="2" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="B1633" t="s">
         <v>25</v>
@@ -41525,12 +41723,12 @@
         <v>45</v>
       </c>
       <c r="J1633" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="1634" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1634" s="2" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="B1634" t="s">
         <v>25</v>
@@ -41542,12 +41740,12 @@
         <v>45</v>
       </c>
       <c r="J1634" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="1635" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1635" s="2" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="B1635" t="s">
         <v>25</v>
@@ -41559,12 +41757,12 @@
         <v>45</v>
       </c>
       <c r="J1635" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="1636" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1636" s="2" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="B1636" t="s">
         <v>25</v>
@@ -41576,7 +41774,7 @@
         <v>45</v>
       </c>
       <c r="J1636" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="1637" spans="1:10" x14ac:dyDescent="0.25">
@@ -41593,12 +41791,12 @@
         <v>1307</v>
       </c>
       <c r="J1637" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="1638" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1638" s="2" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="B1638" t="s">
         <v>26</v>
@@ -41610,12 +41808,12 @@
         <v>45</v>
       </c>
       <c r="J1638" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="1639" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1639" s="2" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="B1639" t="s">
         <v>26</v>
@@ -41627,12 +41825,12 @@
         <v>45</v>
       </c>
       <c r="J1639" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="1640" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1640" s="2" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="B1640" t="s">
         <v>26</v>
@@ -41644,7 +41842,7 @@
         <v>45</v>
       </c>
       <c r="J1640" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="1641" spans="1:10" x14ac:dyDescent="0.25">
@@ -41664,12 +41862,12 @@
         <v>1896</v>
       </c>
       <c r="J1641" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="1642" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1642" s="2" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="B1642" t="s">
         <v>26</v>
@@ -41681,12 +41879,12 @@
         <v>45</v>
       </c>
       <c r="J1642" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="1643" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1643" s="2" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="B1643" t="s">
         <v>26</v>
@@ -41698,12 +41896,12 @@
         <v>45</v>
       </c>
       <c r="J1643" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1644" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1644" s="2" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="B1644" t="s">
         <v>26</v>
@@ -41718,12 +41916,12 @@
         <v>603</v>
       </c>
       <c r="J1644" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="1645" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1645" s="2" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="B1645" t="s">
         <v>26</v>
@@ -41738,12 +41936,12 @@
         <v>603</v>
       </c>
       <c r="J1645" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="1646" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1646" s="2" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="B1646" t="s">
         <v>26</v>
@@ -41755,12 +41953,12 @@
         <v>45</v>
       </c>
       <c r="J1646" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="1647" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1647" s="2" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="B1647" t="s">
         <v>26</v>
@@ -41772,7 +41970,7 @@
         <v>45</v>
       </c>
       <c r="J1647" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="1648" spans="1:10" x14ac:dyDescent="0.25">
@@ -41795,7 +41993,7 @@
         <v>7</v>
       </c>
       <c r="J1648" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="1649" spans="1:14" x14ac:dyDescent="0.25">
@@ -41818,38 +42016,38 @@
         <v>7</v>
       </c>
       <c r="J1649" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="1650" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1650" s="2" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="B1650" t="s">
         <v>491</v>
       </c>
       <c r="F1650" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J1650" t="s">
         <v>2976</v>
       </c>
-      <c r="J1650" t="s">
+      <c r="K1650" t="s">
         <v>2977</v>
       </c>
-      <c r="K1650" t="s">
+      <c r="L1650" t="s">
         <v>2978</v>
       </c>
-      <c r="L1650" t="s">
+      <c r="M1650" t="s">
         <v>2979</v>
       </c>
-      <c r="M1650" t="s">
+      <c r="N1650" t="s">
         <v>2980</v>
-      </c>
-      <c r="N1650" t="s">
-        <v>2981</v>
       </c>
     </row>
     <row r="1651" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1651" s="2" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="B1651" t="s">
         <v>24</v>
@@ -41861,12 +42059,12 @@
         <v>45</v>
       </c>
       <c r="J1651" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="1652" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1652" s="2" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="B1652" t="s">
         <v>24</v>
@@ -41878,12 +42076,12 @@
         <v>45</v>
       </c>
       <c r="J1652" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="1653" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1653" s="2" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="B1653" t="s">
         <v>31</v>
@@ -41895,12 +42093,12 @@
         <v>45</v>
       </c>
       <c r="J1653" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="1654" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1654" s="2" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="B1654" t="s">
         <v>31</v>
@@ -41912,12 +42110,12 @@
         <v>45</v>
       </c>
       <c r="J1654" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="1655" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1655" s="2" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="B1655" t="s">
         <v>31</v>
@@ -41929,12 +42127,12 @@
         <v>45</v>
       </c>
       <c r="J1655" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="1656" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1656" s="2" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="B1656" t="s">
         <v>1305</v>
@@ -41946,12 +42144,12 @@
         <v>45</v>
       </c>
       <c r="J1656" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="1657" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1657" s="2" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="B1657" t="s">
         <v>1305</v>
@@ -41963,12 +42161,12 @@
         <v>45</v>
       </c>
       <c r="J1657" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="1658" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1658" s="2" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B1658" t="s">
         <v>1305</v>
@@ -41980,10 +42178,10 @@
         <v>45</v>
       </c>
       <c r="J1658" t="s">
+        <v>2995</v>
+      </c>
+      <c r="K1658" t="s">
         <v>2996</v>
-      </c>
-      <c r="K1658" t="s">
-        <v>2997</v>
       </c>
     </row>
     <row r="1659" spans="1:14" x14ac:dyDescent="0.25">
@@ -42000,12 +42198,12 @@
         <v>45</v>
       </c>
       <c r="J1659" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="1660" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1660" s="2" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="B1660" t="s">
         <v>23</v>
@@ -42017,12 +42215,12 @@
         <v>45</v>
       </c>
       <c r="J1660" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1661" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1661" s="2" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B1661" t="s">
         <v>23</v>
@@ -42034,12 +42232,12 @@
         <v>45</v>
       </c>
       <c r="J1661" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1662" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1662" s="2" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B1662" t="s">
         <v>23</v>
@@ -42051,12 +42249,12 @@
         <v>45</v>
       </c>
       <c r="J1662" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1663" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1663" s="2" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B1663" t="s">
         <v>22</v>
@@ -42068,12 +42266,12 @@
         <v>45</v>
       </c>
       <c r="J1663" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1664" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1664" s="2" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="B1664" t="s">
         <v>22</v>
@@ -42085,12 +42283,12 @@
         <v>45</v>
       </c>
       <c r="J1664" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="1665" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1665" s="2" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="B1665" t="s">
         <v>22</v>
@@ -42102,12 +42300,12 @@
         <v>45</v>
       </c>
       <c r="J1665" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="1666" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1666" s="2" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B1666" t="s">
         <v>22</v>
@@ -42119,21 +42317,21 @@
         <v>45</v>
       </c>
       <c r="F1666" t="s">
+        <v>3012</v>
+      </c>
+      <c r="J1666" t="s">
         <v>3013</v>
       </c>
-      <c r="J1666" t="s">
+      <c r="K1666" t="s">
         <v>3014</v>
       </c>
-      <c r="K1666" t="s">
+      <c r="L1666" t="s">
         <v>3015</v>
-      </c>
-      <c r="L1666" t="s">
-        <v>3016</v>
       </c>
     </row>
     <row r="1667" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1667" s="2" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="B1667" t="s">
         <v>36</v>
@@ -42145,10 +42343,10 @@
         <v>45</v>
       </c>
       <c r="J1667" t="s">
+        <v>3017</v>
+      </c>
+      <c r="K1667" t="s">
         <v>3018</v>
-      </c>
-      <c r="K1667" t="s">
-        <v>3019</v>
       </c>
     </row>
     <row r="1668" spans="1:12" x14ac:dyDescent="0.25">
@@ -42165,12 +42363,12 @@
         <v>45</v>
       </c>
       <c r="J1668" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1669" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1669" s="2" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="B1669" t="s">
         <v>37</v>
@@ -42179,89 +42377,89 @@
         <v>600</v>
       </c>
       <c r="J1669" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="1670" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1670" s="2" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="B1670" t="s">
         <v>37</v>
       </c>
       <c r="J1670" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="1671" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1671" s="2" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="B1671" t="s">
         <v>37</v>
       </c>
       <c r="J1671" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="1672" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1672" s="2" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="B1672" t="s">
         <v>37</v>
       </c>
       <c r="J1672" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="1673" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1673" s="2" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="B1673" t="s">
         <v>37</v>
       </c>
       <c r="J1673" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1674" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1674" s="2" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="B1674" t="s">
         <v>37</v>
       </c>
       <c r="J1674" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="1675" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1675" s="2" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="B1675" t="s">
         <v>37</v>
       </c>
       <c r="J1675" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="1676" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1676" s="2" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B1676" t="s">
         <v>37</v>
       </c>
       <c r="J1676" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="1677" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1677" s="2" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="B1677" t="s">
         <v>37</v>
@@ -42270,12 +42468,12 @@
         <v>1270</v>
       </c>
       <c r="J1677" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="1678" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1678" s="2" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="B1678" t="s">
         <v>37</v>
@@ -42284,70 +42482,70 @@
         <v>2008</v>
       </c>
       <c r="J1678" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1679" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1679" s="2" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="B1679" t="s">
         <v>37</v>
       </c>
       <c r="J1679" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="1680" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1680" s="2" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="B1680" t="s">
         <v>37</v>
       </c>
       <c r="J1680" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="1681" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1681" s="2" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="B1681" t="s">
         <v>37</v>
       </c>
       <c r="J1681" t="s">
+        <v>3041</v>
+      </c>
+      <c r="K1681" t="s">
         <v>3042</v>
-      </c>
-      <c r="K1681" t="s">
-        <v>3043</v>
       </c>
     </row>
     <row r="1682" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1682" s="2" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="B1682" t="s">
         <v>37</v>
       </c>
       <c r="J1682" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="1683" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1683" s="2" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="B1683" t="s">
         <v>491</v>
       </c>
       <c r="J1683" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="1684" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1684" s="2" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="B1684" t="s">
         <v>39</v>
@@ -42359,12 +42557,12 @@
         <v>45</v>
       </c>
       <c r="J1684" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="1685" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1685" s="2" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="B1685" t="s">
         <v>39</v>
@@ -42376,12 +42574,12 @@
         <v>45</v>
       </c>
       <c r="J1685" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="1686" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1686" s="2" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="B1686" t="s">
         <v>14</v>
@@ -42390,12 +42588,12 @@
         <v>18</v>
       </c>
       <c r="J1686" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="1687" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1687" s="2" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="B1687" t="s">
         <v>14</v>
@@ -42404,12 +42602,12 @@
         <v>18</v>
       </c>
       <c r="J1687" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="1688" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1688" s="2" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1688" t="s">
         <v>36</v>
@@ -42418,12 +42616,12 @@
         <v>600</v>
       </c>
       <c r="J1688" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1689" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1689" s="2" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="B1689" t="s">
         <v>36</v>
@@ -42435,7 +42633,7 @@
         <v>2008</v>
       </c>
       <c r="J1689" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="1690" spans="1:12" x14ac:dyDescent="0.25">
@@ -42449,15 +42647,15 @@
         <v>598</v>
       </c>
       <c r="J1690" t="s">
+        <v>3068</v>
+      </c>
+      <c r="K1690" t="s">
         <v>3069</v>
-      </c>
-      <c r="K1690" t="s">
-        <v>3070</v>
       </c>
     </row>
     <row r="1691" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1691" s="2" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="B1691" t="s">
         <v>13</v>
@@ -42466,15 +42664,15 @@
         <v>598</v>
       </c>
       <c r="J1691" t="s">
+        <v>3071</v>
+      </c>
+      <c r="K1691" t="s">
         <v>3072</v>
-      </c>
-      <c r="K1691" t="s">
-        <v>3073</v>
       </c>
     </row>
     <row r="1692" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1692" s="2" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="B1692" t="s">
         <v>35</v>
@@ -42483,18 +42681,18 @@
         <v>18</v>
       </c>
       <c r="F1692" t="s">
+        <v>3074</v>
+      </c>
+      <c r="J1692" t="s">
         <v>3075</v>
       </c>
-      <c r="J1692" t="s">
+      <c r="K1692" t="s">
         <v>3076</v>
-      </c>
-      <c r="K1692" t="s">
-        <v>3077</v>
       </c>
     </row>
     <row r="1693" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1693" s="2" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="B1693" t="s">
         <v>35</v>
@@ -42503,21 +42701,21 @@
         <v>598</v>
       </c>
       <c r="F1693" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="J1693" t="s">
+        <v>3077</v>
+      </c>
+      <c r="K1693" t="s">
         <v>3078</v>
       </c>
-      <c r="K1693" t="s">
-        <v>3079</v>
-      </c>
       <c r="L1693" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="1694" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1694" s="2" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="B1694" t="s">
         <v>35</v>
@@ -42526,18 +42724,18 @@
         <v>18</v>
       </c>
       <c r="F1694" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="J1694" t="s">
+        <v>3080</v>
+      </c>
+      <c r="K1694" t="s">
         <v>3081</v>
-      </c>
-      <c r="K1694" t="s">
-        <v>3082</v>
       </c>
     </row>
     <row r="1695" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1695" s="2" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="B1695" t="s">
         <v>35</v>
@@ -42546,21 +42744,21 @@
         <v>598</v>
       </c>
       <c r="F1695" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="J1695" t="s">
+        <v>3082</v>
+      </c>
+      <c r="K1695" t="s">
         <v>3083</v>
       </c>
-      <c r="K1695" t="s">
-        <v>3084</v>
-      </c>
       <c r="L1695" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="1696" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1696" s="2" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="B1696" t="s">
         <v>35</v>
@@ -42569,15 +42767,15 @@
         <v>598</v>
       </c>
       <c r="J1696" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="K1696" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1697" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1697" s="2" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="B1697" t="s">
         <v>35</v>
@@ -42586,15 +42784,15 @@
         <v>598</v>
       </c>
       <c r="J1697" t="s">
+        <v>3088</v>
+      </c>
+      <c r="K1697" t="s">
         <v>3089</v>
-      </c>
-      <c r="K1697" t="s">
-        <v>3090</v>
       </c>
     </row>
     <row r="1698" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1698" s="2" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="B1698" t="s">
         <v>35</v>
@@ -42603,15 +42801,15 @@
         <v>598</v>
       </c>
       <c r="J1698" t="s">
+        <v>3091</v>
+      </c>
+      <c r="K1698" t="s">
         <v>3092</v>
-      </c>
-      <c r="K1698" t="s">
-        <v>3093</v>
       </c>
     </row>
     <row r="1699" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1699" s="2" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="B1699" t="s">
         <v>35</v>
@@ -42620,15 +42818,15 @@
         <v>598</v>
       </c>
       <c r="J1699" t="s">
+        <v>3093</v>
+      </c>
+      <c r="K1699" t="s">
         <v>3094</v>
-      </c>
-      <c r="K1699" t="s">
-        <v>3095</v>
       </c>
     </row>
     <row r="1700" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1700" s="2" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="B1700" t="s">
         <v>35</v>
@@ -42637,15 +42835,15 @@
         <v>598</v>
       </c>
       <c r="J1700" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="K1700" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="1701" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1701" s="2" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="B1701" t="s">
         <v>35</v>
@@ -42654,15 +42852,15 @@
         <v>598</v>
       </c>
       <c r="J1701" t="s">
+        <v>3100</v>
+      </c>
+      <c r="K1701" t="s">
         <v>3101</v>
-      </c>
-      <c r="K1701" t="s">
-        <v>3102</v>
       </c>
     </row>
     <row r="1702" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1702" s="2" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="B1702" t="s">
         <v>35</v>
@@ -42671,15 +42869,15 @@
         <v>598</v>
       </c>
       <c r="J1702" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="K1702" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="1703" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1703" s="2" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="B1703" t="s">
         <v>35</v>
@@ -42688,15 +42886,15 @@
         <v>598</v>
       </c>
       <c r="J1703" t="s">
+        <v>3106</v>
+      </c>
+      <c r="K1703" t="s">
         <v>3107</v>
-      </c>
-      <c r="K1703" t="s">
-        <v>3108</v>
       </c>
     </row>
     <row r="1704" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1704" s="2" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="B1704" t="s">
         <v>35</v>
@@ -42705,15 +42903,15 @@
         <v>598</v>
       </c>
       <c r="J1704" t="s">
+        <v>3109</v>
+      </c>
+      <c r="K1704" t="s">
         <v>3110</v>
-      </c>
-      <c r="K1704" t="s">
-        <v>3111</v>
       </c>
     </row>
     <row r="1705" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1705" s="2" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="B1705" t="s">
         <v>35</v>
@@ -42722,13 +42920,13 @@
         <v>598</v>
       </c>
       <c r="J1705" t="s">
+        <v>3113</v>
+      </c>
+      <c r="K1705" t="s">
+        <v>3112</v>
+      </c>
+      <c r="L1705" t="s">
         <v>3114</v>
-      </c>
-      <c r="K1705" t="s">
-        <v>3113</v>
-      </c>
-      <c r="L1705" t="s">
-        <v>3115</v>
       </c>
     </row>
     <row r="1706" spans="1:12" x14ac:dyDescent="0.25">
@@ -42741,13 +42939,16 @@
       <c r="C1706" t="s">
         <v>598</v>
       </c>
+      <c r="E1706" t="s">
+        <v>45</v>
+      </c>
       <c r="J1706" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="1707" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1707" s="2" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="B1707" t="s">
         <v>22</v>
@@ -42755,13 +42956,16 @@
       <c r="C1707" t="s">
         <v>598</v>
       </c>
+      <c r="E1707" t="s">
+        <v>45</v>
+      </c>
       <c r="J1707" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="1708" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1708" s="2" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="B1708" t="s">
         <v>22</v>
@@ -42769,8 +42973,11 @@
       <c r="C1708" t="s">
         <v>18</v>
       </c>
+      <c r="E1708" t="s">
+        <v>45</v>
+      </c>
       <c r="J1708" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="1709" spans="1:12" x14ac:dyDescent="0.25">
@@ -42783,13 +42990,16 @@
       <c r="C1709" t="s">
         <v>599</v>
       </c>
+      <c r="E1709" t="s">
+        <v>45</v>
+      </c>
       <c r="J1709" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="1710" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1710" s="2" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="B1710" t="s">
         <v>22</v>
@@ -42797,13 +43007,16 @@
       <c r="C1710" t="s">
         <v>598</v>
       </c>
+      <c r="E1710" t="s">
+        <v>45</v>
+      </c>
       <c r="J1710" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="1711" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1711" s="2" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="B1711" t="s">
         <v>22</v>
@@ -42811,13 +43024,16 @@
       <c r="C1711" t="s">
         <v>598</v>
       </c>
+      <c r="E1711" t="s">
+        <v>45</v>
+      </c>
       <c r="J1711" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="1712" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1712" s="2" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="B1712" t="s">
         <v>22</v>
@@ -42825,13 +43041,16 @@
       <c r="C1712" t="s">
         <v>598</v>
       </c>
+      <c r="E1712" t="s">
+        <v>45</v>
+      </c>
       <c r="J1712" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="1713" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1713" s="2" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="B1713" t="s">
         <v>22</v>
@@ -42839,13 +43058,16 @@
       <c r="C1713" t="s">
         <v>598</v>
       </c>
+      <c r="E1713" t="s">
+        <v>45</v>
+      </c>
       <c r="J1713" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="1714" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1714" s="2" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="B1714" t="s">
         <v>22</v>
@@ -42853,13 +43075,16 @@
       <c r="C1714" t="s">
         <v>598</v>
       </c>
+      <c r="E1714" t="s">
+        <v>45</v>
+      </c>
       <c r="J1714" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="1715" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1715" s="2" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="B1715" t="s">
         <v>22</v>
@@ -42867,16 +43092,19 @@
       <c r="C1715" t="s">
         <v>18</v>
       </c>
+      <c r="E1715" t="s">
+        <v>45</v>
+      </c>
       <c r="F1715" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="J1715" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="1716" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1716" s="2" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="B1716" t="s">
         <v>22</v>
@@ -42884,13 +43112,16 @@
       <c r="C1716" t="s">
         <v>598</v>
       </c>
+      <c r="E1716" t="s">
+        <v>45</v>
+      </c>
       <c r="J1716" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="1717" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1717" s="2" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="B1717" t="s">
         <v>22</v>
@@ -42898,13 +43129,16 @@
       <c r="C1717" t="s">
         <v>598</v>
       </c>
+      <c r="E1717" t="s">
+        <v>45</v>
+      </c>
       <c r="J1717" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="1718" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1718" s="2" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="B1718" t="s">
         <v>22</v>
@@ -42912,13 +43146,16 @@
       <c r="C1718" t="s">
         <v>598</v>
       </c>
+      <c r="E1718" t="s">
+        <v>45</v>
+      </c>
       <c r="J1718" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="1719" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1719" s="2" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="B1719" t="s">
         <v>13</v>
@@ -42926,22 +43163,25 @@
       <c r="C1719" t="s">
         <v>598</v>
       </c>
+      <c r="E1719" t="s">
+        <v>45</v>
+      </c>
       <c r="J1719" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="K1719" t="s">
+        <v>3143</v>
+      </c>
+      <c r="L1719" t="s">
         <v>3144</v>
       </c>
-      <c r="L1719" t="s">
+      <c r="M1719" t="s">
         <v>3145</v>
-      </c>
-      <c r="M1719" t="s">
-        <v>3146</v>
       </c>
     </row>
     <row r="1720" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1720" s="2" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="B1720" t="s">
         <v>36</v>
@@ -42950,12 +43190,12 @@
         <v>600</v>
       </c>
       <c r="J1720" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="1721" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1721" s="2" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="B1721" t="s">
         <v>4</v>
@@ -42964,10 +43204,10 @@
         <v>18</v>
       </c>
       <c r="F1721" t="s">
+        <v>3149</v>
+      </c>
+      <c r="J1721" t="s">
         <v>3150</v>
-      </c>
-      <c r="J1721" t="s">
-        <v>3151</v>
       </c>
     </row>
     <row r="1722" spans="1:13" x14ac:dyDescent="0.25">
@@ -42990,7 +43230,7 @@
         <v>7</v>
       </c>
       <c r="J1722" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="1723" spans="1:13" x14ac:dyDescent="0.25">
@@ -43010,10 +43250,584 @@
         <v>45</v>
       </c>
       <c r="F1723" t="s">
+        <v>3163</v>
+      </c>
+      <c r="J1723" t="s">
         <v>3164</v>
       </c>
-      <c r="J1723" t="s">
-        <v>3165</v>
+    </row>
+    <row r="1724" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1724" s="2" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1724" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1724" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1724" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1725" s="2" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1725" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1725" t="s">
+        <v>3171</v>
+      </c>
+      <c r="J1725" t="s">
+        <v>3170</v>
+      </c>
+      <c r="K1725" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1726" s="2" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1726" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1726" t="s">
+        <v>3201</v>
+      </c>
+      <c r="J1726" t="s">
+        <v>3173</v>
+      </c>
+      <c r="K1726" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1727" s="2" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1727" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1727" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1728" s="2" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1728" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1728" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1729" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1729" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1729" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1730" s="2" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1730" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1730" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1731" s="2" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1731" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1731" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1732" s="2" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1732" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1732" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1732" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1733" s="2" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1733" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1733" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1733" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1734" s="2" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1734" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1734" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1735" s="2" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1735" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1735" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1736" s="2" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1736" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1736" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1737" s="2" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1737" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1737" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1738" s="2" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1738" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1738" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1739" s="2" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1739" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1739" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1740" s="2" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1740" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1740" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1741" s="2" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1741" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1741" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1742" s="2" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1742" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1742" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1743" s="2" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1743" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1743" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1744" s="2" t="s">
+        <v>3209</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1744" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1744" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1745" s="2" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1745" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1745" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1746" s="2" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1746" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1746" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1747" s="2" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1747" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1747" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1748" s="2" t="s">
+        <v>3215</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1748" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1748" t="s">
+        <v>3216</v>
+      </c>
+      <c r="K1748" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1749" s="2" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1749" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1749" t="s">
+        <v>3219</v>
+      </c>
+      <c r="G1749" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1749" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1749" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1750" s="2" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1750" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1750" t="s">
+        <v>1612</v>
+      </c>
+      <c r="J1750" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1751" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1751" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1751" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1752" s="2" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1752" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1752" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1753" s="2" t="s">
+        <v>3224</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1753" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1753" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1753" t="s">
+        <v>3227</v>
+      </c>
+      <c r="K1753" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1754" s="2" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1754" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1754" t="s">
+        <v>1411</v>
+      </c>
+      <c r="J1754" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1755" s="2" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1755" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1755" t="s">
+        <v>1411</v>
+      </c>
+      <c r="J1755" t="s">
+        <v>3230</v>
       </c>
     </row>
   </sheetData>

--- a/collection.xlsx
+++ b/collection.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9194" uniqueCount="3233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9806" uniqueCount="3477">
   <si>
     <t>Platform</t>
   </si>
@@ -9717,6 +9717,738 @@
   </si>
   <si>
     <t>Naruto: Gekito Ninja Taisen! 3</t>
+  </si>
+  <si>
+    <t>Yoshi's Woolly World series</t>
+  </si>
+  <si>
+    <t>Mario Party series</t>
+  </si>
+  <si>
+    <t>Zelda series</t>
+  </si>
+  <si>
+    <t>Marth</t>
+  </si>
+  <si>
+    <t>King Dedede</t>
+  </si>
+  <si>
+    <t>Smash Bros series</t>
+  </si>
+  <si>
+    <t>Kirby series</t>
+  </si>
+  <si>
+    <t>Peach</t>
+  </si>
+  <si>
+    <t>Classic Colours Mario</t>
+  </si>
+  <si>
+    <t>Palutena</t>
+  </si>
+  <si>
+    <t>Pikachu</t>
+  </si>
+  <si>
+    <t>Pit</t>
+  </si>
+  <si>
+    <t>Ike</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/qSFuAXj.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/JCyzpWP.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/W5zA1q8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/XciuZ9v.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/tS9tFaf.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/untR5Wv.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/3ntiaeJ.jpg</t>
+  </si>
+  <si>
+    <t>Super Mario Bros 30th Anniversary</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/A7juT43.jpg</t>
+  </si>
+  <si>
+    <t>Jigglypuff</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Little Mac</t>
+  </si>
+  <si>
+    <t>Baby Bowser</t>
+  </si>
+  <si>
+    <t>Toon Link</t>
+  </si>
+  <si>
+    <t>Wii Fit Trainer</t>
+  </si>
+  <si>
+    <t>Captain Olimar</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/I9lz1RP.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/7hdLeg1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ObgNWXh.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/uD8Sio4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rFIh0vy.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/2F14uNB.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/LHOm0pH.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/BSDtell.jpg</t>
+  </si>
+  <si>
+    <t>Charizard</t>
+  </si>
+  <si>
+    <t>Sheik</t>
+  </si>
+  <si>
+    <t>Dark Pit</t>
+  </si>
+  <si>
+    <t>Mewtwo</t>
+  </si>
+  <si>
+    <t>Lucario</t>
+  </si>
+  <si>
+    <t>Greninja</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Izvo2ff.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/TGbr7o1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/up9awqk.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/CkJvYL9.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/wueEZp8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/XprxKrs.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/6Y8j1Vv.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ysNjoh0.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Gu7zfqR.jpg</t>
+  </si>
+  <si>
+    <t>Rosalina &amp; Luma</t>
+  </si>
+  <si>
+    <t>Luigi</t>
+  </si>
+  <si>
+    <t>Diddy Kong</t>
+  </si>
+  <si>
+    <t>Bowser</t>
+  </si>
+  <si>
+    <t>Wario</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Yoshi</t>
+  </si>
+  <si>
+    <t>Princess Zelda</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/5nS8xfY.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/621hcEQ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/hULc4fV.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/punoowM.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/XVMUtWi.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/F5cLqh8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xeOfCZG.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/yrd7Pud.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rMKsOKH.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/mqTbG2N.jpg</t>
+  </si>
+  <si>
+    <t>Mii Gunner</t>
+  </si>
+  <si>
+    <t>Mii Brawler</t>
+  </si>
+  <si>
+    <t>Mii Swordsman</t>
+  </si>
+  <si>
+    <t>Ganondorf</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/bDK1NHl.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/VrQp1Y4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/OcGt1OS.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/kqMbEWQ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/dklthxz.jpg</t>
+  </si>
+  <si>
+    <t>Mega Man</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>Fox McCloud</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/pDzBgje.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/VfkRDkQ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/LZ5CMS9.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/mgMitQv.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/4khxQLi.jpg</t>
+  </si>
+  <si>
+    <t>Sonic</t>
+  </si>
+  <si>
+    <t>Zero Suit Samus</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/WH964QN.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/vyBy0aP.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/porBl88.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/vWSILxu.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/mHgNsSM.jpg</t>
+  </si>
+  <si>
+    <t>Ryu</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>Inkling</t>
+  </si>
+  <si>
+    <t>Ridley</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>R.O.B. (Famicom)</t>
+  </si>
+  <si>
+    <t>Mr. Game and Watch</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/geIokb1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/4x6IN7v.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/8CYuIpT.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/1ex5vAM.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/LOtHQLI.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/6xa1JeK.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/6OBzozR.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/QGVv7Qq.jpg</t>
+  </si>
+  <si>
+    <t>Ness</t>
+  </si>
+  <si>
+    <t>Samus</t>
+  </si>
+  <si>
+    <t>Duck Hunt Duo</t>
+  </si>
+  <si>
+    <t>Falco</t>
+  </si>
+  <si>
+    <t>Captain Falcon</t>
+  </si>
+  <si>
+    <t>Shulk</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/FVzUcqO.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ang7dgZ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Eoncc7l.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/8RTcKva.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/WaDRFhg.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/7xaiBv4.jpg</t>
+  </si>
+  <si>
+    <t>Lucina</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/CdnoxP4.jpg</t>
+  </si>
+  <si>
+    <t>Green Yarn Yoshi</t>
+  </si>
+  <si>
+    <t>Pink Yarn Yoshi</t>
+  </si>
+  <si>
+    <t>Blue Yarn Yoshi</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/UrLREkh.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/FK9Qstz.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Bq7cUFT.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/WlF3Fk9.jpg</t>
+  </si>
+  <si>
+    <t>Waddle Dee</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/q4BEqMi.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/gQf65he.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/C7ahgpR.jpg</t>
+  </si>
+  <si>
+    <t>Meta Knight</t>
+  </si>
+  <si>
+    <t>Inkling Girl Orange</t>
+  </si>
+  <si>
+    <t>Inkling Girl Green</t>
+  </si>
+  <si>
+    <t>Inkling Boy Blue</t>
+  </si>
+  <si>
+    <t>Inkling Boy Purple</t>
+  </si>
+  <si>
+    <t>Inkling Squid Green</t>
+  </si>
+  <si>
+    <t>Inkling Squid Orange</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/wiYajqs.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/31SJKIS.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/A1Nb0ZX.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/QOZX7g5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/szXSHSz.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rCn0UaK.jpg</t>
+  </si>
+  <si>
+    <t>Chibi-Robo</t>
+  </si>
+  <si>
+    <t>Shovel Knight</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/mDipYRd.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/q5SiZpB.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/vY7EcbJ.jpg</t>
+  </si>
+  <si>
+    <t>Zelda (Wind Waker)</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/PirCXBu.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/gNEgtFa.jpg</t>
+  </si>
+  <si>
+    <t>Link (Ocarina of Time)</t>
+  </si>
+  <si>
+    <t>Link (Legend of Zelda)</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/sBu4hgy.jpg</t>
+  </si>
+  <si>
+    <t>Toad</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/rOFiJRw.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/qTzvAsK.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Dgn1fYN.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Wn4SUYm.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/VeBUpCx.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/U7QIDEt.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/YOJ1oKi.jpg</t>
+  </si>
+  <si>
+    <t>Boo</t>
+  </si>
+  <si>
+    <t>Daisy</t>
+  </si>
+  <si>
+    <t>Rosalina</t>
+  </si>
+  <si>
+    <t>Waluigi</t>
+  </si>
+  <si>
+    <t>Silver Mario</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/wJLHBHq.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/b9isQP3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/hpsvnt4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/DTCNzrx.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Rkf2TUP.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Xjfphhs.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/DPEe6p4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/SiD848g.jpg</t>
+  </si>
+  <si>
+    <t>Animal Crossing series</t>
+  </si>
+  <si>
+    <t>Tom Nook</t>
+  </si>
+  <si>
+    <t>Isabelle</t>
+  </si>
+  <si>
+    <t>Lottie</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/w1yWYOQ.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/QBkt9O9.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/dxY1ds6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/bFuCXL9.jpg</t>
+  </si>
+  <si>
+    <t>Isabelle Summer Outfit</t>
+  </si>
+  <si>
+    <t>Rosetti</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/FqWLsDA.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/jGHHuZ8.jpg</t>
+  </si>
+  <si>
+    <t>Timmy &amp; Tommy</t>
+  </si>
+  <si>
+    <t>K.K</t>
+  </si>
+  <si>
+    <t>Mabel</t>
+  </si>
+  <si>
+    <t>Digby</t>
+  </si>
+  <si>
+    <t>Cyrus</t>
+  </si>
+  <si>
+    <t>Reese</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/E19M3y4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/aHxJxES.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/1fxl9Ox.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/jmjgpja.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/BtNq4IC.jpg</t>
+  </si>
+  <si>
+    <t>Body Harvest</t>
+  </si>
+  <si>
+    <t>Pokemon Puzzle League</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>Wetrix</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/t3Qq71q.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/8ENsRgd.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/IsXbQEy.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/AqGNidn.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/5rIM7ah.jpg</t>
+  </si>
+  <si>
+    <t>Planet Basket 2009 2010</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/AYAxPPc.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/HBm1XMc.jpg</t>
+  </si>
+  <si>
+    <t>Counter Force</t>
+  </si>
+  <si>
+    <t>Super Smash Bros Ultimate</t>
+  </si>
+  <si>
+    <t>Ultimate Edition</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/gnKsKLA.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/0q5mMyD.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/CjSeB5C.jpg</t>
+  </si>
+  <si>
+    <t>Unikitty Fun Pack</t>
+  </si>
+  <si>
+    <t>Cyborg Fun Pack</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/DM7sxYH.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/FRndpRn.jpg</t>
+  </si>
+  <si>
+    <t>Super Smash Bros Ultimate Strategy Guide</t>
+  </si>
+  <si>
+    <t>Red Alert 2 Strategy Guide</t>
+  </si>
+  <si>
+    <t>Sackboy Figure</t>
+  </si>
+  <si>
+    <t>Mario Figure</t>
+  </si>
+  <si>
+    <t>Donkey Kong Figure</t>
+  </si>
+  <si>
+    <t>Toad Figure</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/OtuXI6H.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xk1iror.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/BxMxUuf.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/EFODReu.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/x0vELYn.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Ic66Zwg.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/M4OzD1q.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/oZuUwVd.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/uEh0dYF.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ndU28gs.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/dJfVGqJ.jpg</t>
+  </si>
+  <si>
+    <t>Gameboy Light</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/q0Rpy97.jpg</t>
   </si>
 </sst>
 </file>
@@ -10088,11 +10820,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1755"/>
+  <dimension ref="A1:N1876"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1727" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1756" sqref="A1756"/>
+      <pane ySplit="1" topLeftCell="A1846" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1877" sqref="A1877"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10248,6 +10980,9 @@
       <c r="D5" s="1">
         <v>42083</v>
       </c>
+      <c r="F5" t="s">
+        <v>3234</v>
+      </c>
       <c r="J5" s="7" t="s">
         <v>651</v>
       </c>
@@ -12221,6 +12956,9 @@
       <c r="G87" t="s">
         <v>7</v>
       </c>
+      <c r="H87" t="s">
+        <v>7</v>
+      </c>
       <c r="J87" t="s">
         <v>3159</v>
       </c>
@@ -12241,6 +12979,15 @@
       <c r="E88" t="s">
         <v>45</v>
       </c>
+      <c r="G88" t="s">
+        <v>7</v>
+      </c>
+      <c r="H88" t="s">
+        <v>9</v>
+      </c>
+      <c r="J88" t="s">
+        <v>3472</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
@@ -12261,6 +13008,12 @@
       <c r="G89" t="s">
         <v>7</v>
       </c>
+      <c r="H89" t="s">
+        <v>7</v>
+      </c>
+      <c r="J89" t="s">
+        <v>3474</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
@@ -12278,6 +13031,15 @@
       <c r="E90" t="s">
         <v>45</v>
       </c>
+      <c r="G90" t="s">
+        <v>7</v>
+      </c>
+      <c r="H90" t="s">
+        <v>9</v>
+      </c>
+      <c r="J90" t="s">
+        <v>3473</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
@@ -21486,6 +22248,9 @@
       <c r="D587" s="1">
         <v>42433</v>
       </c>
+      <c r="F587" t="s">
+        <v>3235</v>
+      </c>
       <c r="J587" t="s">
         <v>628</v>
       </c>
@@ -21540,6 +22305,9 @@
       <c r="D590" s="1">
         <v>42335</v>
       </c>
+      <c r="F590" t="s">
+        <v>3233</v>
+      </c>
       <c r="J590" t="s">
         <v>631</v>
       </c>
@@ -34311,6 +35079,9 @@
       <c r="C1235" t="s">
         <v>18</v>
       </c>
+      <c r="F1235" t="s">
+        <v>3233</v>
+      </c>
       <c r="J1235" t="s">
         <v>2098</v>
       </c>
@@ -43681,7 +44452,7 @@
         <v>3215</v>
       </c>
       <c r="B1748" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C1748" t="s">
         <v>18</v>
@@ -43806,6 +44577,9 @@
       <c r="C1754" t="s">
         <v>598</v>
       </c>
+      <c r="D1754" s="1">
+        <v>37959</v>
+      </c>
       <c r="E1754" t="s">
         <v>1411</v>
       </c>
@@ -43823,11 +44597,2053 @@
       <c r="C1755" t="s">
         <v>598</v>
       </c>
+      <c r="D1755" s="1">
+        <v>38311</v>
+      </c>
       <c r="E1755" t="s">
         <v>1411</v>
       </c>
       <c r="J1755" t="s">
         <v>3230</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1756" s="2" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1756" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1756" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1756" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1757" s="2" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1757" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1757" t="s">
+        <v>3239</v>
+      </c>
+      <c r="J1757" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1758" s="2" t="s">
+        <v>3240</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1758" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1758" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1758" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1759" s="2" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1759" t="s">
+        <v>3253</v>
+      </c>
+      <c r="J1759" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1760" s="2" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1760" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1760" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1761" s="2" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1761" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1761" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1762" s="2" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1762" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1762" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1763" s="2" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1763" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1763" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1764" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1764" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1764" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1765" s="2" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1765" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1765" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1766" s="2" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1766" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1766" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1767" s="2" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1767" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1767" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1768" s="2" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1768" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1768" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1769" s="2" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1769" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1769" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1770" s="2" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1770" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1770" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1771" s="2" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1771" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1771" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1772" s="2" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1772" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1772" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1773" s="2" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1773" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1773" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1774" s="2" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1774" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1774" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1775" s="2" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1775" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1775" t="s">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1776" s="2" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1776" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1776" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1777" s="2" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1777" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1777" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1778" s="2" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1778" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1778" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1779" s="2" t="s">
+        <v>3275</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1779" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1779" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1780" s="2" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1780" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1780" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1781" s="2" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1781" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1781" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1782" s="2" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1782" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1782" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1783" s="2" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1783" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1783" t="s">
+        <v>3297</v>
+      </c>
+      <c r="K1783" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1784" s="2" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1784" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1784" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1785" s="2" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1785" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1785" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1785" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1786" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B1786" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1786" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1786" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1787" s="2" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B1787" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1787" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1787" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1788" s="2" t="s">
+        <v>3290</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1788" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1788" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1789" s="2" t="s">
+        <v>3291</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1789" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1789" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1790" s="2" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B1790" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1790" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1790" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1791" s="2" t="s">
+        <v>3304</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1791" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1791" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1792" s="2" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1792" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1792" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1793" s="2" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1793" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1793" t="s">
+        <v>3307</v>
+      </c>
+      <c r="K1793" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1794" s="2" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1794" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1794" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1795" s="2" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1795" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1795" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1796" s="2" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1796" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1796" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1797" s="2" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1797" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1797" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1798" s="2" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B1798" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1798" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1798" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1799" s="2" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B1799" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1799" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1799" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1799" t="s">
+        <v>3323</v>
+      </c>
+      <c r="K1799" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1800" s="2" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B1800" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1800" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1800" t="s">
+        <v>3325</v>
+      </c>
+      <c r="K1800" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1801" s="2" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1801" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1801" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1802" s="2" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1802" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1802" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1803" s="2" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1803" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1803" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1804" s="2" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1804" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1804" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1805" s="2" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1805" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1805" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1806" s="2" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1806" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1806" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1807" s="2" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B1807" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1807" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1807" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1808" s="2" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B1808" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1808" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1808" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1809" s="2" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1809" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1809" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1810" s="2" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1810" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1810" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1811" s="2" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B1811" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1811" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1811" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1812" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1812" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1812" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1813" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B1813" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1813" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1813" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1814" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B1814" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1814" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1814" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1815" s="2" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B1815" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1815" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1815" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1815" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1816" s="2" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B1816" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1816" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1816" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J1816" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1817" s="2" t="s">
+        <v>3358</v>
+      </c>
+      <c r="B1817" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1817" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1817" t="s">
+        <v>3233</v>
+      </c>
+      <c r="J1817" t="s">
+        <v>3360</v>
+      </c>
+      <c r="K1817" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1818" s="2" t="s">
+        <v>3359</v>
+      </c>
+      <c r="B1818" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1818" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1818" t="s">
+        <v>3233</v>
+      </c>
+      <c r="J1818" t="s">
+        <v>3362</v>
+      </c>
+      <c r="K1818" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1819" s="2" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B1819" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1819" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1819" t="s">
+        <v>3233</v>
+      </c>
+      <c r="J1819" t="s">
+        <v>3363</v>
+      </c>
+      <c r="K1819" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1820" s="2" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B1820" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1820" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1820" t="s">
+        <v>3239</v>
+      </c>
+      <c r="J1820" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1821" s="2" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B1821" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1821" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1821" t="s">
+        <v>3239</v>
+      </c>
+      <c r="J1821" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1822" s="2" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B1822" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1822" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1822" t="s">
+        <v>3239</v>
+      </c>
+      <c r="J1822" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1823" s="2" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B1823" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1823" t="s">
+        <v>618</v>
+      </c>
+      <c r="J1823" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1824" s="2" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B1824" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1824" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1824" t="s">
+        <v>618</v>
+      </c>
+      <c r="J1824" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1825" s="2" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B1825" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1825" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1825" t="s">
+        <v>618</v>
+      </c>
+      <c r="J1825" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1826" s="2" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B1826" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1826" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1826" t="s">
+        <v>618</v>
+      </c>
+      <c r="J1826" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1827" s="2" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B1827" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1827" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1827" t="s">
+        <v>618</v>
+      </c>
+      <c r="J1827" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1828" s="2" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B1828" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1828" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1828" t="s">
+        <v>618</v>
+      </c>
+      <c r="J1828" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1829" s="2" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B1829" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1829" t="s">
+        <v>600</v>
+      </c>
+      <c r="J1829" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1830" s="2" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B1830" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1830" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1830" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1831" s="2" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B1831" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1831" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1831" t="s">
+        <v>3235</v>
+      </c>
+      <c r="J1831" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1832" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B1832" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1832" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1832" t="s">
+        <v>3235</v>
+      </c>
+      <c r="J1832" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1833" s="2" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B1833" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1833" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1833" t="s">
+        <v>3235</v>
+      </c>
+      <c r="J1833" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1834" s="2" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B1834" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1834" t="s">
+        <v>3235</v>
+      </c>
+      <c r="J1834" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1835" s="2" t="s">
+        <v>3291</v>
+      </c>
+      <c r="B1835" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1835" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1835" t="s">
+        <v>3234</v>
+      </c>
+      <c r="J1835" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1836" s="2" t="s">
+        <v>3240</v>
+      </c>
+      <c r="B1836" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1836" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1836" t="s">
+        <v>3234</v>
+      </c>
+      <c r="J1836" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1837" s="2" t="s">
+        <v>3392</v>
+      </c>
+      <c r="B1837" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1837" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1837" t="s">
+        <v>3234</v>
+      </c>
+      <c r="J1837" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1838" s="2" t="s">
+        <v>3290</v>
+      </c>
+      <c r="B1838" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1838" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1838" t="s">
+        <v>3234</v>
+      </c>
+      <c r="J1838" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1839" s="2" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B1839" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1839" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1839" t="s">
+        <v>3234</v>
+      </c>
+      <c r="J1839" t="s">
+        <v>3397</v>
+      </c>
+      <c r="K1839" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1840" s="2" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1840" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1840" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1840" t="s">
+        <v>3234</v>
+      </c>
+      <c r="J1840" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1841" s="2" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B1841" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1841" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1841" t="s">
+        <v>3234</v>
+      </c>
+      <c r="J1841" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1842" s="2" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B1842" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1842" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1842" t="s">
+        <v>3234</v>
+      </c>
+      <c r="J1842" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1843" s="2" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B1843" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1843" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1843" t="s">
+        <v>3234</v>
+      </c>
+      <c r="J1843" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1844" s="2" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1844" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1844" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1844" t="s">
+        <v>3234</v>
+      </c>
+      <c r="J1844" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1845" s="2" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B1845" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1845" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1845" t="s">
+        <v>3234</v>
+      </c>
+      <c r="J1845" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1846" s="2" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B1846" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1846" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1846" t="s">
+        <v>3234</v>
+      </c>
+      <c r="J1846" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1847" s="2" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B1847" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1847" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1847" t="s">
+        <v>3234</v>
+      </c>
+      <c r="J1847" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1848" s="2" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B1848" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1848" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1848" t="s">
+        <v>3234</v>
+      </c>
+      <c r="J1848" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1849" s="2" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B1849" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1849" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1849" t="s">
+        <v>3413</v>
+      </c>
+      <c r="J1849" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1850" s="2" t="s">
+        <v>3415</v>
+      </c>
+      <c r="B1850" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1850" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1850" t="s">
+        <v>3413</v>
+      </c>
+      <c r="J1850" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1851" s="2" t="s">
+        <v>3416</v>
+      </c>
+      <c r="B1851" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1851" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1851" t="s">
+        <v>3413</v>
+      </c>
+      <c r="J1851" t="s">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1852" s="2" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B1852" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1852" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1852" t="s">
+        <v>3413</v>
+      </c>
+      <c r="J1852" t="s">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1853" s="2" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B1853" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1853" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1853" t="s">
+        <v>3413</v>
+      </c>
+      <c r="J1853" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1854" s="2" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B1854" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1854" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1854" t="s">
+        <v>3413</v>
+      </c>
+      <c r="J1854" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1855" s="2" t="s">
+        <v>3426</v>
+      </c>
+      <c r="B1855" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1855" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1855" t="s">
+        <v>3413</v>
+      </c>
+      <c r="J1855" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1856" s="2" t="s">
+        <v>3427</v>
+      </c>
+      <c r="B1856" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1856" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1856" t="s">
+        <v>3413</v>
+      </c>
+      <c r="J1856" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1857" s="2" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B1857" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1857" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1857" t="s">
+        <v>3413</v>
+      </c>
+      <c r="J1857" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1858" s="2" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B1858" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1858" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1858" t="s">
+        <v>3413</v>
+      </c>
+      <c r="J1858" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1859" s="2" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B1859" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1859" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1859" t="s">
+        <v>3413</v>
+      </c>
+      <c r="J1859" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1860" s="2" t="s">
+        <v>3436</v>
+      </c>
+      <c r="B1860" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1860" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1860" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1861" s="2" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B1861" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1861" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1861" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1862" s="2" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B1862" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1862" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1862" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1863" s="2" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B1863" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1863" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1863" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1864" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B1864" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1864" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1864" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1865" s="2" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B1865" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1865" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1865" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1866" s="2" t="s">
+        <v>3448</v>
+      </c>
+      <c r="B1866" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1866" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1866" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1867" s="2" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B1867" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1867" t="s">
+        <v>598</v>
+      </c>
+      <c r="F1867" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J1867" t="s">
+        <v>3451</v>
+      </c>
+      <c r="K1867" t="s">
+        <v>3452</v>
+      </c>
+      <c r="L1867" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1868" s="2" t="s">
+        <v>3454</v>
+      </c>
+      <c r="B1868" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1868" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1868" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1869" s="2" t="s">
+        <v>3455</v>
+      </c>
+      <c r="B1869" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1869" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1869" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1870" s="2" t="s">
+        <v>3458</v>
+      </c>
+      <c r="B1870" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1870" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1870" t="s">
+        <v>656</v>
+      </c>
+      <c r="J1870" t="s">
+        <v>3464</v>
+      </c>
+      <c r="K1870" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1871" s="2" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B1871" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1871" t="s">
+        <v>600</v>
+      </c>
+      <c r="J1871" t="s">
+        <v>3466</v>
+      </c>
+      <c r="K1871" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1872" s="2" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B1872" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1872" t="s">
+        <v>600</v>
+      </c>
+      <c r="J1872" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1873" s="2" t="s">
+        <v>3461</v>
+      </c>
+      <c r="B1873" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1873" t="s">
+        <v>600</v>
+      </c>
+      <c r="J1873" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1874" s="2" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B1874" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1874" t="s">
+        <v>600</v>
+      </c>
+      <c r="J1874" t="s">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1875" s="2" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B1875" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1875" t="s">
+        <v>600</v>
+      </c>
+      <c r="J1875" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1876" s="2" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B1876" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1876" t="s">
+        <v>600</v>
+      </c>
+      <c r="J1876" t="s">
+        <v>3476</v>
       </c>
     </row>
   </sheetData>
